--- a/dados/supertrio som.xlsx
+++ b/dados/supertrio som.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E49"/>
+  <dimension ref="A1:G49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,15 +446,25 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>modelo</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>politica</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>full</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>tipo</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>link</t>
         </is>
@@ -471,17 +481,27 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
+          <t>FONTE 120 BOB</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Igual</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>FULL</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>Classico</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-120a-bob-slim-bivolt-cor-preto/p/MLB22144397?pdp_filters=seller_id:45588212#searchVariation=MLB22144397&amp;position=12&amp;search_layout=stack&amp;type=product&amp;tracking_id=d71570e7-cac3-48c0-bdd3-c2c2786d58b1</t>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-120a-bob-slim-bivolt-cor-preto/p/MLB22144397?pdp_filters=seller_id:45588212#searchVariation=MLB22144397&amp;position=2&amp;search_layout=stack&amp;type=product&amp;tracking_id=8d49758a-baa8-4d76-a018-d62f2b9a2347</t>
         </is>
       </c>
     </row>
@@ -496,17 +516,27 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
+          <t>FONTE 200A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Igual</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
           <t>FULL</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>Premium</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-automotiva-jfa-200a-slim-bivolt-voltimetro/p/MLB21348561?pdp_filters=seller_id:45588212#searchVariation=MLB21348561&amp;position=15&amp;search_layout=stack&amp;type=product&amp;tracking_id=d71570e7-cac3-48c0-bdd3-c2c2786d58b1</t>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-automotiva-jfa-200a-slim-bivolt-voltimetro/p/MLB21348561?pdp_filters=seller_id:45588212#searchVariation=MLB21348561&amp;position=3&amp;search_layout=stack&amp;type=product&amp;tracking_id=8d49758a-baa8-4d76-a018-d62f2b9a2347</t>
         </is>
       </c>
     </row>
@@ -521,17 +551,27 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
+          <t>FONTE 120A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Igual</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
           <t>FULL</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>Classico</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>https://www.mercadolivre.com.br/fonte-automotiva-120a-amperes-jfa-carregador-cor-preto/p/MLB21392652?pdp_filters=seller_id:45588212#searchVariation=MLB21392652&amp;position=6&amp;search_layout=stack&amp;type=product&amp;tracking_id=d71570e7-cac3-48c0-bdd3-c2c2786d58b1</t>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/fonte-automotiva-120a-amperes-jfa-carregador-cor-preto/p/MLB21392652?pdp_filters=seller_id:45588212#searchVariation=MLB21392652&amp;position=5&amp;search_layout=stack&amp;type=product&amp;tracking_id=8d49758a-baa8-4d76-a018-d62f2b9a2347</t>
         </is>
       </c>
     </row>
@@ -546,42 +586,62 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
+          <t>FONTE 60A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Igual</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>FULL</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>Classico</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-60a-bivolt-storm-com-medidor-cca/p/MLB21320712?pdp_filters=seller_id:45588212#searchVariation=MLB21320712&amp;position=7&amp;search_layout=stack&amp;type=product&amp;tracking_id=d71570e7-cac3-48c0-bdd3-c2c2786d58b1</t>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-60a-bivolt-storm-com-medidor-cca/p/MLB21320712?pdp_filters=seller_id:45588212#searchVariation=MLB21320712&amp;position=6&amp;search_layout=stack&amp;type=product&amp;tracking_id=8d49758a-baa8-4d76-a018-d62f2b9a2347</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Fonte Automotiva Jfa Storm 200a Bob Carregador Automático Bivolt Cor BOB 200A JFA</t>
+          <t>Fonte Carregador Jfa 70a Bivolt Com Medidor Cca</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>624.33</v>
+        <v>493.42</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
+          <t>FONTE 70A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Igual</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>FULL</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>Classico</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>https://www.mercadolivre.com.br/fonte-automotiva-jfa-storm-200a-bob-carregador-automatico-bivolt-cor-bob-200a-jfa/p/MLB24834408?pdp_filters=seller_id:45588212#searchVariation=MLB24834408&amp;position=14&amp;search_layout=stack&amp;type=product&amp;tracking_id=d71570e7-cac3-48c0-bdd3-c2c2786d58b1</t>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-70a-bivolt-com-medidor-cca/p/MLB21455208?pdp_filters=seller_id:45588212#searchVariation=MLB21455208&amp;position=7&amp;search_layout=stack&amp;type=product&amp;tracking_id=8d49758a-baa8-4d76-a018-d62f2b9a2347</t>
         </is>
       </c>
     </row>
@@ -596,142 +656,194 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>Premium</t>
-        </is>
-      </c>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr"/>
       <c r="E7" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/controle-longa-distncia-jfa-acqua-1200-resistente-a-agua/p/MLB27687422?pdp_filters=seller_id:45588212#searchVariation=MLB27687422&amp;position=10&amp;search_layout=stack&amp;type=product&amp;tracking_id=d71570e7-cac3-48c0-bdd3-c2c2786d58b1</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/controle-longa-distncia-jfa-acqua-1200-resistente-a-agua/p/MLB27687422?pdp_filters=seller_id:45588212#searchVariation=MLB27687422&amp;position=8&amp;search_layout=stack&amp;type=product&amp;tracking_id=8d49758a-baa8-4d76-a018-d62f2b9a2347</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa 70a Bivolt Com Medidor Cca</t>
+          <t>Fonte Carregador Jfa Storm 120a Bivolt Slim</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>493.42</v>
+        <v>674.6799999999999</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
+          <t>FONTE 120A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Igual</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>FULL</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>Classico</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-70a-bivolt-com-medidor-cca/p/MLB21455208?pdp_filters=seller_id:45588212#searchVariation=MLB21455208&amp;position=1&amp;search_layout=stack&amp;type=product&amp;tracking_id=d71570e7-cac3-48c0-bdd3-c2c2786d58b1</t>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-2166850824-fonte-carregador-jfa-storm-120a-bivolt-slim-_JM#position%3D20%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D8d49758a-baa8-4d76-a018-d62f2b9a2347</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa Storm 120a Bivolt Slim</t>
+          <t>Fonte Carregador Jfa Bob Storm 90a Bivolt Automático Cor Preto</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>674.6799999999999</v>
+        <v>422.93</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>FULL</t>
+          <t>FONTE 90 BOB</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Premium</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2166850824-fonte-carregador-jfa-storm-120a-bivolt-slim-_JM#position%3D20%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dd71570e7-cac3-48c0-bdd3-c2c2786d58b1</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-bob-storm-90a-bivolt-automatico-cor-preto/p/MLB21562641?pdp_filters=seller_id:45588212#searchVariation=MLB21562641&amp;position=9&amp;search_layout=stack&amp;type=product&amp;tracking_id=8d49758a-baa8-4d76-a018-d62f2b9a2347</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa Bob Storm 90a Bivolt Automático Cor Preto</t>
+          <t>Controle Longa Distancia Jfa K600 Branco Com Cinza</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>422.93</v>
+        <v>51.12</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>FULL</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>Classico</t>
-        </is>
-      </c>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr"/>
       <c r="E10" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-bob-storm-90a-bivolt-automatico-cor-preto/p/MLB21562641?pdp_filters=seller_id:45588212#searchVariation=MLB21562641&amp;position=8&amp;search_layout=stack&amp;type=product&amp;tracking_id=d71570e7-cac3-48c0-bdd3-c2c2786d58b1</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/controle-longa-distancia-jfa-k600-branco-com-cinza/p/MLB32364344?pdp_filters=seller_id:45588212#searchVariation=MLB32364344&amp;position=10&amp;search_layout=stack&amp;type=product&amp;tracking_id=8d49758a-baa8-4d76-a018-d62f2b9a2347</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Controle Longa Distancia Jfa K600 Branco Com Cinza</t>
+          <t>Fonte Carregador Jfa 120a Bob Slim Bivolt</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>51.12</v>
+        <v>539.74</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FONTE 120 BOB</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Classico</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/controle-longa-distancia-jfa-k600-branco-com-cinza/p/MLB32364344?pdp_filters=seller_id:45588212#searchVariation=MLB32364344&amp;position=9&amp;search_layout=stack&amp;type=product&amp;tracking_id=d71570e7-cac3-48c0-bdd3-c2c2786d58b1</t>
+          <t>FULL</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-2773051227-fonte-carregador-jfa-120a-bob-slim-bivolt-_JM#position%3D21%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D8d49758a-baa8-4d76-a018-d62f2b9a2347</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa 120a Bob Slim Bivolt</t>
+          <t>Fonte Automotiva Jfa Storm 200a Bob Carregador Automático Bivolt Cor BOB 200A JFA</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>539.74</v>
+        <v>624.33</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
+          <t>FONTE 200 BOB</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Igual</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
           <t>FULL</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>Premium</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2773051227-fonte-carregador-jfa-120a-bob-slim-bivolt-_JM#position%3D21%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dd71570e7-cac3-48c0-bdd3-c2c2786d58b1</t>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/fonte-automotiva-jfa-storm-200a-bob-carregador-automatico-bivolt-cor-bob-200a-jfa/p/MLB24834408?pdp_filters=seller_id:45588212#searchVariation=MLB24834408&amp;position=11&amp;search_layout=stack&amp;type=product&amp;tracking_id=8d49758a-baa8-4d76-a018-d62f2b9a2347</t>
         </is>
       </c>
     </row>
@@ -746,17 +858,23 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>Classico</t>
-        </is>
-      </c>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr"/>
       <c r="E13" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/conversor-fio-para-rca-remoto-slim-12v-jfa-automotivo-cd-dvd/p/MLB25707531?pdp_filters=seller_id:45588212#searchVariation=MLB25707531&amp;position=16&amp;search_layout=stack&amp;type=product&amp;tracking_id=d71570e7-cac3-48c0-bdd3-c2c2786d58b1</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/conversor-fio-para-rca-remoto-slim-12v-jfa-automotivo-cd-dvd/p/MLB25707531?pdp_filters=seller_id:45588212#searchVariation=MLB25707531&amp;position=12&amp;search_layout=stack&amp;type=product&amp;tracking_id=8d49758a-baa8-4d76-a018-d62f2b9a2347</t>
         </is>
       </c>
     </row>
@@ -771,17 +889,27 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FONTE 60A LITE</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Classico</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/jfa-fonte-carregador-storm-lite-60a-3000-w-preto/p/MLB23456525?pdp_filters=seller_id:45588212#searchVariation=MLB23456525&amp;position=17&amp;search_layout=stack&amp;type=product&amp;tracking_id=d71570e7-cac3-48c0-bdd3-c2c2786d58b1</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/jfa-fonte-carregador-storm-lite-60a-3000-w-preto/p/MLB23456525?pdp_filters=seller_id:45588212#searchVariation=MLB23456525&amp;position=13&amp;search_layout=stack&amp;type=product&amp;tracking_id=8d49758a-baa8-4d76-a018-d62f2b9a2347</t>
         </is>
       </c>
     </row>
@@ -796,17 +924,27 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
+          <t>FONTE 200A LITE</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Igual</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
           <t>FULL</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>Classico</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3344425354-fonte-automotiva-jfa-storm-lite-200a-bivolt-carregador-_JM#position%3D22%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dd71570e7-cac3-48c0-bdd3-c2c2786d58b1</t>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3344425354-fonte-automotiva-jfa-storm-lite-200a-bivolt-carregador-_JM#position%3D22%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D8d49758a-baa8-4d76-a018-d62f2b9a2347</t>
         </is>
       </c>
     </row>
@@ -821,17 +959,23 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>Classico</t>
-        </is>
-      </c>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr"/>
       <c r="E16" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/controle-remoto-universal-longa-distncia-jfa-k1200-azul/p/MLB28722231?pdp_filters=seller_id:45588212#searchVariation=MLB28722231&amp;position=3&amp;search_layout=stack&amp;type=product&amp;tracking_id=d71570e7-cac3-48c0-bdd3-c2c2786d58b1</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/controle-remoto-universal-longa-distncia-jfa-k1200-azul/p/MLB28722231?pdp_filters=seller_id:45588212#searchVariation=MLB28722231&amp;position=14&amp;search_layout=stack&amp;type=product&amp;tracking_id=8d49758a-baa8-4d76-a018-d62f2b9a2347</t>
         </is>
       </c>
     </row>
@@ -846,17 +990,27 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FONTE 90 BOB</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Premium</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3744103525-nova-fonte-carregador-jfa-bob-storm-90a-bivolt-automatico-_JM#position%3D23%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dd71570e7-cac3-48c0-bdd3-c2c2786d58b1</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3744103525-nova-fonte-carregador-jfa-bob-storm-90a-bivolt-automatico-_JM#position%3D23%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D8d49758a-baa8-4d76-a018-d62f2b9a2347</t>
         </is>
       </c>
     </row>
@@ -871,17 +1025,27 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
+          <t>FONTE 60A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>Igual</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
           <t>FULL</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>Premium</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2678722526-fonte-automotiva-carregador-jfa-60a-bivolt-automatico-sci-_JM#position%3D24%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dd71570e7-cac3-48c0-bdd3-c2c2786d58b1</t>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-2678722526-fonte-automotiva-carregador-jfa-60a-bivolt-automatico-sci-_JM#position%3D24%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D8d49758a-baa8-4d76-a018-d62f2b9a2347</t>
         </is>
       </c>
     </row>
@@ -896,17 +1060,27 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FONTE 200 BOB</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Classico</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3738244537-fonte-carregador-jfa-bob-storm-200a-bivolt-_JM?searchVariation=183142398239#searchVariation%3D183142398239%26position%3D25%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dd71570e7-cac3-48c0-bdd3-c2c2786d58b1</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3738244537-fonte-carregador-jfa-bob-storm-200a-bivolt-_JM?searchVariation=183142398239#searchVariation%3D183142398239%26position%3D25%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D8d49758a-baa8-4d76-a018-d62f2b9a2347</t>
         </is>
       </c>
     </row>
@@ -921,42 +1095,62 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FONTE 70A LITE</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Classico</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3307314045-fonte-automotiva-jfa-storm-lite-70a-bivolt-carregador-_JM#position%3D26%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dd71570e7-cac3-48c0-bdd3-c2c2786d58b1</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3307314045-fonte-automotiva-jfa-storm-lite-70a-bivolt-carregador-_JM#position%3D26%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D8d49758a-baa8-4d76-a018-d62f2b9a2347</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Fonte Automotiva 60a Jfa Amperes Bivolt Automatico</t>
+          <t>Fonte Carregador Jfa Bob 200</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>443.07</v>
+        <v>624.33</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>FULL</t>
+          <t>FONTE 200 BOB</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Classico</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1921800308-fonte-automotiva-60a-jfa-amperes-bivolt-automatico-_JM#position%3D27%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dd71570e7-cac3-48c0-bdd3-c2c2786d58b1</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3344009945-fonte-carregador-jfa-bob-200-_JM?searchVariation=178601508955#searchVariation%3D178601508955%26position%3D27%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D8d49758a-baa8-4d76-a018-d62f2b9a2347</t>
         </is>
       </c>
     </row>
@@ -971,142 +1165,198 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>Classico</t>
-        </is>
-      </c>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr"/>
       <c r="E22" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/controle-remoto-universal-longa-jfa-k1200-preto-c-verde/p/MLB30476096?pdp_filters=seller_id:45588212#searchVariation=MLB30476096&amp;position=4&amp;search_layout=stack&amp;type=product&amp;tracking_id=d71570e7-cac3-48c0-bdd3-c2c2786d58b1</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/controle-remoto-universal-longa-jfa-k1200-preto-c-verde/p/MLB30476096?pdp_filters=seller_id:45588212#searchVariation=MLB30476096&amp;position=15&amp;search_layout=stack&amp;type=product&amp;tracking_id=8d49758a-baa8-4d76-a018-d62f2b9a2347</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa Bob 200</t>
+          <t>Nova Fonte Automotiva 70a Amperes Jfa Carregador Storm Novo</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>624.33</v>
+        <v>493.42</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FONTE 70A</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Classico</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3344009945-fonte-carregador-jfa-bob-200-_JM?searchVariation=178601508955#searchVariation%3D178601508955%26position%3D28%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dd71570e7-cac3-48c0-bdd3-c2c2786d58b1</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-2621320782-nova-fonte-automotiva-70a-amperes-jfa-carregador-storm-novo-_JM#position%3D28%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D8d49758a-baa8-4d76-a018-d62f2b9a2347</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Nova Fonte Automotiva 70a Amperes Jfa Carregador Storm Novo</t>
+          <t>Fonte Automotiva Jfa 200a 3000w Bivolt Automático Voltímetro</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>493.42</v>
+        <v>805.59</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FONTE 200A</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Classico</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2621320782-nova-fonte-automotiva-70a-amperes-jfa-carregador-storm-novo-_JM#position%3D29%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dd71570e7-cac3-48c0-bdd3-c2c2786d58b1</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-1290018792-fonte-automotiva-jfa-200a-3000w-bivolt-automatico-voltimetro-_JM#position%3D29%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D8d49758a-baa8-4d76-a018-d62f2b9a2347</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Fonte Automotiva Jfa 200a 3000w Bivolt Automático Voltímetro</t>
+          <t>Fonte Automotiva Jfa Storm Lite 70a Bivolt Carregador</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>805.59</v>
+        <v>434.42</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FONTE 70A LITE</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Classico</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1290018792-fonte-automotiva-jfa-200a-3000w-bivolt-automatico-voltimetro-_JM#position%3D30%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dd71570e7-cac3-48c0-bdd3-c2c2786d58b1</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3582399882-fonte-automotiva-jfa-storm-lite-70a-bivolt-carregador-_JM#position%3D30%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D8d49758a-baa8-4d76-a018-d62f2b9a2347</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Fonte Automotiva Jfa Storm Lite 70a Bivolt Carregador</t>
+          <t>Fonte Automotiva 70 Amperes Jfa Storm Carregador Com Cor Preto</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>434.42</v>
+        <v>523.63</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FONTE 70A</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Premium</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3582399882-fonte-automotiva-jfa-storm-lite-70a-bivolt-carregador-_JM#position%3D31%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dd71570e7-cac3-48c0-bdd3-c2c2786d58b1</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/fonte-automotiva-70-amperes-jfa-storm-carregador-com-cor-preto/p/MLB25571709?pdp_filters=seller_id:45588212#searchVariation=MLB25571709&amp;position=18&amp;search_layout=stack&amp;type=product&amp;tracking_id=8d49758a-baa8-4d76-a018-d62f2b9a2347</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Fonte Automotiva 70 Amperes Jfa Storm Carregador Com Cor Preto</t>
+          <t>Fonte Carregador Jfa 60a Lite Storm Slim Bivolt</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>523.63</v>
+        <v>390.43</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FONTE 60A LITE</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Premium</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-automotiva-70-amperes-jfa-storm-carregador-com-cor-preto/p/MLB25571709?pdp_filters=seller_id:45588212#searchVariation=MLB25571709&amp;position=11&amp;search_layout=stack&amp;type=product&amp;tracking_id=d71570e7-cac3-48c0-bdd3-c2c2786d58b1</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3264927985-fonte-carregador-jfa-60a-lite-storm-slim-bivolt-_JM#position%3D31%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D8d49758a-baa8-4d76-a018-d62f2b9a2347</t>
         </is>
       </c>
     </row>
@@ -1121,17 +1371,23 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>Classico</t>
-        </is>
-      </c>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr"/>
       <c r="E28" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/controle-longa-distncia-jfa-k1200-pretolaranja-1200mt/p/MLB28357019?pdp_filters=seller_id:45588212#searchVariation=MLB28357019&amp;position=5&amp;search_layout=stack&amp;type=product&amp;tracking_id=d71570e7-cac3-48c0-bdd3-c2c2786d58b1</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/controle-longa-distncia-jfa-k1200-pretolaranja-1200mt/p/MLB28357019?pdp_filters=seller_id:45588212#searchVariation=MLB28357019&amp;position=16&amp;search_layout=stack&amp;type=product&amp;tracking_id=8d49758a-baa8-4d76-a018-d62f2b9a2347</t>
         </is>
       </c>
     </row>
@@ -1146,42 +1402,58 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>Classico</t>
-        </is>
-      </c>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr"/>
       <c r="E29" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-4781854750-controle-remoto-universal-longa-distncia-jfa-k1200-azul-_JM#position%3D32%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dd71570e7-cac3-48c0-bdd3-c2c2786d58b1</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-4781854750-controle-remoto-universal-longa-distncia-jfa-k1200-azul-_JM#position%3D32%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D8d49758a-baa8-4d76-a018-d62f2b9a2347</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa 60a Lite Storm Slim Bivolt</t>
+          <t>Fonte Carregador Jfa Bob Storm 90a Bivolt Automático Cor Pre</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>390.43</v>
+        <v>443.07</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FONTE 90 BOB</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Premium</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3264927985-fonte-carregador-jfa-60a-lite-storm-slim-bivolt-_JM#position%3D33%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dd71570e7-cac3-48c0-bdd3-c2c2786d58b1</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-4777392272-fonte-carregador-jfa-bob-storm-90a-bivolt-automatico-cor-pre-_JM#position%3D33%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D8d49758a-baa8-4d76-a018-d62f2b9a2347</t>
         </is>
       </c>
     </row>
@@ -1196,92 +1468,128 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>Classico</t>
-        </is>
-      </c>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr"/>
       <c r="E31" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/controle-remoto-longa-distncia-jfa-k600-laranja-preto/p/MLB28061013?pdp_filters=seller_id:45588212#searchVariation=MLB28061013&amp;position=13&amp;search_layout=stack&amp;type=product&amp;tracking_id=d71570e7-cac3-48c0-bdd3-c2c2786d58b1</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/controle-remoto-longa-distncia-jfa-k600-laranja-preto/p/MLB28061013?pdp_filters=seller_id:45588212#searchVariation=MLB28061013&amp;position=17&amp;search_layout=stack&amp;type=product&amp;tracking_id=8d49758a-baa8-4d76-a018-d62f2b9a2347</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa Bob Storm 90a Bivolt Automático Cor Pre</t>
+          <t>Fonte Automotiva Jfa 200a Slim Bivolt Digital Voltímetro Som</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>443.07</v>
+        <v>845.87</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FONTE 200A</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Premium</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-4777392272-fonte-carregador-jfa-bob-storm-90a-bivolt-automatico-cor-pre-_JM#position%3D34%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dd71570e7-cac3-48c0-bdd3-c2c2786d58b1</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-2634603687-fonte-automotiva-jfa-200a-slim-bivolt-digital-voltimetro-som-_JM#position%3D34%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D8d49758a-baa8-4d76-a018-d62f2b9a2347</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Fonte Automotiva Jfa 200a Slim Bivolt Digital Voltímetro Som</t>
+          <t>Fonte Carregador Jfa 70a Bivolt Com Medidor Cca</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>845.87</v>
+        <v>523.63</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FONTE 70A</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Premium</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2634603687-fonte-automotiva-jfa-200a-slim-bivolt-digital-voltimetro-som-_JM#position%3D35%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dd71570e7-cac3-48c0-bdd3-c2c2786d58b1</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-4801332402-fonte-carregador-jfa-70a-bivolt-com-medidor-cca-_JM#position%3D35%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D8d49758a-baa8-4d76-a018-d62f2b9a2347</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa 70a Bivolt Com Medidor Cca</t>
+          <t>Fonte Automotiva Jfa 200a 3000w Bivolt Automático Voltímetro</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>523.63</v>
+        <v>845.87</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FONTE 200A</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Premium</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-4801332402-fonte-carregador-jfa-70a-bivolt-com-medidor-cca-_JM#position%3D36%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dd71570e7-cac3-48c0-bdd3-c2c2786d58b1</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3745721273-fonte-automotiva-jfa-200a-3000w-bivolt-automatico-voltimetro-_JM#position%3D36%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D8d49758a-baa8-4d76-a018-d62f2b9a2347</t>
         </is>
       </c>
     </row>
@@ -1296,42 +1604,58 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>Premium</t>
-        </is>
-      </c>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr"/>
       <c r="E35" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2734136341-controle-remoto-universal-longa-distncia-jfa-k1200-2-cores-_JM#position%3D37%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dd71570e7-cac3-48c0-bdd3-c2c2786d58b1</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-2734136341-controle-remoto-universal-longa-distncia-jfa-k1200-2-cores-_JM#position%3D37%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D8d49758a-baa8-4d76-a018-d62f2b9a2347</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Fonte Automotiva Jfa 200a 3000w Bivolt Automático Voltímetro</t>
+          <t>Fonte Automotiva Jfa Storm 200a Bob Carregador Automático Bi</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>845.87</v>
+        <v>694.8200000000001</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FONTE 200 BOB</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Premium</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3745721273-fonte-automotiva-jfa-200a-3000w-bivolt-automatico-voltimetro-_JM#position%3D38%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dd71570e7-cac3-48c0-bdd3-c2c2786d58b1</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3742956287-fonte-automotiva-jfa-storm-200a-bob-carregador-automatico-bi-_JM#position%3D38%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D8d49758a-baa8-4d76-a018-d62f2b9a2347</t>
         </is>
       </c>
     </row>
@@ -1346,67 +1670,93 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D37" t="inlineStr">
-        <is>
-          <t>Classico</t>
-        </is>
-      </c>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr"/>
       <c r="E37" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/inversor-jfa-49046-senoidal-off-grid-motorhome-caminho-1000w-12v220v/p/MLB35970528?pdp_filters=seller_id:45588212#searchVariation=MLB35970528&amp;position=2&amp;search_layout=stack&amp;type=product&amp;tracking_id=d71570e7-cac3-48c0-bdd3-c2c2786d58b1</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/inversor-jfa-49046-senoidal-off-grid-motorhome-caminho-1000w-12v220v/p/MLB35970528?pdp_filters=seller_id:45588212#searchVariation=MLB35970528&amp;position=1&amp;search_layout=stack&amp;type=product&amp;tracking_id=8d49758a-baa8-4d76-a018-d62f2b9a2347</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Fonte Automotiva Jfa Storm 200a Bob Carregador Automático Bi</t>
+          <t>Fonte Carregador Jfa 120a Storm Bivolt Com Medidor Cca</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>694.8200000000001</v>
+        <v>674.6799999999999</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FONTE 120A</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Premium</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3742956287-fonte-automotiva-jfa-storm-200a-bob-carregador-automatico-bi-_JM#position%3D39%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dd71570e7-cac3-48c0-bdd3-c2c2786d58b1</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-2166734841-fonte-carregador-jfa-120a-storm-bivolt-com-medidor-cca-_JM#position%3D39%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D8d49758a-baa8-4d76-a018-d62f2b9a2347</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa 120a Storm Bivolt Com Medidor Cca</t>
+          <t>Fonte Carregador Jfa Bob Storm 200a Bivolt</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>674.6799999999999</v>
+        <v>694.8200000000001</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FONTE 200 BOB</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Premium</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2166734841-fonte-carregador-jfa-120a-storm-bivolt-com-medidor-cca-_JM#position%3D40%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dd71570e7-cac3-48c0-bdd3-c2c2786d58b1</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3745695931-fonte-carregador-jfa-bob-storm-200a-bivolt-_JM#position%3D40%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D8d49758a-baa8-4d76-a018-d62f2b9a2347</t>
         </is>
       </c>
     </row>
@@ -1421,149 +1771,205 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D40" t="inlineStr">
-        <is>
-          <t>Classico</t>
-        </is>
-      </c>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr"/>
       <c r="E40" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2711461752-controle-de-long-distnc-jfa-k1200-resistente-a-agua-preto-_JM#position%3D41%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dd71570e7-cac3-48c0-bdd3-c2c2786d58b1</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-2711461752-controle-de-long-distnc-jfa-k1200-resistente-a-agua-preto-_JM#position%3D41%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D8d49758a-baa8-4d76-a018-d62f2b9a2347</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa Bob Storm 200a Bivolt</t>
+          <t>Fonte Automotiva 120a Amperes Jfa Carregador Cor Preto</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>694.8200000000001</v>
+        <v>674.6799999999999</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FONTE 120A</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Premium</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3745695931-fonte-carregador-jfa-bob-storm-200a-bivolt-_JM#position%3D42%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dd71570e7-cac3-48c0-bdd3-c2c2786d58b1</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3745673431-fonte-automotiva-120a-amperes-jfa-carregador-cor-preto-_JM#position%3D42%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D8d49758a-baa8-4d76-a018-d62f2b9a2347</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Fonte Automotiva 120a Amperes Jfa Carregador Cor Preto</t>
+          <t>Fonte Carregador Automotiva Storm Sci Redline Jfa 200a Slim</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>674.6799999999999</v>
+        <v>847.99</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FONTE 200A</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Premium</t>
+          <t>Acima</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3745673431-fonte-automotiva-120a-amperes-jfa-carregador-cor-preto-_JM#position%3D43%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dd71570e7-cac3-48c0-bdd3-c2c2786d58b1</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-2649802690-fonte-carregador-automotiva-storm-sci-redline-jfa-200a-slim-_JM#position%3D43%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D8d49758a-baa8-4d76-a018-d62f2b9a2347</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Fonte Carregador Automotiva Storm Sci Redline Jfa 200a Slim</t>
+          <t>Fonte Carregador Jfa 120a Bob Slim Bivolt Cor Preto</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>847.99</v>
+        <v>539.74</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FONTE 120 BOB</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Classico</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2649802690-fonte-carregador-automotiva-storm-sci-redline-jfa-200a-slim-_JM#position%3D44%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dd71570e7-cac3-48c0-bdd3-c2c2786d58b1</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3738283061-fonte-carregador-jfa-120a-bob-slim-bivolt-cor-preto-_JM#position%3D44%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D8d49758a-baa8-4d76-a018-d62f2b9a2347</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa 120a Bob Slim Bivolt Cor Preto</t>
+          <t>Fonte Automotiva 70 Amperes Jfa Storm Red Line Cca Sci Smart</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>539.74</v>
+        <v>523.63</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FONTE 70A</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Premium</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3738283061-fonte-carregador-jfa-120a-bob-slim-bivolt-cor-preto-_JM#position%3D45%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dd71570e7-cac3-48c0-bdd3-c2c2786d58b1</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-2621323642-fonte-automotiva-70-amperes-jfa-storm-red-line-cca-sci-smart-_JM#position%3D45%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D8d49758a-baa8-4d76-a018-d62f2b9a2347</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Fonte Automotiva 70 Amperes Jfa Storm Red Line Cca Sci Smart</t>
+          <t>Nova Fonte Automotiva 60a Amperes Jfa Carregador Storm Novo</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>523.63</v>
+        <v>473.28</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FONTE 60A</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Premium</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2621323642-fonte-automotiva-70-amperes-jfa-storm-red-line-cca-sci-smart-_JM#position%3D46%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dd71570e7-cac3-48c0-bdd3-c2c2786d58b1</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3745744615-nova-fonte-automotiva-60a-amperes-jfa-carregador-storm-novo-_JM#position%3D46%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D8d49758a-baa8-4d76-a018-d62f2b9a2347</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Nova Fonte Automotiva 60a Amperes Jfa Carregador Storm Novo</t>
+          <t>Fonte Carregador 60a Jfa Automotiva Similar Stetsom 60a</t>
         </is>
       </c>
       <c r="B46" t="n">
@@ -1571,24 +1977,34 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FONTE 60A</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Premium</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3745744615-nova-fonte-automotiva-60a-amperes-jfa-carregador-storm-novo-_JM#position%3D47%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dd71570e7-cac3-48c0-bdd3-c2c2786d58b1</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-4788856830-fonte-carregador-60a-jfa-automotiva-similar-stetsom-60a-_JM#position%3D47%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D8d49758a-baa8-4d76-a018-d62f2b9a2347</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Fonte Carregador 60a Jfa Automotiva Similar Stetsom 60a</t>
+          <t>Fonte Carregador Jfa 60a Bivolt Storm Com Medidor Cca</t>
         </is>
       </c>
       <c r="B47" t="n">
@@ -1596,49 +2012,69 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FONTE 60A</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Premium</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-4788856830-fonte-carregador-60a-jfa-automotiva-similar-stetsom-60a-_JM#position%3D48%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dd71570e7-cac3-48c0-bdd3-c2c2786d58b1</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3743029223-fonte-carregador-jfa-60a-bivolt-storm-com-medidor-cca-_JM#position%3D48%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D8d49758a-baa8-4d76-a018-d62f2b9a2347</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa 60a Bivolt Storm Com Medidor Cca</t>
+          <t>Fonte Carregador Jfa 60a Lite Storm Automotivo Slim Bivolt</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>473.28</v>
+        <v>390.43</v>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FONTE 60A LITE</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Premium</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3743029223-fonte-carregador-jfa-60a-bivolt-storm-com-medidor-cca-_JM#position%3D49%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dd71570e7-cac3-48c0-bdd3-c2c2786d58b1</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3738299303-fonte-carregador-jfa-60a-lite-storm-automotivo-slim-bivolt-_JM#position%3D49%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D8d49758a-baa8-4d76-a018-d62f2b9a2347</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa 60a Lite Storm Automotivo Slim Bivolt</t>
+          <t xml:space="preserve"> Jfa Fonte Carregador Storm Lite 60a 3000 W Preto</t>
         </is>
       </c>
       <c r="B49" t="n">
@@ -1646,17 +2082,27 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FONTE 60A LITE</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>Premium</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3738299303-fonte-carregador-jfa-60a-lite-storm-automotivo-slim-bivolt-_JM#position%3D50%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dd71570e7-cac3-48c0-bdd3-c2c2786d58b1</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-4777445178-jfa-fonte-carregador-storm-lite-60a-3000-w-preto-_JM#position%3D50%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D8d49758a-baa8-4d76-a018-d62f2b9a2347</t>
         </is>
       </c>
     </row>

--- a/dados/supertrio som.xlsx
+++ b/dados/supertrio som.xlsx
@@ -441,12 +441,12 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>modelo</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>preco</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>modelo</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
@@ -473,16 +473,16 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa 120a Bob Slim Bivolt Cor Preto</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>499.46</v>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>FONTE 120 BOB</t>
-        </is>
+          <t>Fonte Carregador Automotiva Jfa 200a Slim Bivolt Voltímetro</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>FONTE 200A STORM</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>845.87</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -496,28 +496,28 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>premium</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-120a-bob-slim-bivolt-cor-preto/p/MLB22144397?pdp_filters=seller_id:45588212#searchVariation=MLB22144397&amp;position=2&amp;search_layout=stack&amp;type=product&amp;tracking_id=8d49758a-baa8-4d76-a018-d62f2b9a2347</t>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-automotiva-jfa-200a-slim-bivolt-voltimetro/p/MLB21348561?pdp_filters=seller_id:45588212#searchVariation=MLB21348561&amp;position=5&amp;search_layout=stack&amp;type=product&amp;tracking_id=39de991f-992c-407f-b34d-ffdae0e6970e</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Fonte Carregador Automotiva Jfa 200a Slim Bivolt Voltímetro</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>845.87</v>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>FONTE 200A</t>
-        </is>
+          <t>Fonte Carregador Jfa 120a Bob Slim Bivolt Cor Preto</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>FONTE 120 BOB</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>499.46</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -531,12 +531,12 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>classico</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-automotiva-jfa-200a-slim-bivolt-voltimetro/p/MLB21348561?pdp_filters=seller_id:45588212#searchVariation=MLB21348561&amp;position=3&amp;search_layout=stack&amp;type=product&amp;tracking_id=8d49758a-baa8-4d76-a018-d62f2b9a2347</t>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-120a-bob-slim-bivolt-cor-preto/p/MLB22144397?pdp_filters=seller_id:45588212#searchVariation=MLB22144397&amp;position=1&amp;search_layout=stack&amp;type=product&amp;tracking_id=39de991f-992c-407f-b34d-ffdae0e6970e</t>
         </is>
       </c>
     </row>
@@ -546,14 +546,14 @@
           <t>Fonte Automotiva 120a Amperes Jfa Carregador Cor Preto</t>
         </is>
       </c>
-      <c r="B4" t="n">
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>FONTE 120A STORM</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
         <v>634.4</v>
       </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>FONTE 120A</t>
-        </is>
-      </c>
       <c r="D4" t="inlineStr">
         <is>
           <t>Igual</t>
@@ -571,23 +571,23 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-automotiva-120a-amperes-jfa-carregador-cor-preto/p/MLB21392652?pdp_filters=seller_id:45588212#searchVariation=MLB21392652&amp;position=5&amp;search_layout=stack&amp;type=product&amp;tracking_id=8d49758a-baa8-4d76-a018-d62f2b9a2347</t>
+          <t>https://www.mercadolivre.com.br/fonte-automotiva-120a-amperes-jfa-carregador-cor-preto/p/MLB21392652?pdp_filters=seller_id:45588212#searchVariation=MLB21392652&amp;position=3&amp;search_layout=stack&amp;type=product&amp;tracking_id=39de991f-992c-407f-b34d-ffdae0e6970e</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa 60a Bivolt Storm Com Medidor Cca</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>443.07</v>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>FONTE 60A</t>
-        </is>
+          <t>Fonte Automotiva Jfa Storm 200a Bob Carregador Automático Bivolt Cor BOB 200A JFA</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>FONTE 200 BOB</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>624.33</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -606,23 +606,23 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-60a-bivolt-storm-com-medidor-cca/p/MLB21320712?pdp_filters=seller_id:45588212#searchVariation=MLB21320712&amp;position=6&amp;search_layout=stack&amp;type=product&amp;tracking_id=8d49758a-baa8-4d76-a018-d62f2b9a2347</t>
+          <t>https://www.mercadolivre.com.br/fonte-automotiva-jfa-storm-200a-bob-carregador-automatico-bivolt-cor-bob-200a-jfa/p/MLB24834408?pdp_filters=seller_id:45588212#searchVariation=MLB24834408&amp;position=6&amp;search_layout=stack&amp;type=product&amp;tracking_id=39de991f-992c-407f-b34d-ffdae0e6970e</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa 70a Bivolt Com Medidor Cca</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>493.42</v>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>FONTE 70A</t>
-        </is>
+          <t>Fonte Carregador Jfa Storm 120a Bivolt Slim</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>FONTE 120A STORM</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>674.6799999999999</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -636,12 +636,12 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>premium</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-70a-bivolt-com-medidor-cca/p/MLB21455208?pdp_filters=seller_id:45588212#searchVariation=MLB21455208&amp;position=7&amp;search_layout=stack&amp;type=product&amp;tracking_id=8d49758a-baa8-4d76-a018-d62f2b9a2347</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2166850824-fonte-carregador-jfa-storm-120a-bivolt-slim-_JM#position%3D20%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D39de991f-992c-407f-b34d-ffdae0e6970e</t>
         </is>
       </c>
     </row>
@@ -651,13 +651,13 @@
           <t>Controle Longa Distância Jfa Acqua 1200 Resistente A Água</t>
         </is>
       </c>
-      <c r="B7" t="n">
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
         <v>99</v>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Sem Modelo</t>
-        </is>
       </c>
       <c r="D7" t="inlineStr"/>
       <c r="E7" t="inlineStr">
@@ -672,23 +672,23 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/controle-longa-distncia-jfa-acqua-1200-resistente-a-agua/p/MLB27687422?pdp_filters=seller_id:45588212#searchVariation=MLB27687422&amp;position=8&amp;search_layout=stack&amp;type=product&amp;tracking_id=8d49758a-baa8-4d76-a018-d62f2b9a2347</t>
+          <t>https://www.mercadolivre.com.br/controle-longa-distncia-jfa-acqua-1200-resistente-a-agua/p/MLB27687422?pdp_filters=seller_id:45588212#searchVariation=MLB27687422&amp;position=2&amp;search_layout=stack&amp;type=product&amp;tracking_id=39de991f-992c-407f-b34d-ffdae0e6970e</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa Storm 120a Bivolt Slim</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>674.6799999999999</v>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>FONTE 120A</t>
-        </is>
+          <t>Fonte Carregador Jfa 70a Bivolt Com Medidor Cca</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>FONTE 70A STORM</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>493.42</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -702,12 +702,12 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>classico</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2166850824-fonte-carregador-jfa-storm-120a-bivolt-slim-_JM#position%3D20%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D8d49758a-baa8-4d76-a018-d62f2b9a2347</t>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-70a-bivolt-com-medidor-cca/p/MLB21455208?pdp_filters=seller_id:45588212#searchVariation=MLB21455208&amp;position=13&amp;search_layout=stack&amp;type=product&amp;tracking_id=39de991f-992c-407f-b34d-ffdae0e6970e</t>
         </is>
       </c>
     </row>
@@ -717,14 +717,14 @@
           <t>Fonte Carregador Jfa Bob Storm 90a Bivolt Automático Cor Preto</t>
         </is>
       </c>
-      <c r="B9" t="n">
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>FONTE 90 BOB</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
         <v>422.93</v>
       </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>FONTE 90 BOB</t>
-        </is>
-      </c>
       <c r="D9" t="inlineStr">
         <is>
           <t>Igual</t>
@@ -732,7 +732,7 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FULL</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
@@ -742,7 +742,7 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-bob-storm-90a-bivolt-automatico-cor-preto/p/MLB21562641?pdp_filters=seller_id:45588212#searchVariation=MLB21562641&amp;position=9&amp;search_layout=stack&amp;type=product&amp;tracking_id=8d49758a-baa8-4d76-a018-d62f2b9a2347</t>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-bob-storm-90a-bivolt-automatico-cor-preto/p/MLB21562641?pdp_filters=seller_id:45588212#searchVariation=MLB21562641&amp;position=9&amp;search_layout=stack&amp;type=product&amp;tracking_id=39de991f-992c-407f-b34d-ffdae0e6970e</t>
         </is>
       </c>
     </row>
@@ -752,13 +752,13 @@
           <t>Controle Longa Distancia Jfa K600 Branco Com Cinza</t>
         </is>
       </c>
-      <c r="B10" t="n">
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
         <v>51.12</v>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>Sem Modelo</t>
-        </is>
       </c>
       <c r="D10" t="inlineStr"/>
       <c r="E10" t="inlineStr">
@@ -773,7 +773,7 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/controle-longa-distancia-jfa-k600-branco-com-cinza/p/MLB32364344?pdp_filters=seller_id:45588212#searchVariation=MLB32364344&amp;position=10&amp;search_layout=stack&amp;type=product&amp;tracking_id=8d49758a-baa8-4d76-a018-d62f2b9a2347</t>
+          <t>https://www.mercadolivre.com.br/controle-longa-distancia-jfa-k600-branco-com-cinza/p/MLB32364344?pdp_filters=seller_id:45588212#searchVariation=MLB32364344&amp;position=10&amp;search_layout=stack&amp;type=product&amp;tracking_id=39de991f-992c-407f-b34d-ffdae0e6970e</t>
         </is>
       </c>
     </row>
@@ -783,14 +783,14 @@
           <t>Fonte Carregador Jfa 120a Bob Slim Bivolt</t>
         </is>
       </c>
-      <c r="B11" t="n">
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>FONTE 120 BOB</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
         <v>539.74</v>
       </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>FONTE 120 BOB</t>
-        </is>
-      </c>
       <c r="D11" t="inlineStr">
         <is>
           <t>Igual</t>
@@ -808,32 +808,32 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2773051227-fonte-carregador-jfa-120a-bob-slim-bivolt-_JM#position%3D21%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D8d49758a-baa8-4d76-a018-d62f2b9a2347</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2773051227-fonte-carregador-jfa-120a-bob-slim-bivolt-_JM#position%3D21%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D39de991f-992c-407f-b34d-ffdae0e6970e</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Fonte Automotiva Jfa Storm 200a Bob Carregador Automático Bivolt Cor BOB 200A JFA</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>624.33</v>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>FONTE 200 BOB</t>
-        </is>
+          <t xml:space="preserve"> JFA Fonte Carregador Storm Lite 60A 3000 W Preto</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>FONTE 60A LITE</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>326.53</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>FULL</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
@@ -843,7 +843,7 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-automotiva-jfa-storm-200a-bob-carregador-automatico-bivolt-cor-bob-200a-jfa/p/MLB24834408?pdp_filters=seller_id:45588212#searchVariation=MLB24834408&amp;position=11&amp;search_layout=stack&amp;type=product&amp;tracking_id=8d49758a-baa8-4d76-a018-d62f2b9a2347</t>
+          <t>https://www.mercadolivre.com.br/jfa-fonte-carregador-storm-lite-60a-3000-w-preto/p/MLB23456525?pdp_filters=seller_id:45588212#searchVariation=MLB23456525&amp;position=7&amp;search_layout=stack&amp;type=product&amp;tracking_id=39de991f-992c-407f-b34d-ffdae0e6970e</t>
         </is>
       </c>
     </row>
@@ -853,13 +853,13 @@
           <t>Conversor Fio Para Rca Remoto Slim 12v Jfa Automotivo Cd Dvd</t>
         </is>
       </c>
-      <c r="B13" t="n">
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
         <v>40.1</v>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>Sem Modelo</t>
-        </is>
       </c>
       <c r="D13" t="inlineStr"/>
       <c r="E13" t="inlineStr">
@@ -874,23 +874,23 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/conversor-fio-para-rca-remoto-slim-12v-jfa-automotivo-cd-dvd/p/MLB25707531?pdp_filters=seller_id:45588212#searchVariation=MLB25707531&amp;position=12&amp;search_layout=stack&amp;type=product&amp;tracking_id=8d49758a-baa8-4d76-a018-d62f2b9a2347</t>
+          <t>https://www.mercadolivre.com.br/conversor-fio-para-rca-remoto-slim-12v-jfa-automotivo-cd-dvd/p/MLB25707531?pdp_filters=seller_id:45588212#searchVariation=MLB25707531&amp;position=11&amp;search_layout=stack&amp;type=product&amp;tracking_id=39de991f-992c-407f-b34d-ffdae0e6970e</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t xml:space="preserve"> JFA Fonte Carregador Storm Lite 60A 3000 W Preto</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>364.95</v>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>FONTE 60A LITE</t>
-        </is>
+          <t>Fonte Carregador Jfa 60a Bivolt Storm Com Medidor Cca</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>FONTE 60A STORM</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>443.07</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -909,7 +909,7 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/jfa-fonte-carregador-storm-lite-60a-3000-w-preto/p/MLB23456525?pdp_filters=seller_id:45588212#searchVariation=MLB23456525&amp;position=13&amp;search_layout=stack&amp;type=product&amp;tracking_id=8d49758a-baa8-4d76-a018-d62f2b9a2347</t>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-60a-bivolt-storm-com-medidor-cca/p/MLB21320712?pdp_filters=seller_id:45588212#searchVariation=MLB21320712&amp;position=8&amp;search_layout=stack&amp;type=product&amp;tracking_id=39de991f-992c-407f-b34d-ffdae0e6970e</t>
         </is>
       </c>
     </row>
@@ -919,17 +919,17 @@
           <t>Fonte Automotiva Jfa Storm Lite 200a Bivolt Carregador</t>
         </is>
       </c>
-      <c r="B15" t="n">
-        <v>681.83</v>
-      </c>
-      <c r="C15" t="inlineStr">
+      <c r="B15" t="inlineStr">
         <is>
           <t>FONTE 200A LITE</t>
         </is>
       </c>
+      <c r="C15" t="n">
+        <v>610.0599999999999</v>
+      </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -944,7 +944,7 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3344425354-fonte-automotiva-jfa-storm-lite-200a-bivolt-carregador-_JM#position%3D22%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D8d49758a-baa8-4d76-a018-d62f2b9a2347</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3344425354-fonte-automotiva-jfa-storm-lite-200a-bivolt-carregador-_JM#position%3D22%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D39de991f-992c-407f-b34d-ffdae0e6970e</t>
         </is>
       </c>
     </row>
@@ -954,13 +954,13 @@
           <t>Controle Remoto Universal Longa Distância Jfa K1200 Azul</t>
         </is>
       </c>
-      <c r="B16" t="n">
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
         <v>68.19</v>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>Sem Modelo</t>
-        </is>
       </c>
       <c r="D16" t="inlineStr"/>
       <c r="E16" t="inlineStr">
@@ -975,7 +975,7 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/controle-remoto-universal-longa-distncia-jfa-k1200-azul/p/MLB28722231?pdp_filters=seller_id:45588212#searchVariation=MLB28722231&amp;position=14&amp;search_layout=stack&amp;type=product&amp;tracking_id=8d49758a-baa8-4d76-a018-d62f2b9a2347</t>
+          <t>https://www.mercadolivre.com.br/controle-remoto-universal-longa-distncia-jfa-k1200-azul/p/MLB28722231?pdp_filters=seller_id:45588212#searchVariation=MLB28722231&amp;position=16&amp;search_layout=stack&amp;type=product&amp;tracking_id=39de991f-992c-407f-b34d-ffdae0e6970e</t>
         </is>
       </c>
     </row>
@@ -985,14 +985,14 @@
           <t>Nova Fonte Carregador Jfa Bob Storm 90a Bivolt Automático</t>
         </is>
       </c>
-      <c r="B17" t="n">
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>FONTE 90 BOB</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
         <v>443.07</v>
       </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>FONTE 90 BOB</t>
-        </is>
-      </c>
       <c r="D17" t="inlineStr">
         <is>
           <t>Igual</t>
@@ -1010,7 +1010,7 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3744103525-nova-fonte-carregador-jfa-bob-storm-90a-bivolt-automatico-_JM#position%3D23%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D8d49758a-baa8-4d76-a018-d62f2b9a2347</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3744103525-nova-fonte-carregador-jfa-bob-storm-90a-bivolt-automatico-_JM#position%3D23%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D39de991f-992c-407f-b34d-ffdae0e6970e</t>
         </is>
       </c>
     </row>
@@ -1020,17 +1020,17 @@
           <t>Fonte Automotiva Carregador Jfa 60a Bivolt Automático Sci</t>
         </is>
       </c>
-      <c r="B18" t="n">
-        <v>473.28</v>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>FONTE 60A</t>
-        </is>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>FONTE 60A STORM</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
+        <v>599.99</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Acima</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -1045,7 +1045,7 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2678722526-fonte-automotiva-carregador-jfa-60a-bivolt-automatico-sci-_JM#position%3D24%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D8d49758a-baa8-4d76-a018-d62f2b9a2347</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2678722526-fonte-automotiva-carregador-jfa-60a-bivolt-automatico-sci-_JM#position%3D24%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D39de991f-992c-407f-b34d-ffdae0e6970e</t>
         </is>
       </c>
     </row>
@@ -1055,14 +1055,14 @@
           <t>Fonte Carregador Jfa Bob Storm 200a Bivolt</t>
         </is>
       </c>
-      <c r="B19" t="n">
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>FONTE 200 BOB</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
         <v>624.33</v>
       </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>FONTE 200 BOB</t>
-        </is>
-      </c>
       <c r="D19" t="inlineStr">
         <is>
           <t>Igual</t>
@@ -1080,32 +1080,32 @@
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3738244537-fonte-carregador-jfa-bob-storm-200a-bivolt-_JM?searchVariation=183142398239#searchVariation%3D183142398239%26position%3D25%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D8d49758a-baa8-4d76-a018-d62f2b9a2347</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3738244537-fonte-carregador-jfa-bob-storm-200a-bivolt-_JM?searchVariation=183142398239#searchVariation%3D183142398239%26position%3D25%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D39de991f-992c-407f-b34d-ffdae0e6970e</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Fonte Automotiva Jfa Storm Lite 70a Bivolt Carregador</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>408.73</v>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>FONTE 70A LITE</t>
-        </is>
+          <t>Fonte Automotiva 60a Jfa Amperes Bivolt Automatico</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>FONTE 60A STORM</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
+        <v>599.99</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Acima</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FULL</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
@@ -1115,27 +1115,27 @@
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3307314045-fonte-automotiva-jfa-storm-lite-70a-bivolt-carregador-_JM#position%3D26%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D8d49758a-baa8-4d76-a018-d62f2b9a2347</t>
+          <t>https://produto.mercadolivre.com.br/MLB-967163530-fonte-automotiva-60a-jfa-amperes-bivolt-automatico-_JM#position%3D26%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D39de991f-992c-407f-b34d-ffdae0e6970e</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa Bob 200</t>
-        </is>
-      </c>
-      <c r="B21" t="n">
-        <v>624.33</v>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>FONTE 200 BOB</t>
-        </is>
+          <t>Fonte Automotiva Jfa Storm Lite 70a Bivolt Carregador</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>FONTE 70A LITE</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
+        <v>365.71</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -1150,7 +1150,7 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3344009945-fonte-carregador-jfa-bob-200-_JM?searchVariation=178601508955#searchVariation%3D178601508955%26position%3D27%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D8d49758a-baa8-4d76-a018-d62f2b9a2347</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3307314045-fonte-automotiva-jfa-storm-lite-70a-bivolt-carregador-_JM#position%3D27%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D39de991f-992c-407f-b34d-ffdae0e6970e</t>
         </is>
       </c>
     </row>
@@ -1160,13 +1160,13 @@
           <t>Controle Remoto Universal Longa Jfa K1200 Preto C/ Verde</t>
         </is>
       </c>
-      <c r="B22" t="n">
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
         <v>64.59999999999999</v>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>Sem Modelo</t>
-        </is>
       </c>
       <c r="D22" t="inlineStr"/>
       <c r="E22" t="inlineStr">
@@ -1181,23 +1181,23 @@
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/controle-remoto-universal-longa-jfa-k1200-preto-c-verde/p/MLB30476096?pdp_filters=seller_id:45588212#searchVariation=MLB30476096&amp;position=15&amp;search_layout=stack&amp;type=product&amp;tracking_id=8d49758a-baa8-4d76-a018-d62f2b9a2347</t>
+          <t>https://www.mercadolivre.com.br/controle-remoto-universal-longa-jfa-k1200-preto-c-verde/p/MLB30476096?pdp_filters=seller_id:45588212#searchVariation=MLB30476096&amp;position=19&amp;search_layout=stack&amp;type=product&amp;tracking_id=39de991f-992c-407f-b34d-ffdae0e6970e</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Nova Fonte Automotiva 70a Amperes Jfa Carregador Storm Novo</t>
-        </is>
-      </c>
-      <c r="B23" t="n">
-        <v>493.42</v>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>FONTE 70A</t>
-        </is>
+          <t>Fonte Carregador Jfa Bob 200</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>FONTE 200 BOB</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>624.33</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1216,23 +1216,23 @@
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2621320782-nova-fonte-automotiva-70a-amperes-jfa-carregador-storm-novo-_JM#position%3D28%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D8d49758a-baa8-4d76-a018-d62f2b9a2347</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3344009945-fonte-carregador-jfa-bob-200-_JM?searchVariation=178601508955#searchVariation%3D178601508955%26position%3D28%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D39de991f-992c-407f-b34d-ffdae0e6970e</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Fonte Automotiva Jfa 200a 3000w Bivolt Automático Voltímetro</t>
-        </is>
-      </c>
-      <c r="B24" t="n">
-        <v>805.59</v>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>FONTE 200A</t>
-        </is>
+          <t>Nova Fonte Automotiva 70a Amperes Jfa Carregador Storm Novo</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>FONTE 70A STORM</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>493.42</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1251,23 +1251,23 @@
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1290018792-fonte-automotiva-jfa-200a-3000w-bivolt-automatico-voltimetro-_JM#position%3D29%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D8d49758a-baa8-4d76-a018-d62f2b9a2347</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2621320782-nova-fonte-automotiva-70a-amperes-jfa-carregador-storm-novo-_JM#position%3D29%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D39de991f-992c-407f-b34d-ffdae0e6970e</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Fonte Automotiva Jfa Storm Lite 70a Bivolt Carregador</t>
-        </is>
-      </c>
-      <c r="B25" t="n">
-        <v>434.42</v>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>FONTE 70A LITE</t>
-        </is>
+          <t>Fonte Automotiva Jfa 200a 3000w Bivolt Automático Voltímetro</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>FONTE 200A STORM</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
+        <v>805.59</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -1281,32 +1281,32 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>classico</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3582399882-fonte-automotiva-jfa-storm-lite-70a-bivolt-carregador-_JM#position%3D30%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D8d49758a-baa8-4d76-a018-d62f2b9a2347</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1290018792-fonte-automotiva-jfa-200a-3000w-bivolt-automatico-voltimetro-_JM#position%3D30%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D39de991f-992c-407f-b34d-ffdae0e6970e</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Fonte Automotiva 70 Amperes Jfa Storm Carregador Com Cor Preto</t>
-        </is>
-      </c>
-      <c r="B26" t="n">
-        <v>523.63</v>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>FONTE 70A</t>
-        </is>
+          <t>Fonte Automotiva Jfa Storm Lite 70a Bivolt Carregador</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>FONTE 70A LITE</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
+        <v>388.69</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -1321,29 +1321,25 @@
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-automotiva-70-amperes-jfa-storm-carregador-com-cor-preto/p/MLB25571709?pdp_filters=seller_id:45588212#searchVariation=MLB25571709&amp;position=18&amp;search_layout=stack&amp;type=product&amp;tracking_id=8d49758a-baa8-4d76-a018-d62f2b9a2347</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3582399882-fonte-automotiva-jfa-storm-lite-70a-bivolt-carregador-_JM#position%3D31%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D39de991f-992c-407f-b34d-ffdae0e6970e</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa 60a Lite Storm Slim Bivolt</t>
-        </is>
-      </c>
-      <c r="B27" t="n">
-        <v>390.43</v>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>FONTE 60A LITE</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>Igual</t>
-        </is>
-      </c>
+          <t>Controle Longa Distância Jfa K1200 Preto/laranja 1200mt</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
+        <v>65.09999999999999</v>
+      </c>
+      <c r="D27" t="inlineStr"/>
       <c r="E27" t="inlineStr">
         <is>
           <t>NA</t>
@@ -1351,28 +1347,28 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>classico</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3264927985-fonte-carregador-jfa-60a-lite-storm-slim-bivolt-_JM#position%3D31%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D8d49758a-baa8-4d76-a018-d62f2b9a2347</t>
+          <t>https://www.mercadolivre.com.br/controle-longa-distncia-jfa-k1200-pretolaranja-1200mt/p/MLB28357019?pdp_filters=seller_id:45588212#searchVariation=MLB28357019&amp;position=14&amp;search_layout=stack&amp;type=product&amp;tracking_id=39de991f-992c-407f-b34d-ffdae0e6970e</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Controle Longa Distância Jfa K1200 Preto/laranja 1200mt</t>
-        </is>
-      </c>
-      <c r="B28" t="n">
-        <v>65.09999999999999</v>
-      </c>
-      <c r="C28" t="inlineStr">
+          <t>Controle Remoto Universal Longa Distância Jfa K1200 2 Cores</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
         <is>
           <t>Sem Modelo</t>
         </is>
+      </c>
+      <c r="C28" t="n">
+        <v>71.47</v>
       </c>
       <c r="D28" t="inlineStr"/>
       <c r="E28" t="inlineStr">
@@ -1382,30 +1378,34 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>premium</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/controle-longa-distncia-jfa-k1200-pretolaranja-1200mt/p/MLB28357019?pdp_filters=seller_id:45588212#searchVariation=MLB28357019&amp;position=16&amp;search_layout=stack&amp;type=product&amp;tracking_id=8d49758a-baa8-4d76-a018-d62f2b9a2347</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2734136341-controle-remoto-universal-longa-distncia-jfa-k1200-2-cores-_JM#position%3D32%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D39de991f-992c-407f-b34d-ffdae0e6970e</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Controle Remoto Universal Longa Distância Jfa K1200 Azul</t>
-        </is>
-      </c>
-      <c r="B29" t="n">
-        <v>55.36</v>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>Sem Modelo</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr"/>
+          <t>Fonte Automotiva 70 Amperes Jfa Storm Carregador Com Cor Preto</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>FONTE 70A STORM</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
+        <v>523.63</v>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>Igual</t>
+        </is>
+      </c>
       <c r="E29" t="inlineStr">
         <is>
           <t>NA</t>
@@ -1413,32 +1413,32 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>premium</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-4781854750-controle-remoto-universal-longa-distncia-jfa-k1200-azul-_JM#position%3D32%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D8d49758a-baa8-4d76-a018-d62f2b9a2347</t>
+          <t>https://www.mercadolivre.com.br/fonte-automotiva-70-amperes-jfa-storm-carregador-com-cor-preto/p/MLB25571709?pdp_filters=seller_id:45588212#searchVariation=MLB25571709&amp;position=12&amp;search_layout=stack&amp;type=product&amp;tracking_id=39de991f-992c-407f-b34d-ffdae0e6970e</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa Bob Storm 90a Bivolt Automático Cor Pre</t>
-        </is>
-      </c>
-      <c r="B30" t="n">
-        <v>443.07</v>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>FONTE 90 BOB</t>
-        </is>
+          <t>Fonte Carregador Jfa 60a Lite Storm Slim Bivolt</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>FONTE 60A LITE</t>
+        </is>
+      </c>
+      <c r="C30" t="n">
+        <v>349.33</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -1453,23 +1453,23 @@
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-4777392272-fonte-carregador-jfa-bob-storm-90a-bivolt-automatico-cor-pre-_JM#position%3D33%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D8d49758a-baa8-4d76-a018-d62f2b9a2347</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3264927985-fonte-carregador-jfa-60a-lite-storm-slim-bivolt-_JM#position%3D33%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D39de991f-992c-407f-b34d-ffdae0e6970e</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Controle Remoto Longa Distância Jfa K600 Laranja Preto</t>
-        </is>
-      </c>
-      <c r="B31" t="n">
-        <v>68.26000000000001</v>
-      </c>
-      <c r="C31" t="inlineStr">
+          <t>Controle Remoto Universal Longa Distância Jfa K1200 Azul</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
         <is>
           <t>Sem Modelo</t>
         </is>
+      </c>
+      <c r="C31" t="n">
+        <v>55.36</v>
       </c>
       <c r="D31" t="inlineStr"/>
       <c r="E31" t="inlineStr">
@@ -1484,7 +1484,7 @@
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/controle-remoto-longa-distncia-jfa-k600-laranja-preto/p/MLB28061013?pdp_filters=seller_id:45588212#searchVariation=MLB28061013&amp;position=17&amp;search_layout=stack&amp;type=product&amp;tracking_id=8d49758a-baa8-4d76-a018-d62f2b9a2347</t>
+          <t>https://produto.mercadolivre.com.br/MLB-4781854750-controle-remoto-universal-longa-distncia-jfa-k1200-azul-_JM#position%3D34%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D39de991f-992c-407f-b34d-ffdae0e6970e</t>
         </is>
       </c>
     </row>
@@ -1494,14 +1494,14 @@
           <t>Fonte Automotiva Jfa 200a Slim Bivolt Digital Voltímetro Som</t>
         </is>
       </c>
-      <c r="B32" t="n">
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>FONTE 200A STORM</t>
+        </is>
+      </c>
+      <c r="C32" t="n">
         <v>845.87</v>
       </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>FONTE 200A</t>
-        </is>
-      </c>
       <c r="D32" t="inlineStr">
         <is>
           <t>Igual</t>
@@ -1519,29 +1519,25 @@
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2634603687-fonte-automotiva-jfa-200a-slim-bivolt-digital-voltimetro-som-_JM#position%3D34%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D8d49758a-baa8-4d76-a018-d62f2b9a2347</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2634603687-fonte-automotiva-jfa-200a-slim-bivolt-digital-voltimetro-som-_JM#position%3D35%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D39de991f-992c-407f-b34d-ffdae0e6970e</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa 70a Bivolt Com Medidor Cca</t>
-        </is>
-      </c>
-      <c r="B33" t="n">
-        <v>523.63</v>
-      </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>FONTE 70A</t>
-        </is>
-      </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>Igual</t>
-        </is>
-      </c>
+          <t>Controle Remoto Longa Distância Jfa K600 Laranja Preto</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="C33" t="n">
+        <v>68.26000000000001</v>
+      </c>
+      <c r="D33" t="inlineStr"/>
       <c r="E33" t="inlineStr">
         <is>
           <t>NA</t>
@@ -1549,34 +1545,30 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>classico</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-4801332402-fonte-carregador-jfa-70a-bivolt-com-medidor-cca-_JM#position%3D35%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D8d49758a-baa8-4d76-a018-d62f2b9a2347</t>
+          <t>https://www.mercadolivre.com.br/controle-remoto-longa-distncia-jfa-k600-laranja-preto/p/MLB28061013?pdp_filters=seller_id:45588212#searchVariation=MLB28061013&amp;position=17&amp;search_layout=stack&amp;type=product&amp;tracking_id=39de991f-992c-407f-b34d-ffdae0e6970e</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Fonte Automotiva Jfa 200a 3000w Bivolt Automático Voltímetro</t>
-        </is>
-      </c>
-      <c r="B34" t="n">
-        <v>845.87</v>
-      </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>FONTE 200A</t>
-        </is>
-      </c>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t>Igual</t>
-        </is>
-      </c>
+          <t>Inversor JFA 49046 Senoidal Off-grid Motorhome Caminhão 1000w 12v/220v</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="C34" t="n">
+        <v>1490</v>
+      </c>
+      <c r="D34" t="inlineStr"/>
       <c r="E34" t="inlineStr">
         <is>
           <t>NA</t>
@@ -1584,30 +1576,34 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>classico</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3745721273-fonte-automotiva-jfa-200a-3000w-bivolt-automatico-voltimetro-_JM#position%3D36%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D8d49758a-baa8-4d76-a018-d62f2b9a2347</t>
+          <t>https://www.mercadolivre.com.br/inversor-jfa-49046-senoidal-off-grid-motorhome-caminho-1000w-12v220v/p/MLB35970528?pdp_filters=seller_id:45588212#searchVariation=MLB35970528&amp;position=18&amp;search_layout=stack&amp;type=product&amp;tracking_id=39de991f-992c-407f-b34d-ffdae0e6970e</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Controle Remoto Universal Longa Distância Jfa K1200 2 Cores</t>
-        </is>
-      </c>
-      <c r="B35" t="n">
-        <v>71.47</v>
-      </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>Sem Modelo</t>
-        </is>
-      </c>
-      <c r="D35" t="inlineStr"/>
+          <t>Fonte Carregador Jfa 70a Bivolt Com Medidor Cca</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>FONTE 70A STORM</t>
+        </is>
+      </c>
+      <c r="C35" t="n">
+        <v>523.63</v>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>Igual</t>
+        </is>
+      </c>
       <c r="E35" t="inlineStr">
         <is>
           <t>NA</t>
@@ -1620,23 +1616,23 @@
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2734136341-controle-remoto-universal-longa-distncia-jfa-k1200-2-cores-_JM#position%3D37%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D8d49758a-baa8-4d76-a018-d62f2b9a2347</t>
+          <t>https://produto.mercadolivre.com.br/MLB-4801332402-fonte-carregador-jfa-70a-bivolt-com-medidor-cca-_JM#position%3D36%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D39de991f-992c-407f-b34d-ffdae0e6970e</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Fonte Automotiva Jfa Storm 200a Bob Carregador Automático Bi</t>
-        </is>
-      </c>
-      <c r="B36" t="n">
-        <v>694.8200000000001</v>
-      </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>FONTE 200 BOB</t>
-        </is>
+          <t>Fonte Automotiva Jfa 200a 3000w Bivolt Automático Voltímetro</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>FONTE 200A STORM</t>
+        </is>
+      </c>
+      <c r="C36" t="n">
+        <v>845.87</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -1655,25 +1651,29 @@
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3742956287-fonte-automotiva-jfa-storm-200a-bob-carregador-automatico-bi-_JM#position%3D38%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D8d49758a-baa8-4d76-a018-d62f2b9a2347</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3745721273-fonte-automotiva-jfa-200a-3000w-bivolt-automatico-voltimetro-_JM#position%3D37%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D39de991f-992c-407f-b34d-ffdae0e6970e</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Inversor JFA 49046 Senoidal Off-grid Motorhome Caminhão 1000w 12v/220v</t>
-        </is>
-      </c>
-      <c r="B37" t="n">
-        <v>1490</v>
-      </c>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>Sem Modelo</t>
-        </is>
-      </c>
-      <c r="D37" t="inlineStr"/>
+          <t>Fonte Automotiva Jfa Storm 200a Bob Carregador Automático Bi</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>FONTE 200 BOB</t>
+        </is>
+      </c>
+      <c r="C37" t="n">
+        <v>694.8200000000001</v>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>Igual</t>
+        </is>
+      </c>
       <c r="E37" t="inlineStr">
         <is>
           <t>NA</t>
@@ -1681,12 +1681,12 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>premium</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/inversor-jfa-49046-senoidal-off-grid-motorhome-caminho-1000w-12v220v/p/MLB35970528?pdp_filters=seller_id:45588212#searchVariation=MLB35970528&amp;position=1&amp;search_layout=stack&amp;type=product&amp;tracking_id=8d49758a-baa8-4d76-a018-d62f2b9a2347</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3742956287-fonte-automotiva-jfa-storm-200a-bob-carregador-automatico-bi-_JM#position%3D38%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D39de991f-992c-407f-b34d-ffdae0e6970e</t>
         </is>
       </c>
     </row>
@@ -1696,14 +1696,14 @@
           <t>Fonte Carregador Jfa 120a Storm Bivolt Com Medidor Cca</t>
         </is>
       </c>
-      <c r="B38" t="n">
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>FONTE 120A STORM</t>
+        </is>
+      </c>
+      <c r="C38" t="n">
         <v>674.6799999999999</v>
       </c>
-      <c r="C38" t="inlineStr">
-        <is>
-          <t>FONTE 120A</t>
-        </is>
-      </c>
       <c r="D38" t="inlineStr">
         <is>
           <t>Igual</t>
@@ -1721,29 +1721,25 @@
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2166734841-fonte-carregador-jfa-120a-storm-bivolt-com-medidor-cca-_JM#position%3D39%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D8d49758a-baa8-4d76-a018-d62f2b9a2347</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2166734841-fonte-carregador-jfa-120a-storm-bivolt-com-medidor-cca-_JM#position%3D39%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D39de991f-992c-407f-b34d-ffdae0e6970e</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa Bob Storm 200a Bivolt</t>
-        </is>
-      </c>
-      <c r="B39" t="n">
-        <v>694.8200000000001</v>
-      </c>
-      <c r="C39" t="inlineStr">
-        <is>
-          <t>FONTE 200 BOB</t>
-        </is>
-      </c>
-      <c r="D39" t="inlineStr">
-        <is>
-          <t>Igual</t>
-        </is>
-      </c>
+          <t>Controle De Long Distânc Jfa K1200 Resistente A Água - Preto</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="C39" t="n">
+        <v>77.34999999999999</v>
+      </c>
+      <c r="D39" t="inlineStr"/>
       <c r="E39" t="inlineStr">
         <is>
           <t>NA</t>
@@ -1751,30 +1747,34 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>classico</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3745695931-fonte-carregador-jfa-bob-storm-200a-bivolt-_JM#position%3D40%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D8d49758a-baa8-4d76-a018-d62f2b9a2347</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2711461752-controle-de-long-distnc-jfa-k1200-resistente-a-agua-preto-_JM#position%3D40%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D39de991f-992c-407f-b34d-ffdae0e6970e</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Controle De Long Distânc Jfa K1200 Resistente A Água - Preto</t>
-        </is>
-      </c>
-      <c r="B40" t="n">
-        <v>77.34999999999999</v>
-      </c>
-      <c r="C40" t="inlineStr">
-        <is>
-          <t>Sem Modelo</t>
-        </is>
-      </c>
-      <c r="D40" t="inlineStr"/>
+          <t>Fonte Carregador Jfa Bob Storm 200a Bivolt</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>FONTE 200 BOB</t>
+        </is>
+      </c>
+      <c r="C40" t="n">
+        <v>694.8200000000001</v>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>Igual</t>
+        </is>
+      </c>
       <c r="E40" t="inlineStr">
         <is>
           <t>NA</t>
@@ -1782,12 +1782,12 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>premium</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2711461752-controle-de-long-distnc-jfa-k1200-resistente-a-agua-preto-_JM#position%3D41%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D8d49758a-baa8-4d76-a018-d62f2b9a2347</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3745695931-fonte-carregador-jfa-bob-storm-200a-bivolt-_JM#position%3D41%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D39de991f-992c-407f-b34d-ffdae0e6970e</t>
         </is>
       </c>
     </row>
@@ -1797,14 +1797,14 @@
           <t>Fonte Automotiva 120a Amperes Jfa Carregador Cor Preto</t>
         </is>
       </c>
-      <c r="B41" t="n">
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>FONTE 120A STORM</t>
+        </is>
+      </c>
+      <c r="C41" t="n">
         <v>674.6799999999999</v>
       </c>
-      <c r="C41" t="inlineStr">
-        <is>
-          <t>FONTE 120A</t>
-        </is>
-      </c>
       <c r="D41" t="inlineStr">
         <is>
           <t>Igual</t>
@@ -1822,7 +1822,7 @@
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3745673431-fonte-automotiva-120a-amperes-jfa-carregador-cor-preto-_JM#position%3D42%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D8d49758a-baa8-4d76-a018-d62f2b9a2347</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3745673431-fonte-automotiva-120a-amperes-jfa-carregador-cor-preto-_JM#position%3D42%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D39de991f-992c-407f-b34d-ffdae0e6970e</t>
         </is>
       </c>
     </row>
@@ -1832,14 +1832,14 @@
           <t>Fonte Carregador Automotiva Storm Sci Redline Jfa 200a Slim</t>
         </is>
       </c>
-      <c r="B42" t="n">
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>FONTE 200A STORM</t>
+        </is>
+      </c>
+      <c r="C42" t="n">
         <v>847.99</v>
       </c>
-      <c r="C42" t="inlineStr">
-        <is>
-          <t>FONTE 200A</t>
-        </is>
-      </c>
       <c r="D42" t="inlineStr">
         <is>
           <t>Acima</t>
@@ -1857,23 +1857,23 @@
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2649802690-fonte-carregador-automotiva-storm-sci-redline-jfa-200a-slim-_JM#position%3D43%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D8d49758a-baa8-4d76-a018-d62f2b9a2347</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2649802690-fonte-carregador-automotiva-storm-sci-redline-jfa-200a-slim-_JM#position%3D43%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D39de991f-992c-407f-b34d-ffdae0e6970e</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa 120a Bob Slim Bivolt Cor Preto</t>
-        </is>
-      </c>
-      <c r="B43" t="n">
-        <v>539.74</v>
-      </c>
-      <c r="C43" t="inlineStr">
-        <is>
-          <t>FONTE 120 BOB</t>
-        </is>
+          <t>Fonte Carregador Jfa Bob Storm 90a Bivolt Automático Cor Pre</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>FONTE 90 BOB</t>
+        </is>
+      </c>
+      <c r="C43" t="n">
+        <v>443.07</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -1892,23 +1892,23 @@
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3738283061-fonte-carregador-jfa-120a-bob-slim-bivolt-cor-preto-_JM#position%3D44%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D8d49758a-baa8-4d76-a018-d62f2b9a2347</t>
+          <t>https://produto.mercadolivre.com.br/MLB-4777392272-fonte-carregador-jfa-bob-storm-90a-bivolt-automatico-cor-pre-_JM#position%3D44%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D39de991f-992c-407f-b34d-ffdae0e6970e</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Fonte Automotiva 70 Amperes Jfa Storm Red Line Cca Sci Smart</t>
-        </is>
-      </c>
-      <c r="B44" t="n">
-        <v>523.63</v>
-      </c>
-      <c r="C44" t="inlineStr">
-        <is>
-          <t>FONTE 70A</t>
-        </is>
+          <t>Fonte Carregador Jfa 120a Bob Slim Bivolt Cor Preto</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>FONTE 120 BOB</t>
+        </is>
+      </c>
+      <c r="C44" t="n">
+        <v>539.74</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -1927,23 +1927,23 @@
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2621323642-fonte-automotiva-70-amperes-jfa-storm-red-line-cca-sci-smart-_JM#position%3D45%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D8d49758a-baa8-4d76-a018-d62f2b9a2347</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3738283061-fonte-carregador-jfa-120a-bob-slim-bivolt-cor-preto-_JM#position%3D45%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D39de991f-992c-407f-b34d-ffdae0e6970e</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Nova Fonte Automotiva 60a Amperes Jfa Carregador Storm Novo</t>
-        </is>
-      </c>
-      <c r="B45" t="n">
-        <v>473.28</v>
-      </c>
-      <c r="C45" t="inlineStr">
-        <is>
-          <t>FONTE 60A</t>
-        </is>
+          <t>Fonte Automotiva 70 Amperes Jfa Storm Red Line Cca Sci Smart</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>FONTE 70A STORM</t>
+        </is>
+      </c>
+      <c r="C45" t="n">
+        <v>523.63</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -1962,24 +1962,24 @@
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3745744615-nova-fonte-automotiva-60a-amperes-jfa-carregador-storm-novo-_JM#position%3D46%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D8d49758a-baa8-4d76-a018-d62f2b9a2347</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2621323642-fonte-automotiva-70-amperes-jfa-storm-red-line-cca-sci-smart-_JM#position%3D46%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D39de991f-992c-407f-b34d-ffdae0e6970e</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Fonte Carregador 60a Jfa Automotiva Similar Stetsom 60a</t>
-        </is>
-      </c>
-      <c r="B46" t="n">
+          <t>Nova Fonte Automotiva 60a Amperes Jfa Carregador Storm Novo</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>FONTE 60A STORM</t>
+        </is>
+      </c>
+      <c r="C46" t="n">
         <v>473.28</v>
       </c>
-      <c r="C46" t="inlineStr">
-        <is>
-          <t>FONTE 60A</t>
-        </is>
-      </c>
       <c r="D46" t="inlineStr">
         <is>
           <t>Igual</t>
@@ -1997,24 +1997,24 @@
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-4788856830-fonte-carregador-60a-jfa-automotiva-similar-stetsom-60a-_JM#position%3D47%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D8d49758a-baa8-4d76-a018-d62f2b9a2347</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3745744615-nova-fonte-automotiva-60a-amperes-jfa-carregador-storm-novo-_JM#position%3D47%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D39de991f-992c-407f-b34d-ffdae0e6970e</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa 60a Bivolt Storm Com Medidor Cca</t>
-        </is>
-      </c>
-      <c r="B47" t="n">
+          <t>Fonte Carregador 60a Jfa Automotiva Similar Stetsom 60a</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>FONTE 60A STORM</t>
+        </is>
+      </c>
+      <c r="C47" t="n">
         <v>473.28</v>
       </c>
-      <c r="C47" t="inlineStr">
-        <is>
-          <t>FONTE 60A</t>
-        </is>
-      </c>
       <c r="D47" t="inlineStr">
         <is>
           <t>Igual</t>
@@ -2032,23 +2032,23 @@
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3743029223-fonte-carregador-jfa-60a-bivolt-storm-com-medidor-cca-_JM#position%3D48%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D8d49758a-baa8-4d76-a018-d62f2b9a2347</t>
+          <t>https://produto.mercadolivre.com.br/MLB-4788856830-fonte-carregador-60a-jfa-automotiva-similar-stetsom-60a-_JM#position%3D48%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D39de991f-992c-407f-b34d-ffdae0e6970e</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa 60a Lite Storm Automotivo Slim Bivolt</t>
-        </is>
-      </c>
-      <c r="B48" t="n">
-        <v>390.43</v>
-      </c>
-      <c r="C48" t="inlineStr">
-        <is>
-          <t>FONTE 60A LITE</t>
-        </is>
+          <t>Fonte Carregador Jfa 60a Bivolt Storm Com Medidor Cca</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>FONTE 60A STORM</t>
+        </is>
+      </c>
+      <c r="C48" t="n">
+        <v>473.28</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -2067,27 +2067,27 @@
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3738299303-fonte-carregador-jfa-60a-lite-storm-automotivo-slim-bivolt-_JM#position%3D49%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D8d49758a-baa8-4d76-a018-d62f2b9a2347</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3743029223-fonte-carregador-jfa-60a-bivolt-storm-com-medidor-cca-_JM#position%3D49%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D39de991f-992c-407f-b34d-ffdae0e6970e</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Jfa Fonte Carregador Storm Lite 60a 3000 W Preto</t>
-        </is>
-      </c>
-      <c r="B49" t="n">
-        <v>390.43</v>
-      </c>
-      <c r="C49" t="inlineStr">
+          <t>Fonte Carregador Jfa 60a Lite Storm Automotivo Slim Bivolt</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
         <is>
           <t>FONTE 60A LITE</t>
         </is>
       </c>
+      <c r="C49" t="n">
+        <v>349.33</v>
+      </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
@@ -2102,7 +2102,7 @@
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-4777445178-jfa-fonte-carregador-storm-lite-60a-3000-w-preto-_JM#position%3D50%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D8d49758a-baa8-4d76-a018-d62f2b9a2347</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3738299303-fonte-carregador-jfa-60a-lite-storm-automotivo-slim-bivolt-_JM#position%3D50%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D39de991f-992c-407f-b34d-ffdae0e6970e</t>
         </is>
       </c>
     </row>

--- a/dados/supertrio som.xlsx
+++ b/dados/supertrio som.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G49"/>
+  <dimension ref="A1:G47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -473,16 +473,16 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Fonte Carregador Automotiva Jfa 200a Slim Bivolt Voltímetro</t>
+          <t>Fonte Carregador Jfa 120a Bob Slim Bivolt Cor Preto</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>FONTE 200A STORM</t>
+          <t>FONTE 120 BOB</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>845.87</v>
+        <v>499.46</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -496,28 +496,28 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>classico</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-automotiva-jfa-200a-slim-bivolt-voltimetro/p/MLB21348561?pdp_filters=seller_id:45588212#searchVariation=MLB21348561&amp;position=5&amp;search_layout=stack&amp;type=product&amp;tracking_id=39de991f-992c-407f-b34d-ffdae0e6970e</t>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-120a-bob-slim-bivolt-cor-preto/p/MLB22144397?pdp_filters=seller_id:45588212#searchVariation=MLB22144397&amp;position=1&amp;search_layout=stack&amp;type=product&amp;tracking_id=9f5fa8f1-dca2-4404-a6dd-9090879e0b5f</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa 120a Bob Slim Bivolt Cor Preto</t>
+          <t>Fonte Automotiva 120a Amperes Jfa Carregador Cor Preto</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>FONTE 120 BOB</t>
+          <t>FONTE 120A STORM</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>499.46</v>
+        <v>634.4</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -536,23 +536,23 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-120a-bob-slim-bivolt-cor-preto/p/MLB22144397?pdp_filters=seller_id:45588212#searchVariation=MLB22144397&amp;position=1&amp;search_layout=stack&amp;type=product&amp;tracking_id=39de991f-992c-407f-b34d-ffdae0e6970e</t>
+          <t>https://www.mercadolivre.com.br/fonte-automotiva-120a-amperes-jfa-carregador-cor-preto/p/MLB21392652?pdp_filters=seller_id:45588212#searchVariation=MLB21392652&amp;position=2&amp;search_layout=stack&amp;type=product&amp;tracking_id=9f5fa8f1-dca2-4404-a6dd-9090879e0b5f</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Fonte Automotiva 120a Amperes Jfa Carregador Cor Preto</t>
+          <t>Fonte Automotiva Jfa Storm 200a Bob Carregador Automático Bivolt Cor BOB 200A JFA</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>FONTE 120A STORM</t>
+          <t>FONTE 200 BOB</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>634.4</v>
+        <v>624.33</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -571,23 +571,23 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-automotiva-120a-amperes-jfa-carregador-cor-preto/p/MLB21392652?pdp_filters=seller_id:45588212#searchVariation=MLB21392652&amp;position=3&amp;search_layout=stack&amp;type=product&amp;tracking_id=39de991f-992c-407f-b34d-ffdae0e6970e</t>
+          <t>https://www.mercadolivre.com.br/fonte-automotiva-jfa-storm-200a-bob-carregador-automatico-bivolt-cor-bob-200a-jfa/p/MLB24834408?pdp_filters=seller_id:45588212#searchVariation=MLB24834408&amp;position=7&amp;search_layout=stack&amp;type=product&amp;tracking_id=9f5fa8f1-dca2-4404-a6dd-9090879e0b5f</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Fonte Automotiva Jfa Storm 200a Bob Carregador Automático Bivolt Cor BOB 200A JFA</t>
+          <t>Fonte Carregador Jfa 60a Bivolt Storm Com Medidor Cca</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>FONTE 200 BOB</t>
+          <t>FONTE 60A STORM</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>624.33</v>
+        <v>443.07</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -606,23 +606,23 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-automotiva-jfa-storm-200a-bob-carregador-automatico-bivolt-cor-bob-200a-jfa/p/MLB24834408?pdp_filters=seller_id:45588212#searchVariation=MLB24834408&amp;position=6&amp;search_layout=stack&amp;type=product&amp;tracking_id=39de991f-992c-407f-b34d-ffdae0e6970e</t>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-60a-bivolt-storm-com-medidor-cca/p/MLB21320712?pdp_filters=seller_id:45588212#searchVariation=MLB21320712&amp;position=4&amp;search_layout=stack&amp;type=product&amp;tracking_id=9f5fa8f1-dca2-4404-a6dd-9090879e0b5f</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa Storm 120a Bivolt Slim</t>
+          <t>Fonte Carregador Jfa 70a Bivolt Com Medidor Cca</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>FONTE 120A STORM</t>
+          <t>FONTE 70A STORM</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>674.6799999999999</v>
+        <v>493.42</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -636,12 +636,12 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>classico</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2166850824-fonte-carregador-jfa-storm-120a-bivolt-slim-_JM#position%3D20%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D39de991f-992c-407f-b34d-ffdae0e6970e</t>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-70a-bivolt-com-medidor-cca/p/MLB21455208?pdp_filters=seller_id:45588212#searchVariation=MLB21455208&amp;position=6&amp;search_layout=stack&amp;type=product&amp;tracking_id=9f5fa8f1-dca2-4404-a6dd-9090879e0b5f</t>
         </is>
       </c>
     </row>
@@ -653,13 +653,17 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Sem Modelo</t>
+          <t>ACQUA</t>
         </is>
       </c>
       <c r="C7" t="n">
         <v>99</v>
       </c>
-      <c r="D7" t="inlineStr"/>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
       <c r="E7" t="inlineStr">
         <is>
           <t>NA</t>
@@ -672,23 +676,23 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/controle-longa-distncia-jfa-acqua-1200-resistente-a-agua/p/MLB27687422?pdp_filters=seller_id:45588212#searchVariation=MLB27687422&amp;position=2&amp;search_layout=stack&amp;type=product&amp;tracking_id=39de991f-992c-407f-b34d-ffdae0e6970e</t>
+          <t>https://www.mercadolivre.com.br/controle-longa-distncia-jfa-acqua-1200-resistente-a-agua/p/MLB27687422?pdp_filters=seller_id:45588212#searchVariation=MLB27687422&amp;position=5&amp;search_layout=stack&amp;type=product&amp;tracking_id=9f5fa8f1-dca2-4404-a6dd-9090879e0b5f</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa 70a Bivolt Com Medidor Cca</t>
+          <t>Fonte Carregador Jfa Bob Storm 90a Bivolt Automático Cor Preto</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>FONTE 70A STORM</t>
+          <t>FONTE 90 BOB</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>493.42</v>
+        <v>422.93</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -697,7 +701,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>FULL</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -707,23 +711,23 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-70a-bivolt-com-medidor-cca/p/MLB21455208?pdp_filters=seller_id:45588212#searchVariation=MLB21455208&amp;position=13&amp;search_layout=stack&amp;type=product&amp;tracking_id=39de991f-992c-407f-b34d-ffdae0e6970e</t>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-bob-storm-90a-bivolt-automatico-cor-preto/p/MLB21562641?pdp_filters=seller_id:45588212#searchVariation=MLB21562641&amp;position=9&amp;search_layout=stack&amp;type=product&amp;tracking_id=9f5fa8f1-dca2-4404-a6dd-9090879e0b5f</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa Bob Storm 90a Bivolt Automático Cor Preto</t>
+          <t>Fonte Carregador Automotiva Jfa 200a Slim Bivolt Voltímetro</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>FONTE 90 BOB</t>
+          <t>FONTE 200A STORM</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>422.93</v>
+        <v>845.87</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -732,24 +736,24 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>FULL</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>premium</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-bob-storm-90a-bivolt-automatico-cor-preto/p/MLB21562641?pdp_filters=seller_id:45588212#searchVariation=MLB21562641&amp;position=9&amp;search_layout=stack&amp;type=product&amp;tracking_id=39de991f-992c-407f-b34d-ffdae0e6970e</t>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-automotiva-jfa-200a-slim-bivolt-voltimetro/p/MLB21348561?pdp_filters=seller_id:45588212#searchVariation=MLB21348561&amp;position=8&amp;search_layout=stack&amp;type=product&amp;tracking_id=9f5fa8f1-dca2-4404-a6dd-9090879e0b5f</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Controle Longa Distancia Jfa K600 Branco Com Cinza</t>
+          <t>Conversor Fio Para Rca Remoto Slim 12v Jfa Automotivo Cd Dvd</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -758,7 +762,7 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>51.12</v>
+        <v>40.1</v>
       </c>
       <c r="D10" t="inlineStr"/>
       <c r="E10" t="inlineStr">
@@ -773,23 +777,23 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/controle-longa-distancia-jfa-k600-branco-com-cinza/p/MLB32364344?pdp_filters=seller_id:45588212#searchVariation=MLB32364344&amp;position=10&amp;search_layout=stack&amp;type=product&amp;tracking_id=39de991f-992c-407f-b34d-ffdae0e6970e</t>
+          <t>https://www.mercadolivre.com.br/conversor-fio-para-rca-remoto-slim-12v-jfa-automotivo-cd-dvd/p/MLB25707531?pdp_filters=seller_id:45588212#searchVariation=MLB25707531&amp;position=10&amp;search_layout=stack&amp;type=product&amp;tracking_id=9f5fa8f1-dca2-4404-a6dd-9090879e0b5f</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa 120a Bob Slim Bivolt</t>
+          <t>Fonte Carregador Automotivo Jfa 120a Storm Lite 12v Bivolt Cor Preto</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>FONTE 120 BOB</t>
+          <t>FONTE 120A LITE</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>539.74</v>
+        <v>536.26</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -798,37 +802,37 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>FULL</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>classico</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2773051227-fonte-carregador-jfa-120a-bob-slim-bivolt-_JM#position%3D21%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D39de991f-992c-407f-b34d-ffdae0e6970e</t>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-automotivo-jfa-120a-storm-lite-12v-bivolt-cor-preto/p/MLB23998473?pdp_filters=seller_id:45588212#searchVariation=MLB23998473&amp;position=13&amp;search_layout=stack&amp;type=product&amp;tracking_id=9f5fa8f1-dca2-4404-a6dd-9090879e0b5f</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t xml:space="preserve"> JFA Fonte Carregador Storm Lite 60A 3000 W Preto</t>
+          <t>Controle Remoto Universal Longa Distância Jfa K1200 Azul</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>FONTE 60A LITE</t>
+          <t>K1200</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>326.53</v>
+        <v>68.19</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Baixo</t>
+          <t>Acima</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -843,28 +847,32 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/jfa-fonte-carregador-storm-lite-60a-3000-w-preto/p/MLB23456525?pdp_filters=seller_id:45588212#searchVariation=MLB23456525&amp;position=7&amp;search_layout=stack&amp;type=product&amp;tracking_id=39de991f-992c-407f-b34d-ffdae0e6970e</t>
+          <t>https://www.mercadolivre.com.br/controle-remoto-universal-longa-distncia-jfa-k1200-azul/p/MLB28722231?pdp_filters=seller_id:45588212#searchVariation=MLB28722231&amp;position=17&amp;search_layout=stack&amp;type=product&amp;tracking_id=9f5fa8f1-dca2-4404-a6dd-9090879e0b5f</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Conversor Fio Para Rca Remoto Slim 12v Jfa Automotivo Cd Dvd</t>
+          <t>Fonte Automotiva Jfa Storm Lite 200a Bivolt Carregador</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Sem Modelo</t>
+          <t>FONTE 200A LITE</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>40.1</v>
-      </c>
-      <c r="D13" t="inlineStr"/>
+        <v>681.83</v>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Igual</t>
+        </is>
+      </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FULL</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
@@ -874,14 +882,14 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/conversor-fio-para-rca-remoto-slim-12v-jfa-automotivo-cd-dvd/p/MLB25707531?pdp_filters=seller_id:45588212#searchVariation=MLB25707531&amp;position=11&amp;search_layout=stack&amp;type=product&amp;tracking_id=39de991f-992c-407f-b34d-ffdae0e6970e</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3344425354-fonte-automotiva-jfa-storm-lite-200a-bivolt-carregador-_JM#position%3D21%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D9f5fa8f1-dca2-4404-a6dd-9090879e0b5f</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa 60a Bivolt Storm Com Medidor Cca</t>
+          <t>Fonte Automotiva 60a Jfa Amperes Bivolt Automatico</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -899,7 +907,7 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FULL</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
@@ -909,32 +917,32 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-60a-bivolt-storm-com-medidor-cca/p/MLB21320712?pdp_filters=seller_id:45588212#searchVariation=MLB21320712&amp;position=8&amp;search_layout=stack&amp;type=product&amp;tracking_id=39de991f-992c-407f-b34d-ffdae0e6970e</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1921800308-fonte-automotiva-60a-jfa-amperes-bivolt-automatico-_JM#position%3D22%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D9f5fa8f1-dca2-4404-a6dd-9090879e0b5f</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Fonte Automotiva Jfa Storm Lite 200a Bivolt Carregador</t>
+          <t>Fonte Carregador Jfa Bob Storm 90a Bivolt Automático Cor Pre</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>FONTE 200A LITE</t>
+          <t>FONTE 90 BOB</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>610.0599999999999</v>
+        <v>422.93</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Baixo</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>FULL</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
@@ -944,14 +952,14 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3344425354-fonte-automotiva-jfa-storm-lite-200a-bivolt-carregador-_JM#position%3D22%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D39de991f-992c-407f-b34d-ffdae0e6970e</t>
+          <t>https://produto.mercadolivre.com.br/MLB-4777417620-fonte-carregador-jfa-bob-storm-90a-bivolt-automatico-cor-pre-_JM#position%3D23%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D9f5fa8f1-dca2-4404-a6dd-9090879e0b5f</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Controle Remoto Universal Longa Distância Jfa K1200 Azul</t>
+          <t>Fonte Carregador Automotivo Jfa 40a Lite Storm Slim Bivolt Cor Preto</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -960,7 +968,7 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>68.19</v>
+        <v>320</v>
       </c>
       <c r="D16" t="inlineStr"/>
       <c r="E16" t="inlineStr">
@@ -975,23 +983,23 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/controle-remoto-universal-longa-distncia-jfa-k1200-azul/p/MLB28722231?pdp_filters=seller_id:45588212#searchVariation=MLB28722231&amp;position=16&amp;search_layout=stack&amp;type=product&amp;tracking_id=39de991f-992c-407f-b34d-ffdae0e6970e</t>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-automotivo-jfa-40a-lite-storm-slim-bivolt-cor-preto/p/MLB33435981?pdp_filters=seller_id:45588212#searchVariation=MLB33435981&amp;position=11&amp;search_layout=stack&amp;type=product&amp;tracking_id=9f5fa8f1-dca2-4404-a6dd-9090879e0b5f</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Nova Fonte Carregador Jfa Bob Storm 90a Bivolt Automático</t>
+          <t>Fonte Automotiva Carregador Jfa 60a Bivolt Automático Sci</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>FONTE 90 BOB</t>
+          <t>FONTE 60A STORM</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>443.07</v>
+        <v>473.28</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1000,7 +1008,7 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FULL</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
@@ -1010,58 +1018,58 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3744103525-nova-fonte-carregador-jfa-bob-storm-90a-bivolt-automatico-_JM#position%3D23%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D39de991f-992c-407f-b34d-ffdae0e6970e</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2678722526-fonte-automotiva-carregador-jfa-60a-bivolt-automatico-sci-_JM#position%3D24%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D9f5fa8f1-dca2-4404-a6dd-9090879e0b5f</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Fonte Automotiva Carregador Jfa 60a Bivolt Automático Sci</t>
+          <t>Fonte Automotiva Jfa Storm Lite 70a Bivolt Carregador</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>FONTE 60A STORM</t>
+          <t>FONTE 70A LITE</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>599.99</v>
+        <v>408.73</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Acima</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>FULL</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>classico</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2678722526-fonte-automotiva-carregador-jfa-60a-bivolt-automatico-sci-_JM#position%3D24%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D39de991f-992c-407f-b34d-ffdae0e6970e</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3307314045-fonte-automotiva-jfa-storm-lite-70a-bivolt-carregador-_JM#position%3D25%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D9f5fa8f1-dca2-4404-a6dd-9090879e0b5f</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa Bob Storm 200a Bivolt</t>
+          <t>Fonte Carregador Jfa 120a Lite Storm Slim Bivolt</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>FONTE 200 BOB</t>
+          <t>FONTE 120A LITE</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>624.33</v>
+        <v>573.36</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1075,28 +1083,28 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>premium</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3738244537-fonte-carregador-jfa-bob-storm-200a-bivolt-_JM?searchVariation=183142398239#searchVariation%3D183142398239%26position%3D25%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D39de991f-992c-407f-b34d-ffdae0e6970e</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3307572800-fonte-carregador-jfa-120a-lite-storm-slim-bivolt-_JM#position%3D26%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D9f5fa8f1-dca2-4404-a6dd-9090879e0b5f</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Fonte Automotiva 60a Jfa Amperes Bivolt Automatico</t>
+          <t>Controle Remoto Universal Longa Jfa K1200 Preto C/ Verde</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>FONTE 60A STORM</t>
+          <t>K1200</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>599.99</v>
+        <v>64.59999999999999</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1105,7 +1113,7 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>FULL</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
@@ -1115,27 +1123,27 @@
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-967163530-fonte-automotiva-60a-jfa-amperes-bivolt-automatico-_JM#position%3D26%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D39de991f-992c-407f-b34d-ffdae0e6970e</t>
+          <t>https://www.mercadolivre.com.br/controle-remoto-universal-longa-jfa-k1200-preto-c-verde/p/MLB30476096?pdp_filters=seller_id:45588212#searchVariation=MLB30476096&amp;position=14&amp;search_layout=stack&amp;type=product&amp;tracking_id=9f5fa8f1-dca2-4404-a6dd-9090879e0b5f</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Fonte Automotiva Jfa Storm Lite 70a Bivolt Carregador</t>
+          <t>Fonte Automotiva Jfa 200a 3000w Bivolt Automático Voltímetro</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>FONTE 70A LITE</t>
+          <t>FONTE 200A STORM</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>365.71</v>
+        <v>805.59</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Baixo</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -1150,25 +1158,29 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3307314045-fonte-automotiva-jfa-storm-lite-70a-bivolt-carregador-_JM#position%3D27%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D39de991f-992c-407f-b34d-ffdae0e6970e</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1290018792-fonte-automotiva-jfa-200a-3000w-bivolt-automatico-voltimetro-_JM#position%3D27%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D9f5fa8f1-dca2-4404-a6dd-9090879e0b5f</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Controle Remoto Universal Longa Jfa K1200 Preto C/ Verde</t>
+          <t>Nova Fonte Carregador Jfa Bob Storm 90a Bivolt Automático</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Sem Modelo</t>
+          <t>FONTE 90 BOB</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>64.59999999999999</v>
-      </c>
-      <c r="D22" t="inlineStr"/>
+        <v>443.07</v>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>Igual</t>
+        </is>
+      </c>
       <c r="E22" t="inlineStr">
         <is>
           <t>NA</t>
@@ -1176,19 +1188,19 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>premium</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/controle-remoto-universal-longa-jfa-k1200-preto-c-verde/p/MLB30476096?pdp_filters=seller_id:45588212#searchVariation=MLB30476096&amp;position=19&amp;search_layout=stack&amp;type=product&amp;tracking_id=39de991f-992c-407f-b34d-ffdae0e6970e</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3744103525-nova-fonte-carregador-jfa-bob-storm-90a-bivolt-automatico-_JM#position%3D28%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D9f5fa8f1-dca2-4404-a6dd-9090879e0b5f</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa Bob 200</t>
+          <t>Fonte Carregador Jfa Bob Storm 200a Bivolt</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -1216,27 +1228,27 @@
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3344009945-fonte-carregador-jfa-bob-200-_JM?searchVariation=178601508955#searchVariation%3D178601508955%26position%3D28%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D39de991f-992c-407f-b34d-ffdae0e6970e</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3738244537-fonte-carregador-jfa-bob-storm-200a-bivolt-_JM?searchVariation=183142398239#searchVariation%3D183142398239%26position%3D29%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D9f5fa8f1-dca2-4404-a6dd-9090879e0b5f</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Nova Fonte Automotiva 70a Amperes Jfa Carregador Storm Novo</t>
+          <t>Controle Remoto Universal Longa Distância Jfa K1200 2 Cores</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>FONTE 70A STORM</t>
+          <t>K1200</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>493.42</v>
+        <v>71.47</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Acima</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -1246,28 +1258,28 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>premium</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2621320782-nova-fonte-automotiva-70a-amperes-jfa-carregador-storm-novo-_JM#position%3D29%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D39de991f-992c-407f-b34d-ffdae0e6970e</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2734136341-controle-remoto-universal-longa-distncia-jfa-k1200-2-cores-_JM#position%3D30%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D9f5fa8f1-dca2-4404-a6dd-9090879e0b5f</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Fonte Automotiva Jfa 200a 3000w Bivolt Automático Voltímetro</t>
+          <t>Fonte Carregador Jfa Bob 200</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>FONTE 200A STORM</t>
+          <t>FONTE 200 BOB</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>805.59</v>
+        <v>624.33</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -1286,27 +1298,27 @@
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1290018792-fonte-automotiva-jfa-200a-3000w-bivolt-automatico-voltimetro-_JM#position%3D30%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D39de991f-992c-407f-b34d-ffdae0e6970e</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3344009945-fonte-carregador-jfa-bob-200-_JM?searchVariation=178601508955#searchVariation%3D178601508955%26position%3D31%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D9f5fa8f1-dca2-4404-a6dd-9090879e0b5f</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Fonte Automotiva Jfa Storm Lite 70a Bivolt Carregador</t>
+          <t>Fonte Carregador Jfa 200a Lite Storm Slim Bivolt</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>FONTE 70A LITE</t>
+          <t>FONTE 200A LITE</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>388.69</v>
+        <v>716.71</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Baixo</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -1321,25 +1333,29 @@
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3582399882-fonte-automotiva-jfa-storm-lite-70a-bivolt-carregador-_JM#position%3D31%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D39de991f-992c-407f-b34d-ffdae0e6970e</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3264930885-fonte-carregador-jfa-200a-lite-storm-slim-bivolt-_JM#position%3D32%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D9f5fa8f1-dca2-4404-a6dd-9090879e0b5f</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Controle Longa Distância Jfa K1200 Preto/laranja 1200mt</t>
+          <t>Controle Remoto Longa Distância Jfa K600 Laranja Preto</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Sem Modelo</t>
+          <t>K600</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>65.09999999999999</v>
-      </c>
-      <c r="D27" t="inlineStr"/>
+        <v>68.26000000000001</v>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
       <c r="E27" t="inlineStr">
         <is>
           <t>NA</t>
@@ -1352,25 +1368,29 @@
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/controle-longa-distncia-jfa-k1200-pretolaranja-1200mt/p/MLB28357019?pdp_filters=seller_id:45588212#searchVariation=MLB28357019&amp;position=14&amp;search_layout=stack&amp;type=product&amp;tracking_id=39de991f-992c-407f-b34d-ffdae0e6970e</t>
+          <t>https://www.mercadolivre.com.br/controle-remoto-longa-distncia-jfa-k600-laranja-preto/p/MLB28061013?pdp_filters=seller_id:45588212#searchVariation=MLB28061013&amp;position=15&amp;search_layout=stack&amp;type=product&amp;tracking_id=9f5fa8f1-dca2-4404-a6dd-9090879e0b5f</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Controle Remoto Universal Longa Distância Jfa K1200 2 Cores</t>
+          <t>Fonte Automotiva 70 Amperes Jfa Storm Carregador Com Cor Preto</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Sem Modelo</t>
+          <t>FONTE 70A STORM</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>71.47</v>
-      </c>
-      <c r="D28" t="inlineStr"/>
+        <v>523.63</v>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>Igual</t>
+        </is>
+      </c>
       <c r="E28" t="inlineStr">
         <is>
           <t>NA</t>
@@ -1383,23 +1403,23 @@
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2734136341-controle-remoto-universal-longa-distncia-jfa-k1200-2-cores-_JM#position%3D32%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D39de991f-992c-407f-b34d-ffdae0e6970e</t>
+          <t>https://www.mercadolivre.com.br/fonte-automotiva-70-amperes-jfa-storm-carregador-com-cor-preto/p/MLB25571709?pdp_filters=seller_id:45588212#searchVariation=MLB25571709&amp;position=16&amp;search_layout=stack&amp;type=product&amp;tracking_id=9f5fa8f1-dca2-4404-a6dd-9090879e0b5f</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Fonte Automotiva 70 Amperes Jfa Storm Carregador Com Cor Preto</t>
+          <t>Fonte Carregador Jfa 200a Lite Storm Slim Bivolt Cor Azul</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>FONTE 70A STORM</t>
+          <t>FONTE 200A LITE</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>523.63</v>
+        <v>716.71</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -1418,27 +1438,27 @@
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-automotiva-70-amperes-jfa-storm-carregador-com-cor-preto/p/MLB25571709?pdp_filters=seller_id:45588212#searchVariation=MLB25571709&amp;position=12&amp;search_layout=stack&amp;type=product&amp;tracking_id=39de991f-992c-407f-b34d-ffdae0e6970e</t>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-200a-lite-storm-slim-bivolt-cor-azul/p/MLB24154371?pdp_filters=seller_id:45588212#searchVariation=MLB24154371&amp;position=18&amp;search_layout=stack&amp;type=product&amp;tracking_id=9f5fa8f1-dca2-4404-a6dd-9090879e0b5f</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa 60a Lite Storm Slim Bivolt</t>
+          <t>Controle Longa Distância Jfa K1200 Preto/laranja 1200mt</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>FONTE 60A LITE</t>
+          <t>K1200</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>349.33</v>
+        <v>65.09999999999999</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Baixo</t>
+          <t>Acima</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -1448,19 +1468,19 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>classico</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3264927985-fonte-carregador-jfa-60a-lite-storm-slim-bivolt-_JM#position%3D33%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D39de991f-992c-407f-b34d-ffdae0e6970e</t>
+          <t>https://www.mercadolivre.com.br/controle-longa-distncia-jfa-k1200-pretolaranja-1200mt/p/MLB28357019?pdp_filters=seller_id:45588212#searchVariation=MLB28357019&amp;position=19&amp;search_layout=stack&amp;type=product&amp;tracking_id=9f5fa8f1-dca2-4404-a6dd-9090879e0b5f</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Controle Remoto Universal Longa Distância Jfa K1200 Azul</t>
+          <t>Inversor JFA 49046 Senoidal Off-grid Motorhome Caminhão 1000w 12v/220v</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -1469,7 +1489,7 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>55.36</v>
+        <v>1490</v>
       </c>
       <c r="D31" t="inlineStr"/>
       <c r="E31" t="inlineStr">
@@ -1484,23 +1504,23 @@
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-4781854750-controle-remoto-universal-longa-distncia-jfa-k1200-azul-_JM#position%3D34%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D39de991f-992c-407f-b34d-ffdae0e6970e</t>
+          <t>https://www.mercadolivre.com.br/inversor-jfa-49046-senoidal-off-grid-motorhome-caminho-1000w-12v220v/p/MLB35970528?pdp_filters=seller_id:45588212#searchVariation=MLB35970528&amp;position=20&amp;search_layout=stack&amp;type=product&amp;tracking_id=9f5fa8f1-dca2-4404-a6dd-9090879e0b5f</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Fonte Automotiva Jfa 200a Slim Bivolt Digital Voltímetro Som</t>
+          <t>Nova Fonte Automotiva 70a Amperes Jfa Carregador Storm Novo</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>FONTE 200A STORM</t>
+          <t>FONTE 70A STORM</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>845.87</v>
+        <v>493.42</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -1514,30 +1534,34 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>classico</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2634603687-fonte-automotiva-jfa-200a-slim-bivolt-digital-voltimetro-som-_JM#position%3D35%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D39de991f-992c-407f-b34d-ffdae0e6970e</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2621320782-nova-fonte-automotiva-70a-amperes-jfa-carregador-storm-novo-_JM#position%3D33%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D9f5fa8f1-dca2-4404-a6dd-9090879e0b5f</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Controle Remoto Longa Distância Jfa K600 Laranja Preto</t>
+          <t>Fonte Automotiva Jfa Storm Lite 70a Bivolt Carregador</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Sem Modelo</t>
+          <t>FONTE 70A LITE</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>68.26000000000001</v>
-      </c>
-      <c r="D33" t="inlineStr"/>
+        <v>434.42</v>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>Igual</t>
+        </is>
+      </c>
       <c r="E33" t="inlineStr">
         <is>
           <t>NA</t>
@@ -1545,30 +1569,34 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>premium</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/controle-remoto-longa-distncia-jfa-k600-laranja-preto/p/MLB28061013?pdp_filters=seller_id:45588212#searchVariation=MLB28061013&amp;position=17&amp;search_layout=stack&amp;type=product&amp;tracking_id=39de991f-992c-407f-b34d-ffdae0e6970e</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3582399882-fonte-automotiva-jfa-storm-lite-70a-bivolt-carregador-_JM#position%3D34%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D9f5fa8f1-dca2-4404-a6dd-9090879e0b5f</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Inversor JFA 49046 Senoidal Off-grid Motorhome Caminhão 1000w 12v/220v</t>
+          <t>Controle Remoto Universal Longa Distância Jfa K1200 Azul</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Sem Modelo</t>
+          <t>K1200</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>1490</v>
-      </c>
-      <c r="D34" t="inlineStr"/>
+        <v>55.36</v>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>Baixo</t>
+        </is>
+      </c>
       <c r="E34" t="inlineStr">
         <is>
           <t>NA</t>
@@ -1581,23 +1609,23 @@
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/inversor-jfa-49046-senoidal-off-grid-motorhome-caminho-1000w-12v220v/p/MLB35970528?pdp_filters=seller_id:45588212#searchVariation=MLB35970528&amp;position=18&amp;search_layout=stack&amp;type=product&amp;tracking_id=39de991f-992c-407f-b34d-ffdae0e6970e</t>
+          <t>https://produto.mercadolivre.com.br/MLB-4781854750-controle-remoto-universal-longa-distncia-jfa-k1200-azul-_JM#position%3D35%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D9f5fa8f1-dca2-4404-a6dd-9090879e0b5f</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa 70a Bivolt Com Medidor Cca</t>
+          <t>Fonte Carregador Jfa 120a Bob Slim Bivolt Cor Preto</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>FONTE 70A STORM</t>
+          <t>FONTE 120 BOB</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>523.63</v>
+        <v>539.74</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -1616,27 +1644,27 @@
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-4801332402-fonte-carregador-jfa-70a-bivolt-com-medidor-cca-_JM#position%3D36%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D39de991f-992c-407f-b34d-ffdae0e6970e</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3738283061-fonte-carregador-jfa-120a-bob-slim-bivolt-cor-preto-_JM#position%3D36%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D9f5fa8f1-dca2-4404-a6dd-9090879e0b5f</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Fonte Automotiva Jfa 200a 3000w Bivolt Automático Voltímetro</t>
+          <t>Controle De Long Distânc Jfa K1200 Resistente A Água - Preto</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>FONTE 200A STORM</t>
+          <t>K1200</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>845.87</v>
+        <v>77.34999999999999</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Acima</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
@@ -1646,28 +1674,28 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>classico</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3745721273-fonte-automotiva-jfa-200a-3000w-bivolt-automatico-voltimetro-_JM#position%3D37%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D39de991f-992c-407f-b34d-ffdae0e6970e</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2711461752-controle-de-long-distnc-jfa-k1200-resistente-a-agua-preto-_JM#position%3D37%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D9f5fa8f1-dca2-4404-a6dd-9090879e0b5f</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Fonte Automotiva Jfa Storm 200a Bob Carregador Automático Bi</t>
+          <t>Fonte Automotiva Jfa 200a 3000w Bivolt Automático Voltímetro</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>FONTE 200 BOB</t>
+          <t>FONTE 200A STORM</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>694.8200000000001</v>
+        <v>845.87</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -1686,27 +1714,27 @@
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3742956287-fonte-automotiva-jfa-storm-200a-bob-carregador-automatico-bi-_JM#position%3D38%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D39de991f-992c-407f-b34d-ffdae0e6970e</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3745721273-fonte-automotiva-jfa-200a-3000w-bivolt-automatico-voltimetro-_JM#position%3D38%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D9f5fa8f1-dca2-4404-a6dd-9090879e0b5f</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa 120a Storm Bivolt Com Medidor Cca</t>
+          <t>Controle Longa Distancia Jfa Redline Wr P Aparelho Original</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>FONTE 120A STORM</t>
+          <t>CONTROLE WR</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>674.6799999999999</v>
+        <v>107.04</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Acima</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
@@ -1721,25 +1749,29 @@
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2166734841-fonte-carregador-jfa-120a-storm-bivolt-com-medidor-cca-_JM#position%3D39%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D39de991f-992c-407f-b34d-ffdae0e6970e</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1849695725-controle-longa-distancia-jfa-redline-wr-p-aparelho-original-_JM#position%3D39%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D9f5fa8f1-dca2-4404-a6dd-9090879e0b5f</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Controle De Long Distânc Jfa K1200 Resistente A Água - Preto</t>
+          <t>Fonte Automotiva Jfa Storm 200a Bob Carregador Automático Bi</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Sem Modelo</t>
+          <t>FONTE 200 BOB</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>77.34999999999999</v>
-      </c>
-      <c r="D39" t="inlineStr"/>
+        <v>694.8200000000001</v>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>Igual</t>
+        </is>
+      </c>
       <c r="E39" t="inlineStr">
         <is>
           <t>NA</t>
@@ -1747,32 +1779,32 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>premium</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2711461752-controle-de-long-distnc-jfa-k1200-resistente-a-agua-preto-_JM#position%3D40%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D39de991f-992c-407f-b34d-ffdae0e6970e</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3742956287-fonte-automotiva-jfa-storm-200a-bob-carregador-automatico-bi-_JM#position%3D40%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D9f5fa8f1-dca2-4404-a6dd-9090879e0b5f</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa Bob Storm 200a Bivolt</t>
+          <t>Fonte Automotiva 120a Amperes Jfa Carregador Cor Preto</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>FONTE 200 BOB</t>
+          <t>FONTE 120A STORM</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>694.8200000000001</v>
+        <v>710.1900000000001</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Acima</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
@@ -1787,14 +1819,14 @@
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3745695931-fonte-carregador-jfa-bob-storm-200a-bivolt-_JM#position%3D41%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D39de991f-992c-407f-b34d-ffdae0e6970e</t>
+          <t>https://produto.mercadolivre.com.br/MLB-4788957930-fonte-automotiva-120a-amperes-jfa-carregador-cor-preto-_JM#position%3D41%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D9f5fa8f1-dca2-4404-a6dd-9090879e0b5f</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Fonte Automotiva 120a Amperes Jfa Carregador Cor Preto</t>
+          <t>Fonte Automotiva 120 A Jfa Carregador Modelo</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -1803,11 +1835,11 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>674.6799999999999</v>
+        <v>710.1900000000001</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Acima</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
@@ -1822,27 +1854,27 @@
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3745673431-fonte-automotiva-120a-amperes-jfa-carregador-cor-preto-_JM#position%3D42%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D39de991f-992c-407f-b34d-ffdae0e6970e</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3744128325-fonte-automotiva-120-a-jfa-carregador-modelo-_JM#position%3D42%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D9f5fa8f1-dca2-4404-a6dd-9090879e0b5f</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Fonte Carregador Automotiva Storm Sci Redline Jfa 200a Slim</t>
+          <t>Fonte Carregador Jfa 120a Storm Bivolt Com Medidor Cca</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>FONTE 200A STORM</t>
+          <t>FONTE 120A STORM</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>847.99</v>
+        <v>674.6799999999999</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Acima</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
@@ -1852,32 +1884,32 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>premium</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2649802690-fonte-carregador-automotiva-storm-sci-redline-jfa-200a-slim-_JM#position%3D43%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D39de991f-992c-407f-b34d-ffdae0e6970e</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2166734841-fonte-carregador-jfa-120a-storm-bivolt-com-medidor-cca-_JM#position%3D43%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D9f5fa8f1-dca2-4404-a6dd-9090879e0b5f</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa Bob Storm 90a Bivolt Automático Cor Pre</t>
+          <t>Fonte Carregador Automotiva Storm Sci Redline Jfa 200a Slim</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>FONTE 90 BOB</t>
+          <t>FONTE 200A STORM</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>443.07</v>
+        <v>847.99</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Acima</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
@@ -1887,28 +1919,28 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>classico</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-4777392272-fonte-carregador-jfa-bob-storm-90a-bivolt-automatico-cor-pre-_JM#position%3D44%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D39de991f-992c-407f-b34d-ffdae0e6970e</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2649802690-fonte-carregador-automotiva-storm-sci-redline-jfa-200a-slim-_JM#position%3D44%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D9f5fa8f1-dca2-4404-a6dd-9090879e0b5f</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa 120a Bob Slim Bivolt Cor Preto</t>
+          <t>Fonte Carregador Jfa Bob Storm 200a Bivolt</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>FONTE 120 BOB</t>
+          <t>FONTE 200 BOB</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>539.74</v>
+        <v>694.8200000000001</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -1927,23 +1959,23 @@
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3738283061-fonte-carregador-jfa-120a-bob-slim-bivolt-cor-preto-_JM#position%3D45%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D39de991f-992c-407f-b34d-ffdae0e6970e</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3745695931-fonte-carregador-jfa-bob-storm-200a-bivolt-_JM#position%3D45%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D9f5fa8f1-dca2-4404-a6dd-9090879e0b5f</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Fonte Automotiva 70 Amperes Jfa Storm Red Line Cca Sci Smart</t>
+          <t>Fonte Automotiva 120a Amperes Jfa Carregador Cor Preto</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>FONTE 70A STORM</t>
+          <t>FONTE 120A STORM</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>523.63</v>
+        <v>674.6799999999999</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -1962,23 +1994,23 @@
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2621323642-fonte-automotiva-70-amperes-jfa-storm-red-line-cca-sci-smart-_JM#position%3D46%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D39de991f-992c-407f-b34d-ffdae0e6970e</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3745673431-fonte-automotiva-120a-amperes-jfa-carregador-cor-preto-_JM#position%3D46%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D9f5fa8f1-dca2-4404-a6dd-9090879e0b5f</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Nova Fonte Automotiva 60a Amperes Jfa Carregador Storm Novo</t>
+          <t>Fonte Automotiva Jfa Storm Lite 120a Bivolt Carregador</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>FONTE 60A STORM</t>
+          <t>FONTE 120A LITE</t>
         </is>
       </c>
       <c r="C46" t="n">
-        <v>473.28</v>
+        <v>573.36</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -1997,23 +2029,23 @@
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3745744615-nova-fonte-automotiva-60a-amperes-jfa-carregador-storm-novo-_JM#position%3D47%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D39de991f-992c-407f-b34d-ffdae0e6970e</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3734575855-fonte-automotiva-jfa-storm-lite-120a-bivolt-carregador-_JM#position%3D47%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D9f5fa8f1-dca2-4404-a6dd-9090879e0b5f</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Fonte Carregador 60a Jfa Automotiva Similar Stetsom 60a</t>
+          <t>Fonte Carregador Automotivo Jfa 120a Storm Lite 12v Bivolt C</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>FONTE 60A STORM</t>
+          <t>FONTE 120A LITE</t>
         </is>
       </c>
       <c r="C47" t="n">
-        <v>473.28</v>
+        <v>573.36</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -2032,77 +2064,7 @@
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-4788856830-fonte-carregador-60a-jfa-automotiva-similar-stetsom-60a-_JM#position%3D48%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D39de991f-992c-407f-b34d-ffdae0e6970e</t>
-        </is>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="inlineStr">
-        <is>
-          <t>Fonte Carregador Jfa 60a Bivolt Storm Com Medidor Cca</t>
-        </is>
-      </c>
-      <c r="B48" t="inlineStr">
-        <is>
-          <t>FONTE 60A STORM</t>
-        </is>
-      </c>
-      <c r="C48" t="n">
-        <v>473.28</v>
-      </c>
-      <c r="D48" t="inlineStr">
-        <is>
-          <t>Igual</t>
-        </is>
-      </c>
-      <c r="E48" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="F48" t="inlineStr">
-        <is>
-          <t>premium</t>
-        </is>
-      </c>
-      <c r="G48" t="inlineStr">
-        <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3743029223-fonte-carregador-jfa-60a-bivolt-storm-com-medidor-cca-_JM#position%3D49%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D39de991f-992c-407f-b34d-ffdae0e6970e</t>
-        </is>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="inlineStr">
-        <is>
-          <t>Fonte Carregador Jfa 60a Lite Storm Automotivo Slim Bivolt</t>
-        </is>
-      </c>
-      <c r="B49" t="inlineStr">
-        <is>
-          <t>FONTE 60A LITE</t>
-        </is>
-      </c>
-      <c r="C49" t="n">
-        <v>349.33</v>
-      </c>
-      <c r="D49" t="inlineStr">
-        <is>
-          <t>Baixo</t>
-        </is>
-      </c>
-      <c r="E49" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="F49" t="inlineStr">
-        <is>
-          <t>premium</t>
-        </is>
-      </c>
-      <c r="G49" t="inlineStr">
-        <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3738299303-fonte-carregador-jfa-60a-lite-storm-automotivo-slim-bivolt-_JM#position%3D50%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D39de991f-992c-407f-b34d-ffdae0e6970e</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3745650519-fonte-carregador-automotivo-jfa-120a-storm-lite-12v-bivolt-c-_JM#position%3D48%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D9f5fa8f1-dca2-4404-a6dd-9090879e0b5f</t>
         </is>
       </c>
     </row>

--- a/dados/supertrio som.xlsx
+++ b/dados/supertrio som.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G47"/>
+  <dimension ref="A1:I47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,35 +436,45 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>data</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>loja</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>nome</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>modelo</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>preco</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>politica</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>full</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>tipo</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>link</t>
         </is>
@@ -473,1598 +483,2062 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa 120a Bob Slim Bivolt Cor Preto</t>
+          <t>30/07/2024</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>FONTE 120 BOB</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>499.46</v>
+          <t>supertrio som</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Fonte Carregador Automotiva Jfa 200a Slim Bivolt Voltímetro</t>
+        </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Igual</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
+          <t>FONTE 200A STORM</t>
+        </is>
+      </c>
+      <c r="E2" t="n">
+        <v>845.87</v>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>Igual</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
         <is>
           <t>FULL</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>classico</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-120a-bob-slim-bivolt-cor-preto/p/MLB22144397?pdp_filters=seller_id:45588212#searchVariation=MLB22144397&amp;position=1&amp;search_layout=stack&amp;type=product&amp;tracking_id=9f5fa8f1-dca2-4404-a6dd-9090879e0b5f</t>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-automotiva-jfa-200a-slim-bivolt-voltimetro/p/MLB21348561?pdp_filters=seller_id:45588212#searchVariation=MLB21348561&amp;position=2&amp;search_layout=stack&amp;type=product&amp;tracking_id=94220a8d-5f69-4512-a228-3b751e38a2c5</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Fonte Automotiva 120a Amperes Jfa Carregador Cor Preto</t>
+          <t>30/07/2024</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>FONTE 120A STORM</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>634.4</v>
+          <t>supertrio som</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Fonte Carregador Jfa 120a Bob Slim Bivolt Cor Preto</t>
+        </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Igual</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
+          <t>FONTE 120 BOB</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
+        <v>499.46</v>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Igual</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
         <is>
           <t>FULL</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="H3" t="inlineStr">
         <is>
           <t>classico</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>https://www.mercadolivre.com.br/fonte-automotiva-120a-amperes-jfa-carregador-cor-preto/p/MLB21392652?pdp_filters=seller_id:45588212#searchVariation=MLB21392652&amp;position=2&amp;search_layout=stack&amp;type=product&amp;tracking_id=9f5fa8f1-dca2-4404-a6dd-9090879e0b5f</t>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-120a-bob-slim-bivolt-cor-preto/p/MLB22144397?pdp_filters=seller_id:45588212#searchVariation=MLB22144397&amp;position=3&amp;search_layout=stack&amp;type=product&amp;tracking_id=94220a8d-5f69-4512-a228-3b751e38a2c5</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Fonte Automotiva Jfa Storm 200a Bob Carregador Automático Bivolt Cor BOB 200A JFA</t>
+          <t>30/07/2024</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>FONTE 200 BOB</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>624.33</v>
+          <t>supertrio som</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Controle Longa Distância Jfa Acqua 1200 Resistente A Água</t>
+        </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Igual</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>FULL</t>
-        </is>
+          <t>ACQUA</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
+        <v>96.23</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
+          <t>Acima</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
           <t>classico</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>https://www.mercadolivre.com.br/fonte-automotiva-jfa-storm-200a-bob-carregador-automatico-bivolt-cor-bob-200a-jfa/p/MLB24834408?pdp_filters=seller_id:45588212#searchVariation=MLB24834408&amp;position=7&amp;search_layout=stack&amp;type=product&amp;tracking_id=9f5fa8f1-dca2-4404-a6dd-9090879e0b5f</t>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/controle-longa-distncia-jfa-acqua-1200-resistente-a-agua/p/MLB27685629?pdp_filters=seller_id:45588212#searchVariation=MLB27685629&amp;position=4&amp;search_layout=stack&amp;type=product&amp;tracking_id=94220a8d-5f69-4512-a228-3b751e38a2c5</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa 60a Bivolt Storm Com Medidor Cca</t>
+          <t>30/07/2024</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>FONTE 60A STORM</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>443.07</v>
+          <t>supertrio som</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Fonte Automotiva 120a Amperes Jfa Carregador Cor Preto</t>
+        </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Igual</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
+          <t>FONTE 120A STORM</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
+        <v>634.4</v>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Igual</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
         <is>
           <t>FULL</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="H5" t="inlineStr">
         <is>
           <t>classico</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-60a-bivolt-storm-com-medidor-cca/p/MLB21320712?pdp_filters=seller_id:45588212#searchVariation=MLB21320712&amp;position=4&amp;search_layout=stack&amp;type=product&amp;tracking_id=9f5fa8f1-dca2-4404-a6dd-9090879e0b5f</t>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/fonte-automotiva-120a-amperes-jfa-carregador-cor-preto/p/MLB21392652?pdp_filters=seller_id:45588212#searchVariation=MLB21392652&amp;position=5&amp;search_layout=stack&amp;type=product&amp;tracking_id=94220a8d-5f69-4512-a228-3b751e38a2c5</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa 70a Bivolt Com Medidor Cca</t>
+          <t>30/07/2024</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>FONTE 70A STORM</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>493.42</v>
+          <t>supertrio som</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Fonte Carregador Jfa 200a Lite Storm Slim Bivolt Cor Azul</t>
+        </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Igual</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
+          <t>FONTE 200A LITE</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
+        <v>681.83</v>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Igual</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
         <is>
           <t>FULL</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="H6" t="inlineStr">
         <is>
           <t>classico</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-70a-bivolt-com-medidor-cca/p/MLB21455208?pdp_filters=seller_id:45588212#searchVariation=MLB21455208&amp;position=6&amp;search_layout=stack&amp;type=product&amp;tracking_id=9f5fa8f1-dca2-4404-a6dd-9090879e0b5f</t>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-200a-lite-storm-slim-bivolt-cor-azul/p/MLB24154371?pdp_filters=seller_id:45588212#searchVariation=MLB24154371&amp;position=6&amp;search_layout=stack&amp;type=product&amp;tracking_id=94220a8d-5f69-4512-a228-3b751e38a2c5</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Controle Longa Distância Jfa Acqua 1200 Resistente A Água</t>
+          <t>30/07/2024</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>ACQUA</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>99</v>
+          <t>supertrio som</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Fonte Automotiva Jfa Storm 200a Bob Carregador Automático Bivolt Cor BOB 200A JFA</t>
+        </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Acima</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
+          <t>FONTE 200 BOB</t>
+        </is>
+      </c>
+      <c r="E7" t="n">
+        <v>624.33</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/controle-longa-distncia-jfa-acqua-1200-resistente-a-agua/p/MLB27687422?pdp_filters=seller_id:45588212#searchVariation=MLB27687422&amp;position=5&amp;search_layout=stack&amp;type=product&amp;tracking_id=9f5fa8f1-dca2-4404-a6dd-9090879e0b5f</t>
+          <t>FULL</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/fonte-automotiva-jfa-storm-200a-bob-carregador-automatico-bivolt-cor-bob-200a-jfa/p/MLB24834408?pdp_filters=seller_id:45588212#searchVariation=MLB24834408&amp;position=7&amp;search_layout=stack&amp;type=product&amp;tracking_id=94220a8d-5f69-4512-a228-3b751e38a2c5</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa Bob Storm 90a Bivolt Automático Cor Preto</t>
+          <t>30/07/2024</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>FONTE 90 BOB</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>422.93</v>
+          <t>supertrio som</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Fonte Carregador Jfa 70a Bivolt Com Medidor Cca</t>
+        </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Igual</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
+          <t>FONTE 70A STORM</t>
+        </is>
+      </c>
+      <c r="E8" t="n">
+        <v>493.42</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
+          <t>Igual</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>FULL</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
           <t>classico</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-bob-storm-90a-bivolt-automatico-cor-preto/p/MLB21562641?pdp_filters=seller_id:45588212#searchVariation=MLB21562641&amp;position=9&amp;search_layout=stack&amp;type=product&amp;tracking_id=9f5fa8f1-dca2-4404-a6dd-9090879e0b5f</t>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-70a-bivolt-com-medidor-cca/p/MLB21455208?pdp_filters=seller_id:45588212#searchVariation=MLB21455208&amp;position=9&amp;search_layout=stack&amp;type=product&amp;tracking_id=94220a8d-5f69-4512-a228-3b751e38a2c5</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Fonte Carregador Automotiva Jfa 200a Slim Bivolt Voltímetro</t>
+          <t>30/07/2024</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>FONTE 200A STORM</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>845.87</v>
+          <t>supertrio som</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Fonte Carregador Jfa 60a Bivolt Storm Com Medidor Cca</t>
+        </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Igual</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
+          <t>FONTE 60A STORM</t>
+        </is>
+      </c>
+      <c r="E9" t="n">
+        <v>473.28</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
+          <t>Igual</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>FULL</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
           <t>premium</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-automotiva-jfa-200a-slim-bivolt-voltimetro/p/MLB21348561?pdp_filters=seller_id:45588212#searchVariation=MLB21348561&amp;position=8&amp;search_layout=stack&amp;type=product&amp;tracking_id=9f5fa8f1-dca2-4404-a6dd-9090879e0b5f</t>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-60a-bivolt-storm-com-medidor-cca/p/MLB21320712?pdp_filters=seller_id:45588212#searchVariation=MLB21320712&amp;position=10&amp;search_layout=stack&amp;type=product&amp;tracking_id=94220a8d-5f69-4512-a228-3b751e38a2c5</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Conversor Fio Para Rca Remoto Slim 12v Jfa Automotivo Cd Dvd</t>
+          <t>30/07/2024</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Sem Modelo</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>40.1</v>
-      </c>
-      <c r="D10" t="inlineStr"/>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
+          <t>supertrio som</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Fonte Carregador Jfa Bob Storm 90a Bivolt Automático Cor Preto</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>FONTE 90 BOB</t>
+        </is>
+      </c>
+      <c r="E10" t="n">
+        <v>422.93</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
+          <t>Igual</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>FULL</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
           <t>classico</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>https://www.mercadolivre.com.br/conversor-fio-para-rca-remoto-slim-12v-jfa-automotivo-cd-dvd/p/MLB25707531?pdp_filters=seller_id:45588212#searchVariation=MLB25707531&amp;position=10&amp;search_layout=stack&amp;type=product&amp;tracking_id=9f5fa8f1-dca2-4404-a6dd-9090879e0b5f</t>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-bob-storm-90a-bivolt-automatico-cor-preto/p/MLB21562641?pdp_filters=seller_id:45588212#searchVariation=MLB21562641&amp;position=11&amp;search_layout=stack&amp;type=product&amp;tracking_id=94220a8d-5f69-4512-a228-3b751e38a2c5</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Fonte Carregador Automotivo Jfa 120a Storm Lite 12v Bivolt Cor Preto</t>
+          <t>30/07/2024</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>FONTE 120A LITE</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>536.26</v>
+          <t>supertrio som</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Controle Longa Distancia Jfa K600 Branco Com Cinza</t>
+        </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Igual</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
+          <t>K600</t>
+        </is>
+      </c>
+      <c r="E11" t="n">
+        <v>70.98999999999999</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
+          <t>Acima</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
           <t>classico</t>
         </is>
       </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-automotivo-jfa-120a-storm-lite-12v-bivolt-cor-preto/p/MLB23998473?pdp_filters=seller_id:45588212#searchVariation=MLB23998473&amp;position=13&amp;search_layout=stack&amp;type=product&amp;tracking_id=9f5fa8f1-dca2-4404-a6dd-9090879e0b5f</t>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/controle-longa-distancia-jfa-k600-branco-com-cinza/p/MLB32364344?pdp_filters=seller_id:45588212#searchVariation=MLB32364344&amp;position=12&amp;search_layout=stack&amp;type=product&amp;tracking_id=94220a8d-5f69-4512-a228-3b751e38a2c5</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Controle Remoto Universal Longa Distância Jfa K1200 Azul</t>
+          <t>30/07/2024</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>K1200</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>68.19</v>
+          <t>supertrio som</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Fonte Carregador Automotivo Jfa 120a Storm Lite 12v Bivolt Cor Preto</t>
+        </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Acima</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
+          <t>FONTE 120A LITE</t>
+        </is>
+      </c>
+      <c r="E12" t="n">
+        <v>536.26</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
+          <t>Igual</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
           <t>classico</t>
         </is>
       </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>https://www.mercadolivre.com.br/controle-remoto-universal-longa-distncia-jfa-k1200-azul/p/MLB28722231?pdp_filters=seller_id:45588212#searchVariation=MLB28722231&amp;position=17&amp;search_layout=stack&amp;type=product&amp;tracking_id=9f5fa8f1-dca2-4404-a6dd-9090879e0b5f</t>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-automotivo-jfa-120a-storm-lite-12v-bivolt-cor-preto/p/MLB23998473?pdp_filters=seller_id:45588212#searchVariation=MLB23998473&amp;position=13&amp;search_layout=stack&amp;type=product&amp;tracking_id=94220a8d-5f69-4512-a228-3b751e38a2c5</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Fonte Automotiva Jfa Storm Lite 200a Bivolt Carregador</t>
+          <t>30/07/2024</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>FONTE 200A LITE</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>681.83</v>
+          <t>supertrio som</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Conversor Fio Para Rca Remoto Slim 12v Jfa Automotivo Cd Dvd</t>
+        </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Igual</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>FULL</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="E13" t="n">
+        <v>40.1</v>
+      </c>
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
         <is>
           <t>classico</t>
         </is>
       </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3344425354-fonte-automotiva-jfa-storm-lite-200a-bivolt-carregador-_JM#position%3D21%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D9f5fa8f1-dca2-4404-a6dd-9090879e0b5f</t>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/conversor-fio-para-rca-remoto-slim-12v-jfa-automotivo-cd-dvd/p/MLB25707531?pdp_filters=seller_id:45588212#searchVariation=MLB25707531&amp;position=14&amp;search_layout=stack&amp;type=product&amp;tracking_id=94220a8d-5f69-4512-a228-3b751e38a2c5</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Fonte Automotiva 60a Jfa Amperes Bivolt Automatico</t>
+          <t>30/07/2024</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>FONTE 60A STORM</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
-        <v>443.07</v>
+          <t>supertrio som</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Fonte Carregador Jfa 120a Bob Slim Bivolt</t>
+        </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Igual</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>FULL</t>
-        </is>
+          <t>FONTE 120 BOB</t>
+        </is>
+      </c>
+      <c r="E14" t="n">
+        <v>539.74</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1921800308-fonte-automotiva-60a-jfa-amperes-bivolt-automatico-_JM#position%3D22%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D9f5fa8f1-dca2-4404-a6dd-9090879e0b5f</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-2773051227-fonte-carregador-jfa-120a-bob-slim-bivolt-_JM#position%3D20%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D94220a8d-5f69-4512-a228-3b751e38a2c5</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa Bob Storm 90a Bivolt Automático Cor Pre</t>
+          <t>30/07/2024</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>FONTE 90 BOB</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>422.93</v>
+          <t>supertrio som</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Fonte Automotiva Jfa Storm Lite 70a Bivolt Carregador</t>
+        </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Igual</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
+          <t>FONTE 70A LITE</t>
+        </is>
+      </c>
+      <c r="E15" t="n">
+        <v>408.73</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
+          <t>Igual</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
           <t>classico</t>
         </is>
       </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>https://produto.mercadolivre.com.br/MLB-4777417620-fonte-carregador-jfa-bob-storm-90a-bivolt-automatico-cor-pre-_JM#position%3D23%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D9f5fa8f1-dca2-4404-a6dd-9090879e0b5f</t>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3307314045-fonte-automotiva-jfa-storm-lite-70a-bivolt-carregador-_JM#position%3D21%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D94220a8d-5f69-4512-a228-3b751e38a2c5</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Fonte Carregador Automotivo Jfa 40a Lite Storm Slim Bivolt Cor Preto</t>
+          <t>30/07/2024</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Sem Modelo</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
-        <v>320</v>
-      </c>
-      <c r="D16" t="inlineStr"/>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
+          <t>supertrio som</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Controle Remoto Universal Longa Distância Jfa K1200 Azul</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>K1200</t>
+        </is>
+      </c>
+      <c r="E16" t="n">
+        <v>74.98999999999999</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
+          <t>Acima</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
           <t>classico</t>
         </is>
       </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-automotivo-jfa-40a-lite-storm-slim-bivolt-cor-preto/p/MLB33435981?pdp_filters=seller_id:45588212#searchVariation=MLB33435981&amp;position=11&amp;search_layout=stack&amp;type=product&amp;tracking_id=9f5fa8f1-dca2-4404-a6dd-9090879e0b5f</t>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/controle-remoto-universal-longa-distncia-jfa-k1200-azul/p/MLB28722231?pdp_filters=seller_id:45588212#searchVariation=MLB28722231&amp;position=15&amp;search_layout=stack&amp;type=product&amp;tracking_id=94220a8d-5f69-4512-a228-3b751e38a2c5</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Fonte Automotiva Carregador Jfa 60a Bivolt Automático Sci</t>
+          <t>30/07/2024</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>FONTE 60A STORM</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>473.28</v>
+          <t>supertrio som</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Fonte Carregador Jfa Bob Storm 90a Bivolt Automático Cor Pre</t>
+        </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Igual</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>FULL</t>
-        </is>
+          <t>FONTE 90 BOB</t>
+        </is>
+      </c>
+      <c r="E17" t="n">
+        <v>422.93</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2678722526-fonte-automotiva-carregador-jfa-60a-bivolt-automatico-sci-_JM#position%3D24%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D9f5fa8f1-dca2-4404-a6dd-9090879e0b5f</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-4777417620-fonte-carregador-jfa-bob-storm-90a-bivolt-automatico-cor-pre-_JM#position%3D22%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D94220a8d-5f69-4512-a228-3b751e38a2c5</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Fonte Automotiva Jfa Storm Lite 70a Bivolt Carregador</t>
+          <t>30/07/2024</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>FONTE 70A LITE</t>
-        </is>
-      </c>
-      <c r="C18" t="n">
-        <v>408.73</v>
+          <t>supertrio som</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Nova Fonte Automotiva 70a Amperes Jfa Carregador Storm Novo</t>
+        </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Igual</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
+          <t>FONTE 70A STORM</t>
+        </is>
+      </c>
+      <c r="E18" t="n">
+        <v>493.42</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
+          <t>Igual</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
           <t>classico</t>
         </is>
       </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3307314045-fonte-automotiva-jfa-storm-lite-70a-bivolt-carregador-_JM#position%3D25%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D9f5fa8f1-dca2-4404-a6dd-9090879e0b5f</t>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-2621320782-nova-fonte-automotiva-70a-amperes-jfa-carregador-storm-novo-_JM#position%3D23%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D94220a8d-5f69-4512-a228-3b751e38a2c5</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa 120a Lite Storm Slim Bivolt</t>
+          <t>30/07/2024</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>FONTE 120A LITE</t>
-        </is>
-      </c>
-      <c r="C19" t="n">
-        <v>573.36</v>
+          <t>supertrio som</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Controle Remoto Universal Longa Jfa K1200 Preto C/ Verde</t>
+        </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Igual</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
+          <t>K1200</t>
+        </is>
+      </c>
+      <c r="E19" t="n">
+        <v>64.59999999999999</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>Acima</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3307572800-fonte-carregador-jfa-120a-lite-storm-slim-bivolt-_JM#position%3D26%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D9f5fa8f1-dca2-4404-a6dd-9090879e0b5f</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/controle-remoto-universal-longa-jfa-k1200-preto-c-verde/p/MLB30476096?pdp_filters=seller_id:45588212#searchVariation=MLB30476096&amp;position=16&amp;search_layout=stack&amp;type=product&amp;tracking_id=94220a8d-5f69-4512-a228-3b751e38a2c5</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Controle Remoto Universal Longa Jfa K1200 Preto C/ Verde</t>
+          <t>30/07/2024</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>K1200</t>
-        </is>
-      </c>
-      <c r="C20" t="n">
-        <v>64.59999999999999</v>
+          <t>supertrio som</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Fonte Carregador Jfa Bob Storm 90a Bivolt Automático Cor Pre</t>
+        </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Acima</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
+          <t>FONTE 90 BOB</t>
+        </is>
+      </c>
+      <c r="E20" t="n">
+        <v>443.07</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/controle-remoto-universal-longa-jfa-k1200-preto-c-verde/p/MLB30476096?pdp_filters=seller_id:45588212#searchVariation=MLB30476096&amp;position=14&amp;search_layout=stack&amp;type=product&amp;tracking_id=9f5fa8f1-dca2-4404-a6dd-9090879e0b5f</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-4781829128-fonte-carregador-jfa-bob-storm-90a-bivolt-automatico-cor-pre-_JM#position%3D24%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D94220a8d-5f69-4512-a228-3b751e38a2c5</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Fonte Automotiva Jfa 200a 3000w Bivolt Automático Voltímetro</t>
+          <t>30/07/2024</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>FONTE 200A STORM</t>
-        </is>
-      </c>
-      <c r="C21" t="n">
-        <v>805.59</v>
+          <t>supertrio som</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Fonte Carregador Jfa 120a Lite Storm Slim Bivolt</t>
+        </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Igual</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
+          <t>FONTE 120A LITE</t>
+        </is>
+      </c>
+      <c r="E21" t="n">
+        <v>573.36</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1290018792-fonte-automotiva-jfa-200a-3000w-bivolt-automatico-voltimetro-_JM#position%3D27%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D9f5fa8f1-dca2-4404-a6dd-9090879e0b5f</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3307572800-fonte-carregador-jfa-120a-lite-storm-slim-bivolt-_JM#position%3D25%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D94220a8d-5f69-4512-a228-3b751e38a2c5</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Nova Fonte Carregador Jfa Bob Storm 90a Bivolt Automático</t>
+          <t>30/07/2024</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>FONTE 90 BOB</t>
-        </is>
-      </c>
-      <c r="C22" t="n">
-        <v>443.07</v>
+          <t>supertrio som</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Fonte Automotiva Carregador Jfa 60a Bivolt Automático Sci</t>
+        </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Igual</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
+          <t>FONTE 60A STORM</t>
+        </is>
+      </c>
+      <c r="E22" t="n">
+        <v>473.28</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
+          <t>Igual</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>FULL</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
           <t>premium</t>
         </is>
       </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3744103525-nova-fonte-carregador-jfa-bob-storm-90a-bivolt-automatico-_JM#position%3D28%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D9f5fa8f1-dca2-4404-a6dd-9090879e0b5f</t>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-2678722526-fonte-automotiva-carregador-jfa-60a-bivolt-automatico-sci-_JM#position%3D26%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D94220a8d-5f69-4512-a228-3b751e38a2c5</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa Bob Storm 200a Bivolt</t>
+          <t>30/07/2024</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>FONTE 200 BOB</t>
-        </is>
-      </c>
-      <c r="C23" t="n">
-        <v>624.33</v>
+          <t>supertrio som</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Fonte Automotiva 70 Amperes Jfa Storm Carregador Com Cor Preto</t>
+        </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Igual</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
+          <t>FONTE 70A STORM</t>
+        </is>
+      </c>
+      <c r="E23" t="n">
+        <v>523.63</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3738244537-fonte-carregador-jfa-bob-storm-200a-bivolt-_JM?searchVariation=183142398239#searchVariation%3D183142398239%26position%3D29%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D9f5fa8f1-dca2-4404-a6dd-9090879e0b5f</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/fonte-automotiva-70-amperes-jfa-storm-carregador-com-cor-preto/p/MLB25571709?pdp_filters=seller_id:45588212#searchVariation=MLB25571709&amp;position=17&amp;search_layout=stack&amp;type=product&amp;tracking_id=94220a8d-5f69-4512-a228-3b751e38a2c5</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Controle Remoto Universal Longa Distância Jfa K1200 2 Cores</t>
+          <t>30/07/2024</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>K1200</t>
-        </is>
-      </c>
-      <c r="C24" t="n">
-        <v>71.47</v>
+          <t>supertrio som</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Fonte Carregador Jfa Bob 200</t>
+        </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Acima</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
+          <t>FONTE 200 BOB</t>
+        </is>
+      </c>
+      <c r="E24" t="n">
+        <v>624.33</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2734136341-controle-remoto-universal-longa-distncia-jfa-k1200-2-cores-_JM#position%3D30%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D9f5fa8f1-dca2-4404-a6dd-9090879e0b5f</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3344009945-fonte-carregador-jfa-bob-200-_JM?searchVariation=178601508955#searchVariation%3D178601508955%26position%3D27%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D94220a8d-5f69-4512-a228-3b751e38a2c5</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa Bob 200</t>
+          <t>30/07/2024</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
+          <t>supertrio som</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Fonte Carregador Jfa Bob Storm 200a Bivolt</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
           <t>FONTE 200 BOB</t>
         </is>
       </c>
-      <c r="C25" t="n">
+      <c r="E25" t="n">
         <v>624.33</v>
       </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>Igual</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
       <c r="F25" t="inlineStr">
         <is>
+          <t>Igual</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
           <t>classico</t>
         </is>
       </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3344009945-fonte-carregador-jfa-bob-200-_JM?searchVariation=178601508955#searchVariation%3D178601508955%26position%3D31%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D9f5fa8f1-dca2-4404-a6dd-9090879e0b5f</t>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3738244537-fonte-carregador-jfa-bob-storm-200a-bivolt-_JM?searchVariation=183142398239#searchVariation%3D183142398239%26position%3D28%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D94220a8d-5f69-4512-a228-3b751e38a2c5</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa 200a Lite Storm Slim Bivolt</t>
+          <t>30/07/2024</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>FONTE 200A LITE</t>
-        </is>
-      </c>
-      <c r="C26" t="n">
-        <v>716.71</v>
+          <t>supertrio som</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Fonte Automotiva Jfa 200a 3000w Bivolt Automático Voltímetro</t>
+        </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Igual</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
+          <t>FONTE 200A STORM</t>
+        </is>
+      </c>
+      <c r="E26" t="n">
+        <v>805.59</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3264930885-fonte-carregador-jfa-200a-lite-storm-slim-bivolt-_JM#position%3D32%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D9f5fa8f1-dca2-4404-a6dd-9090879e0b5f</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-1290018792-fonte-automotiva-jfa-200a-3000w-bivolt-automatico-voltimetro-_JM#position%3D29%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D94220a8d-5f69-4512-a228-3b751e38a2c5</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Controle Remoto Longa Distância Jfa K600 Laranja Preto</t>
+          <t>30/07/2024</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>K600</t>
-        </is>
-      </c>
-      <c r="C27" t="n">
-        <v>68.26000000000001</v>
+          <t>supertrio som</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>Controle Longa Distancia Jfa Redline Wr P Aparelho Original</t>
+        </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
+          <t>CONTROLE WR</t>
+        </is>
+      </c>
+      <c r="E27" t="n">
+        <v>105.96</v>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
           <t>Acima</t>
         </is>
       </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>classico</t>
-        </is>
-      </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/controle-remoto-longa-distncia-jfa-k600-laranja-preto/p/MLB28061013?pdp_filters=seller_id:45588212#searchVariation=MLB28061013&amp;position=15&amp;search_layout=stack&amp;type=product&amp;tracking_id=9f5fa8f1-dca2-4404-a6dd-9090879e0b5f</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-1849695725-controle-longa-distancia-jfa-redline-wr-p-aparelho-original-_JM#position%3D30%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D94220a8d-5f69-4512-a228-3b751e38a2c5</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Fonte Automotiva 70 Amperes Jfa Storm Carregador Com Cor Preto</t>
+          <t>30/07/2024</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>FONTE 70A STORM</t>
-        </is>
-      </c>
-      <c r="C28" t="n">
-        <v>523.63</v>
+          <t>supertrio som</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>Controle Longa Distância Jfa K1200 Preto/laranja 1200mt</t>
+        </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Igual</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
+          <t>K1200</t>
+        </is>
+      </c>
+      <c r="E28" t="n">
+        <v>74.98999999999999</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>Acima</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-automotiva-70-amperes-jfa-storm-carregador-com-cor-preto/p/MLB25571709?pdp_filters=seller_id:45588212#searchVariation=MLB25571709&amp;position=16&amp;search_layout=stack&amp;type=product&amp;tracking_id=9f5fa8f1-dca2-4404-a6dd-9090879e0b5f</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/controle-longa-distncia-jfa-k1200-pretolaranja-1200mt/p/MLB28357019?pdp_filters=seller_id:45588212#searchVariation=MLB28357019&amp;position=19&amp;search_layout=stack&amp;type=product&amp;tracking_id=94220a8d-5f69-4512-a228-3b751e38a2c5</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa 200a Lite Storm Slim Bivolt Cor Azul</t>
+          <t>30/07/2024</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
+          <t>supertrio som</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>Fonte Carregador Jfa 200a Lite Storm Slim Bivolt</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
           <t>FONTE 200A LITE</t>
         </is>
       </c>
-      <c r="C29" t="n">
+      <c r="E29" t="n">
         <v>716.71</v>
       </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>Igual</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
       <c r="F29" t="inlineStr">
         <is>
+          <t>Igual</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
           <t>premium</t>
         </is>
       </c>
-      <c r="G29" t="inlineStr">
-        <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-200a-lite-storm-slim-bivolt-cor-azul/p/MLB24154371?pdp_filters=seller_id:45588212#searchVariation=MLB24154371&amp;position=18&amp;search_layout=stack&amp;type=product&amp;tracking_id=9f5fa8f1-dca2-4404-a6dd-9090879e0b5f</t>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3264930885-fonte-carregador-jfa-200a-lite-storm-slim-bivolt-_JM#position%3D31%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D94220a8d-5f69-4512-a228-3b751e38a2c5</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Controle Longa Distância Jfa K1200 Preto/laranja 1200mt</t>
+          <t>30/07/2024</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>K1200</t>
-        </is>
-      </c>
-      <c r="C30" t="n">
-        <v>65.09999999999999</v>
+          <t>supertrio som</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>Fonte Automotiva Jfa Storm 200a Bob Carregador Automático Bi</t>
+        </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Acima</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
+          <t>FONTE 200 BOB</t>
+        </is>
+      </c>
+      <c r="E30" t="n">
+        <v>694.8200000000001</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/controle-longa-distncia-jfa-k1200-pretolaranja-1200mt/p/MLB28357019?pdp_filters=seller_id:45588212#searchVariation=MLB28357019&amp;position=19&amp;search_layout=stack&amp;type=product&amp;tracking_id=9f5fa8f1-dca2-4404-a6dd-9090879e0b5f</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3742956287-fonte-automotiva-jfa-storm-200a-bob-carregador-automatico-bi-_JM#position%3D32%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D94220a8d-5f69-4512-a228-3b751e38a2c5</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Inversor JFA 49046 Senoidal Off-grid Motorhome Caminhão 1000w 12v/220v</t>
+          <t>30/07/2024</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Sem Modelo</t>
-        </is>
-      </c>
-      <c r="C31" t="n">
-        <v>1490</v>
-      </c>
-      <c r="D31" t="inlineStr"/>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
+          <t>supertrio som</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>Fonte Jfa 70a Sci - Fonte Carregador Bateria Inteligente 12v</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>FONTE 70A STORM</t>
+        </is>
+      </c>
+      <c r="E31" t="n">
+        <v>523.63</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/inversor-jfa-49046-senoidal-off-grid-motorhome-caminho-1000w-12v220v/p/MLB35970528?pdp_filters=seller_id:45588212#searchVariation=MLB35970528&amp;position=20&amp;search_layout=stack&amp;type=product&amp;tracking_id=9f5fa8f1-dca2-4404-a6dd-9090879e0b5f</t>
+          <t>FULL</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-967159661-fonte-jfa-70a-sci-fonte-carregador-bateria-inteligente-12v-_JM#position%3D33%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D94220a8d-5f69-4512-a228-3b751e38a2c5</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Nova Fonte Automotiva 70a Amperes Jfa Carregador Storm Novo</t>
+          <t>30/07/2024</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>FONTE 70A STORM</t>
-        </is>
-      </c>
-      <c r="C32" t="n">
-        <v>493.42</v>
+          <t>supertrio som</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>Fonte Carregador Automotivo Jfa 40a Lite Storm Slim Bivolt Cor Preto</t>
+        </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Igual</t>
-        </is>
-      </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="F32" t="inlineStr">
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="E32" t="n">
+        <v>320</v>
+      </c>
+      <c r="F32" t="inlineStr"/>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
         <is>
           <t>classico</t>
         </is>
       </c>
-      <c r="G32" t="inlineStr">
-        <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2621320782-nova-fonte-automotiva-70a-amperes-jfa-carregador-storm-novo-_JM#position%3D33%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D9f5fa8f1-dca2-4404-a6dd-9090879e0b5f</t>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-automotivo-jfa-40a-lite-storm-slim-bivolt-cor-preto/p/MLB33435981?pdp_filters=seller_id:45588212#searchVariation=MLB33435981&amp;position=1&amp;search_layout=stack&amp;type=product&amp;tracking_id=94220a8d-5f69-4512-a228-3b751e38a2c5</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Fonte Automotiva Jfa Storm Lite 70a Bivolt Carregador</t>
+          <t>30/07/2024</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>FONTE 70A LITE</t>
-        </is>
-      </c>
-      <c r="C33" t="n">
-        <v>434.42</v>
+          <t>supertrio som</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>Nova Fonte Carregador Jfa Bob Storm 90a Bivolt Automático</t>
+        </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Igual</t>
-        </is>
-      </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
+          <t>FONTE 90 BOB</t>
+        </is>
+      </c>
+      <c r="E33" t="n">
+        <v>443.07</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
+          <t>Igual</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
           <t>premium</t>
         </is>
       </c>
-      <c r="G33" t="inlineStr">
-        <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3582399882-fonte-automotiva-jfa-storm-lite-70a-bivolt-carregador-_JM#position%3D34%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D9f5fa8f1-dca2-4404-a6dd-9090879e0b5f</t>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-2969345061-nova-fonte-carregador-jfa-bob-storm-90a-bivolt-automatico-_JM#position%3D34%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D94220a8d-5f69-4512-a228-3b751e38a2c5</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Controle Remoto Universal Longa Distância Jfa K1200 Azul</t>
+          <t>30/07/2024</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>K1200</t>
-        </is>
-      </c>
-      <c r="C34" t="n">
-        <v>55.36</v>
+          <t>supertrio som</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>Fonte Automotiva Jfa Storm Lite 70a Bivolt Carregador</t>
+        </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Baixo</t>
-        </is>
-      </c>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
+          <t>FONTE 70A LITE</t>
+        </is>
+      </c>
+      <c r="E34" t="n">
+        <v>434.42</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-4781854750-controle-remoto-universal-longa-distncia-jfa-k1200-azul-_JM#position%3D35%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D9f5fa8f1-dca2-4404-a6dd-9090879e0b5f</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3582399882-fonte-automotiva-jfa-storm-lite-70a-bivolt-carregador-_JM#position%3D35%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D94220a8d-5f69-4512-a228-3b751e38a2c5</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
+          <t>30/07/2024</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>supertrio som</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
           <t>Fonte Carregador Jfa 120a Bob Slim Bivolt Cor Preto</t>
         </is>
       </c>
-      <c r="B35" t="inlineStr">
+      <c r="D35" t="inlineStr">
         <is>
           <t>FONTE 120 BOB</t>
         </is>
       </c>
-      <c r="C35" t="n">
+      <c r="E35" t="n">
         <v>539.74</v>
       </c>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>Igual</t>
-        </is>
-      </c>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
       <c r="F35" t="inlineStr">
         <is>
+          <t>Igual</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
           <t>premium</t>
         </is>
       </c>
-      <c r="G35" t="inlineStr">
-        <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3738283061-fonte-carregador-jfa-120a-bob-slim-bivolt-cor-preto-_JM#position%3D36%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D9f5fa8f1-dca2-4404-a6dd-9090879e0b5f</t>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3738283061-fonte-carregador-jfa-120a-bob-slim-bivolt-cor-preto-_JM#position%3D36%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D94220a8d-5f69-4512-a228-3b751e38a2c5</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Controle De Long Distânc Jfa K1200 Resistente A Água - Preto</t>
+          <t>30/07/2024</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>K1200</t>
-        </is>
-      </c>
-      <c r="C36" t="n">
-        <v>77.34999999999999</v>
+          <t>supertrio som</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>Fonte Automotiva 60a Jfa Amperes Bivolt Automatico</t>
+        </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Acima</t>
-        </is>
-      </c>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
+          <t>FONTE 60A STORM</t>
+        </is>
+      </c>
+      <c r="E36" t="n">
+        <v>443.07</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
+          <t>Igual</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
           <t>classico</t>
         </is>
       </c>
-      <c r="G36" t="inlineStr">
-        <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2711461752-controle-de-long-distnc-jfa-k1200-resistente-a-agua-preto-_JM#position%3D37%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D9f5fa8f1-dca2-4404-a6dd-9090879e0b5f</t>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-1921800308-fonte-automotiva-60a-jfa-amperes-bivolt-automatico-_JM#position%3D37%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D94220a8d-5f69-4512-a228-3b751e38a2c5</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Fonte Automotiva Jfa 200a 3000w Bivolt Automático Voltímetro</t>
+          <t>30/07/2024</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
+          <t>supertrio som</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>Fonte Automotiva Jfa 200a Slim Bivolt Digital Voltímetro Som</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
           <t>FONTE 200A STORM</t>
         </is>
       </c>
-      <c r="C37" t="n">
+      <c r="E37" t="n">
         <v>845.87</v>
       </c>
-      <c r="D37" t="inlineStr">
-        <is>
-          <t>Igual</t>
-        </is>
-      </c>
-      <c r="E37" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
       <c r="F37" t="inlineStr">
         <is>
+          <t>Igual</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
           <t>premium</t>
         </is>
       </c>
-      <c r="G37" t="inlineStr">
-        <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3745721273-fonte-automotiva-jfa-200a-3000w-bivolt-automatico-voltimetro-_JM#position%3D38%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D9f5fa8f1-dca2-4404-a6dd-9090879e0b5f</t>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-2634603687-fonte-automotiva-jfa-200a-slim-bivolt-digital-voltimetro-som-_JM#position%3D38%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D94220a8d-5f69-4512-a228-3b751e38a2c5</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Controle Longa Distancia Jfa Redline Wr P Aparelho Original</t>
+          <t>30/07/2024</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>CONTROLE WR</t>
-        </is>
-      </c>
-      <c r="C38" t="n">
-        <v>107.04</v>
+          <t>supertrio som</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>Fonte Automotiva Jfa Storm Lite 200a Bivolt Carregador</t>
+        </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Acima</t>
-        </is>
-      </c>
-      <c r="E38" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
+          <t>FONTE 200A LITE</t>
+        </is>
+      </c>
+      <c r="E38" t="n">
+        <v>716.71</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
+          <t>Igual</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
           <t>premium</t>
         </is>
       </c>
-      <c r="G38" t="inlineStr">
-        <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1849695725-controle-longa-distancia-jfa-redline-wr-p-aparelho-original-_JM#position%3D39%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D9f5fa8f1-dca2-4404-a6dd-9090879e0b5f</t>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-4728106950-fonte-automotiva-jfa-storm-lite-200a-bivolt-carregador-_JM#position%3D39%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D94220a8d-5f69-4512-a228-3b751e38a2c5</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Fonte Automotiva Jfa Storm 200a Bob Carregador Automático Bi</t>
+          <t>30/07/2024</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>FONTE 200 BOB</t>
-        </is>
-      </c>
-      <c r="C39" t="n">
-        <v>694.8200000000001</v>
+          <t>supertrio som</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>Fonte Automotiva Jfa 200a 3000w Bivolt Automático Voltímetro</t>
+        </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Igual</t>
-        </is>
-      </c>
-      <c r="E39" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
+          <t>FONTE 200A STORM</t>
+        </is>
+      </c>
+      <c r="E39" t="n">
+        <v>845.87</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
+          <t>Igual</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
           <t>premium</t>
         </is>
       </c>
-      <c r="G39" t="inlineStr">
-        <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3742956287-fonte-automotiva-jfa-storm-200a-bob-carregador-automatico-bi-_JM#position%3D40%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D9f5fa8f1-dca2-4404-a6dd-9090879e0b5f</t>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3745721273-fonte-automotiva-jfa-200a-3000w-bivolt-automatico-voltimetro-_JM#position%3D40%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D94220a8d-5f69-4512-a228-3b751e38a2c5</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Fonte Automotiva 120a Amperes Jfa Carregador Cor Preto</t>
+          <t>30/07/2024</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>FONTE 120A STORM</t>
-        </is>
-      </c>
-      <c r="C40" t="n">
-        <v>710.1900000000001</v>
+          <t>supertrio som</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>Fonte Carregador Jfa Storm 70a Lite Bivolt - 12v</t>
+        </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Acima</t>
-        </is>
-      </c>
-      <c r="E40" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
+          <t>FONTE 70A LITE</t>
+        </is>
+      </c>
+      <c r="E40" t="n">
+        <v>408.73</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-4788957930-fonte-automotiva-120a-amperes-jfa-carregador-cor-preto-_JM#position%3D41%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D9f5fa8f1-dca2-4404-a6dd-9090879e0b5f</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3745673581-fonte-carregador-jfa-storm-70a-lite-bivolt-12v-_JM#position%3D41%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D94220a8d-5f69-4512-a228-3b751e38a2c5</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Fonte Automotiva 120 A Jfa Carregador Modelo</t>
+          <t>30/07/2024</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>FONTE 120A STORM</t>
-        </is>
-      </c>
-      <c r="C41" t="n">
-        <v>710.1900000000001</v>
+          <t>supertrio som</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>Fonte Carregador Automotiva Storm Sci Redline Jfa 200a Slim</t>
+        </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Acima</t>
-        </is>
-      </c>
-      <c r="E41" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
+          <t>FONTE 200A STORM</t>
+        </is>
+      </c>
+      <c r="E41" t="n">
+        <v>805.59</v>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3744128325-fonte-automotiva-120-a-jfa-carregador-modelo-_JM#position%3D42%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D9f5fa8f1-dca2-4404-a6dd-9090879e0b5f</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-2649802690-fonte-carregador-automotiva-storm-sci-redline-jfa-200a-slim-_JM#position%3D42%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D94220a8d-5f69-4512-a228-3b751e38a2c5</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa 120a Storm Bivolt Com Medidor Cca</t>
+          <t>30/07/2024</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>FONTE 120A STORM</t>
-        </is>
-      </c>
-      <c r="C42" t="n">
-        <v>674.6799999999999</v>
+          <t>supertrio som</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>Fonte Carregador Jfa Bob Storm 200a Bivolt</t>
+        </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Igual</t>
-        </is>
-      </c>
-      <c r="E42" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
+          <t>FONTE 200 BOB</t>
+        </is>
+      </c>
+      <c r="E42" t="n">
+        <v>694.8200000000001</v>
       </c>
       <c r="F42" t="inlineStr">
         <is>
+          <t>Igual</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
           <t>premium</t>
         </is>
       </c>
-      <c r="G42" t="inlineStr">
-        <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2166734841-fonte-carregador-jfa-120a-storm-bivolt-com-medidor-cca-_JM#position%3D43%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D9f5fa8f1-dca2-4404-a6dd-9090879e0b5f</t>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3745695931-fonte-carregador-jfa-bob-storm-200a-bivolt-_JM#position%3D43%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D94220a8d-5f69-4512-a228-3b751e38a2c5</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Fonte Carregador Automotiva Storm Sci Redline Jfa 200a Slim</t>
+          <t>30/07/2024</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>FONTE 200A STORM</t>
-        </is>
-      </c>
-      <c r="C43" t="n">
-        <v>847.99</v>
+          <t>supertrio som</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>Fonte Automotiva Jfa Storm Lite 120a Bivolt Carregador</t>
+        </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Acima</t>
-        </is>
-      </c>
-      <c r="E43" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
+          <t>FONTE 120A LITE</t>
+        </is>
+      </c>
+      <c r="E43" t="n">
+        <v>573.36</v>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2649802690-fonte-carregador-automotiva-storm-sci-redline-jfa-200a-slim-_JM#position%3D44%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D9f5fa8f1-dca2-4404-a6dd-9090879e0b5f</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3734575855-fonte-automotiva-jfa-storm-lite-120a-bivolt-carregador-_JM#position%3D44%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D94220a8d-5f69-4512-a228-3b751e38a2c5</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa Bob Storm 200a Bivolt</t>
+          <t>30/07/2024</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>FONTE 200 BOB</t>
-        </is>
-      </c>
-      <c r="C44" t="n">
-        <v>694.8200000000001</v>
+          <t>supertrio som</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>Controle Jfa Acqua 1200 Metros Longa Distancia Lançamento</t>
+        </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Igual</t>
-        </is>
-      </c>
-      <c r="E44" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
+          <t>ACQUA</t>
+        </is>
+      </c>
+      <c r="E44" t="n">
+        <v>107.04</v>
       </c>
       <c r="F44" t="inlineStr">
         <is>
+          <t>Acima</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
           <t>premium</t>
         </is>
       </c>
-      <c r="G44" t="inlineStr">
-        <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3745695931-fonte-carregador-jfa-bob-storm-200a-bivolt-_JM#position%3D45%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D9f5fa8f1-dca2-4404-a6dd-9090879e0b5f</t>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-2711518782-controle-jfa-acqua-1200-metros-longa-distancia-lancamento-_JM#position%3D45%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D94220a8d-5f69-4512-a228-3b751e38a2c5</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Fonte Automotiva 120a Amperes Jfa Carregador Cor Preto</t>
+          <t>30/07/2024</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>FONTE 120A STORM</t>
-        </is>
-      </c>
-      <c r="C45" t="n">
-        <v>674.6799999999999</v>
+          <t>supertrio som</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>Fonte Carregador Automotivo Jfa 120a Storm Lite 12v Bivolt C</t>
+        </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Igual</t>
-        </is>
-      </c>
-      <c r="E45" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
+          <t>FONTE 120A LITE</t>
+        </is>
+      </c>
+      <c r="E45" t="n">
+        <v>573.36</v>
       </c>
       <c r="F45" t="inlineStr">
         <is>
+          <t>Igual</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
           <t>premium</t>
         </is>
       </c>
-      <c r="G45" t="inlineStr">
-        <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3745673431-fonte-automotiva-120a-amperes-jfa-carregador-cor-preto-_JM#position%3D46%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D9f5fa8f1-dca2-4404-a6dd-9090879e0b5f</t>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3745650519-fonte-carregador-automotivo-jfa-120a-storm-lite-12v-bivolt-c-_JM#position%3D46%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D94220a8d-5f69-4512-a228-3b751e38a2c5</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Fonte Automotiva Jfa Storm Lite 120a Bivolt Carregador</t>
+          <t>30/07/2024</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>FONTE 120A LITE</t>
-        </is>
-      </c>
-      <c r="C46" t="n">
-        <v>573.36</v>
+          <t>supertrio som</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>Controle De Long Distânc Jfa K1200 Resistente A Água -branco</t>
+        </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Igual</t>
-        </is>
-      </c>
-      <c r="E46" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
+          <t>K1200</t>
+        </is>
+      </c>
+      <c r="E46" t="n">
+        <v>107.04</v>
       </c>
       <c r="F46" t="inlineStr">
         <is>
+          <t>Acima</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
           <t>premium</t>
         </is>
       </c>
-      <c r="G46" t="inlineStr">
-        <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3734575855-fonte-automotiva-jfa-storm-lite-120a-bivolt-carregador-_JM#position%3D47%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D9f5fa8f1-dca2-4404-a6dd-9090879e0b5f</t>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-2711615958-controle-de-long-distnc-jfa-k1200-resistente-a-agua-branco-_JM#position%3D47%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D94220a8d-5f69-4512-a228-3b751e38a2c5</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Fonte Carregador Automotivo Jfa 120a Storm Lite 12v Bivolt C</t>
+          <t>30/07/2024</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>FONTE 120A LITE</t>
-        </is>
-      </c>
-      <c r="C47" t="n">
-        <v>573.36</v>
+          <t>supertrio som</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>Fonte Automotiva 70 Amperes Jfa Storm Red Line Cca Sci Smart</t>
+        </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Igual</t>
-        </is>
-      </c>
-      <c r="E47" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
+          <t>FONTE 70A STORM</t>
+        </is>
+      </c>
+      <c r="E47" t="n">
+        <v>523.63</v>
       </c>
       <c r="F47" t="inlineStr">
         <is>
+          <t>Igual</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
           <t>premium</t>
         </is>
       </c>
-      <c r="G47" t="inlineStr">
-        <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3745650519-fonte-carregador-automotivo-jfa-120a-storm-lite-12v-bivolt-c-_JM#position%3D48%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D9f5fa8f1-dca2-4404-a6dd-9090879e0b5f</t>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-2621323642-fonte-automotiva-70-amperes-jfa-storm-red-line-cca-sci-smart-_JM#position%3D48%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D94220a8d-5f69-4512-a228-3b751e38a2c5</t>
         </is>
       </c>
     </row>

--- a/dados/supertrio som.xlsx
+++ b/dados/supertrio som.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I47"/>
+  <dimension ref="A1:I96"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -483,7 +483,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -493,25 +493,25 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Fonte Carregador Automotiva Jfa 200a Slim Bivolt Voltímetro</t>
+          <t>Fonte Automotiva Jfa Storm 200a Bob Carregador Automático Bi</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>FONTE 200A STORM</t>
+          <t>FONTE 200 BOB</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>845.87</v>
+        <v>731.39</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Acima</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>FULL</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
@@ -521,14 +521,14 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-automotiva-jfa-200a-slim-bivolt-voltimetro/p/MLB21348561?pdp_filters=seller_id:45588212#searchVariation=MLB21348561&amp;position=2&amp;search_layout=stack&amp;type=product&amp;tracking_id=94220a8d-5f69-4512-a228-3b751e38a2c5</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3742956287-fonte-automotiva-jfa-storm-200a-bob-carregador-automatico-bi-_JM#position%3D32%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D55873e73-b50f-4fcc-8494-96a90d82f083</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -538,20 +538,20 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa 120a Bob Slim Bivolt Cor Preto</t>
+          <t>Fonte Carregador Jfa 200a Lite Storm Slim Bivolt Cor Azul</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>FONTE 120 BOB</t>
+          <t>FONTE 200A LITE</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>499.46</v>
+        <v>739.26</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Acima</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
@@ -566,14 +566,14 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-120a-bob-slim-bivolt-cor-preto/p/MLB22144397?pdp_filters=seller_id:45588212#searchVariation=MLB22144397&amp;position=3&amp;search_layout=stack&amp;type=product&amp;tracking_id=94220a8d-5f69-4512-a228-3b751e38a2c5</t>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-200a-lite-storm-slim-bivolt-cor-azul/p/MLB24154371?pdp_filters=seller_id:45588212#searchVariation=MLB24154371&amp;position=5&amp;search_layout=stack&amp;type=product&amp;tracking_id=55873e73-b50f-4fcc-8494-96a90d82f083</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -583,16 +583,16 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Controle Longa Distância Jfa Acqua 1200 Resistente A Água</t>
+          <t>Fonte Carregador Jfa 120a Bob Slim Bivolt</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>ACQUA</t>
+          <t>FONTE 120 BOB</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>96.23</v>
+        <v>568.15</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
@@ -606,19 +606,19 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>premium</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/controle-longa-distncia-jfa-acqua-1200-resistente-a-agua/p/MLB27685629?pdp_filters=seller_id:45588212#searchVariation=MLB27685629&amp;position=4&amp;search_layout=stack&amp;type=product&amp;tracking_id=94220a8d-5f69-4512-a228-3b751e38a2c5</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2773051227-fonte-carregador-jfa-120a-bob-slim-bivolt-_JM#position%3D19%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D55873e73-b50f-4fcc-8494-96a90d82f083</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -628,20 +628,20 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Fonte Automotiva 120a Amperes Jfa Carregador Cor Preto</t>
+          <t>Fonte Carregador Automotiva Jfa 200a Slim Bivolt Voltímetro</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>FONTE 120A STORM</t>
+          <t>FONTE 200A STORM</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>634.4</v>
+        <v>890.39</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Acima</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
@@ -651,19 +651,19 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>premium</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-automotiva-120a-amperes-jfa-carregador-cor-preto/p/MLB21392652?pdp_filters=seller_id:45588212#searchVariation=MLB21392652&amp;position=5&amp;search_layout=stack&amp;type=product&amp;tracking_id=94220a8d-5f69-4512-a228-3b751e38a2c5</t>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-automotiva-jfa-200a-slim-bivolt-voltimetro/p/MLB21348561?pdp_filters=seller_id:45588212#searchVariation=MLB21348561&amp;position=1&amp;search_layout=stack&amp;type=product&amp;tracking_id=55873e73-b50f-4fcc-8494-96a90d82f083</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -673,42 +673,42 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa 200a Lite Storm Slim Bivolt Cor Azul</t>
+          <t>Nova Fonte Carregador Jfa Bob Storm 90a Bivolt Automático</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>FONTE 200A LITE</t>
+          <t>FONTE 90 BOB</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>681.83</v>
+        <v>466.39</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Acima</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>FULL</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>premium</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-200a-lite-storm-slim-bivolt-cor-azul/p/MLB24154371?pdp_filters=seller_id:45588212#searchVariation=MLB24154371&amp;position=6&amp;search_layout=stack&amp;type=product&amp;tracking_id=94220a8d-5f69-4512-a228-3b751e38a2c5</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2969345061-nova-fonte-carregador-jfa-bob-storm-90a-bivolt-automatico-_JM#position%3D31%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D55873e73-b50f-4fcc-8494-96a90d82f083</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -718,42 +718,42 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Fonte Automotiva Jfa Storm 200a Bob Carregador Automático Bivolt Cor BOB 200A JFA</t>
+          <t>Fonte Carregador Jfa 200a Lite Storm Slim Bivolt</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>FONTE 200 BOB</t>
+          <t>FONTE 200A LITE</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>624.33</v>
+        <v>777.08</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Acima</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>FULL</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>premium</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-automotiva-jfa-storm-200a-bob-carregador-automatico-bivolt-cor-bob-200a-jfa/p/MLB24834408?pdp_filters=seller_id:45588212#searchVariation=MLB24834408&amp;position=7&amp;search_layout=stack&amp;type=product&amp;tracking_id=94220a8d-5f69-4512-a228-3b751e38a2c5</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3264930885-fonte-carregador-jfa-200a-lite-storm-slim-bivolt-_JM#position%3D25%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D55873e73-b50f-4fcc-8494-96a90d82f083</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -763,20 +763,20 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa 70a Bivolt Com Medidor Cca</t>
+          <t>Fonte Automotiva 120a Amperes Jfa Carregador Cor Preto</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>FONTE 70A STORM</t>
+          <t>FONTE 120A STORM</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>493.42</v>
+        <v>667.79</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Acima</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
@@ -791,14 +791,14 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-70a-bivolt-com-medidor-cca/p/MLB21455208?pdp_filters=seller_id:45588212#searchVariation=MLB21455208&amp;position=9&amp;search_layout=stack&amp;type=product&amp;tracking_id=94220a8d-5f69-4512-a228-3b751e38a2c5</t>
+          <t>https://www.mercadolivre.com.br/fonte-automotiva-120a-amperes-jfa-carregador-cor-preto/p/MLB21392652?pdp_filters=seller_id:45588212#searchVariation=MLB21392652&amp;position=11&amp;search_layout=stack&amp;type=product&amp;tracking_id=55873e73-b50f-4fcc-8494-96a90d82f083</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -808,16 +808,16 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa 60a Bivolt Storm Com Medidor Cca</t>
+          <t>Fonte Carregador Jfa 70a Bivolt Com Medidor Cca</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>FONTE 60A STORM</t>
+          <t>FONTE 70A STORM</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>473.28</v>
+        <v>493.42</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
@@ -831,19 +831,19 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>classico</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-60a-bivolt-storm-com-medidor-cca/p/MLB21320712?pdp_filters=seller_id:45588212#searchVariation=MLB21320712&amp;position=10&amp;search_layout=stack&amp;type=product&amp;tracking_id=94220a8d-5f69-4512-a228-3b751e38a2c5</t>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-70a-bivolt-com-medidor-cca/p/MLB21455208?pdp_filters=seller_id:45588212#searchVariation=MLB21455208&amp;position=9&amp;search_layout=stack&amp;type=product&amp;tracking_id=55873e73-b50f-4fcc-8494-96a90d82f083</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -853,7 +853,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa Bob Storm 90a Bivolt Automático Cor Preto</t>
+          <t>Fonte Carregador Jfa Bob Storm 90a Bivolt Automático Cor Pre</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -862,33 +862,33 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>422.93</v>
+        <v>466.39</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Acima</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>FULL</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>premium</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-bob-storm-90a-bivolt-automatico-cor-preto/p/MLB21562641?pdp_filters=seller_id:45588212#searchVariation=MLB21562641&amp;position=11&amp;search_layout=stack&amp;type=product&amp;tracking_id=94220a8d-5f69-4512-a228-3b751e38a2c5</t>
+          <t>https://produto.mercadolivre.com.br/MLB-4781829128-fonte-carregador-jfa-bob-storm-90a-bivolt-automatico-cor-pre-_JM#position%3D30%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D55873e73-b50f-4fcc-8494-96a90d82f083</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -898,20 +898,20 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Controle Longa Distancia Jfa K600 Branco Com Cinza</t>
+          <t>Nova Fonte Automotiva 70a Amperes Jfa Carregador Storm Novo</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>K600</t>
+          <t>FONTE 70A STORM</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>70.98999999999999</v>
+        <v>493.42</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Acima</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
@@ -926,14 +926,14 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/controle-longa-distancia-jfa-k600-branco-com-cinza/p/MLB32364344?pdp_filters=seller_id:45588212#searchVariation=MLB32364344&amp;position=12&amp;search_layout=stack&amp;type=product&amp;tracking_id=94220a8d-5f69-4512-a228-3b751e38a2c5</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2621320782-nova-fonte-automotiva-70a-amperes-jfa-carregador-storm-novo-_JM#position%3D23%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D55873e73-b50f-4fcc-8494-96a90d82f083</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -943,25 +943,25 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Fonte Carregador Automotivo Jfa 120a Storm Lite 12v Bivolt Cor Preto</t>
+          <t>Fonte Carregador Jfa 120a Bob Slim Bivolt Cor Preto</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>FONTE 120A LITE</t>
+          <t>FONTE 120 BOB</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>536.26</v>
+        <v>525.75</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Acima</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FULL</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
@@ -971,14 +971,14 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-automotivo-jfa-120a-storm-lite-12v-bivolt-cor-preto/p/MLB23998473?pdp_filters=seller_id:45588212#searchVariation=MLB23998473&amp;position=13&amp;search_layout=stack&amp;type=product&amp;tracking_id=94220a8d-5f69-4512-a228-3b751e38a2c5</t>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-120a-bob-slim-bivolt-cor-preto/p/MLB22144397?pdp_filters=seller_id:45588212#searchVariation=MLB22144397&amp;position=2&amp;search_layout=stack&amp;type=product&amp;tracking_id=55873e73-b50f-4fcc-8494-96a90d82f083</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -988,18 +988,22 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Conversor Fio Para Rca Remoto Slim 12v Jfa Automotivo Cd Dvd</t>
+          <t>Controle Longa Distancia Jfa K600 Branco Com Cinza</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Sem Modelo</t>
+          <t>K600</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>40.1</v>
-      </c>
-      <c r="F13" t="inlineStr"/>
+        <v>70.98999999999999</v>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
       <c r="G13" t="inlineStr">
         <is>
           <t>NA</t>
@@ -1012,14 +1016,14 @@
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/conversor-fio-para-rca-remoto-slim-12v-jfa-automotivo-cd-dvd/p/MLB25707531?pdp_filters=seller_id:45588212#searchVariation=MLB25707531&amp;position=14&amp;search_layout=stack&amp;type=product&amp;tracking_id=94220a8d-5f69-4512-a228-3b751e38a2c5</t>
+          <t>https://www.mercadolivre.com.br/controle-longa-distancia-jfa-k600-branco-com-cinza/p/MLB32364344?pdp_filters=seller_id:45588212#searchVariation=MLB32364344&amp;position=6&amp;search_layout=stack&amp;type=product&amp;tracking_id=55873e73-b50f-4fcc-8494-96a90d82f083</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -1029,20 +1033,20 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa 120a Bob Slim Bivolt</t>
+          <t>Fonte Carregador Jfa Bob Storm 90a Bivolt Automático Cor Pre</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>FONTE 120 BOB</t>
+          <t>FONTE 90 BOB</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>539.74</v>
+        <v>445.19</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Acima</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
@@ -1052,19 +1056,19 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>classico</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2773051227-fonte-carregador-jfa-120a-bob-slim-bivolt-_JM#position%3D20%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D94220a8d-5f69-4512-a228-3b751e38a2c5</t>
+          <t>https://produto.mercadolivre.com.br/MLB-4777417620-fonte-carregador-jfa-bob-storm-90a-bivolt-automatico-cor-pre-_JM#position%3D24%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D55873e73-b50f-4fcc-8494-96a90d82f083</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -1074,25 +1078,25 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Fonte Automotiva Jfa Storm Lite 70a Bivolt Carregador</t>
+          <t>Fonte Automotiva Jfa Storm 200a Bob Carregador Automático Bivolt Cor BOB 200A JFA</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>FONTE 70A LITE</t>
+          <t>FONTE 200 BOB</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>408.73</v>
+        <v>657.1900000000001</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Acima</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FULL</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
@@ -1102,14 +1106,14 @@
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3307314045-fonte-automotiva-jfa-storm-lite-70a-bivolt-carregador-_JM#position%3D21%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D94220a8d-5f69-4512-a228-3b751e38a2c5</t>
+          <t>https://www.mercadolivre.com.br/fonte-automotiva-jfa-storm-200a-bob-carregador-automatico-bivolt-cor-bob-200a-jfa/p/MLB24834408?pdp_filters=seller_id:45588212#searchVariation=MLB24834408&amp;position=3&amp;search_layout=stack&amp;type=product&amp;tracking_id=55873e73-b50f-4fcc-8494-96a90d82f083</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -1119,22 +1123,18 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Controle Remoto Universal Longa Distância Jfa K1200 Azul</t>
+          <t>Conversor Rca Comando Remoto Slim Jfa</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>K1200</t>
+          <t>Sem Modelo</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>74.98999999999999</v>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>Acima</t>
-        </is>
-      </c>
+        <v>39.5</v>
+      </c>
+      <c r="F16" t="inlineStr"/>
       <c r="G16" t="inlineStr">
         <is>
           <t>NA</t>
@@ -1147,14 +1147,14 @@
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/controle-remoto-universal-longa-distncia-jfa-k1200-azul/p/MLB28722231?pdp_filters=seller_id:45588212#searchVariation=MLB28722231&amp;position=15&amp;search_layout=stack&amp;type=product&amp;tracking_id=94220a8d-5f69-4512-a228-3b751e38a2c5</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1287843802-conversor-rca-comando-remoto-slim-jfa-_JM#position%3D29%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D55873e73-b50f-4fcc-8494-96a90d82f083</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -1164,20 +1164,20 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa Bob Storm 90a Bivolt Automático Cor Pre</t>
+          <t>Fonte Automotiva Jfa Storm Lite 70a Bivolt Carregador</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>FONTE 90 BOB</t>
+          <t>FONTE 70A LITE</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>422.93</v>
+        <v>443.15</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Acima</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
@@ -1192,14 +1192,14 @@
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-4777417620-fonte-carregador-jfa-bob-storm-90a-bivolt-automatico-cor-pre-_JM#position%3D22%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D94220a8d-5f69-4512-a228-3b751e38a2c5</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3307314045-fonte-automotiva-jfa-storm-lite-70a-bivolt-carregador-_JM#position%3D21%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D55873e73-b50f-4fcc-8494-96a90d82f083</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -1209,20 +1209,20 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Nova Fonte Automotiva 70a Amperes Jfa Carregador Storm Novo</t>
+          <t>Fonte Carregador Jfa 120a Bob Slim Bivolt Cor Preto</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>FONTE 70A STORM</t>
+          <t>FONTE 120 BOB</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>493.42</v>
+        <v>568.15</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Acima</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
@@ -1232,19 +1232,19 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>premium</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2621320782-nova-fonte-automotiva-70a-amperes-jfa-carregador-storm-novo-_JM#position%3D23%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D94220a8d-5f69-4512-a228-3b751e38a2c5</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3738283061-fonte-carregador-jfa-120a-bob-slim-bivolt-cor-preto-_JM#position%3D35%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D55873e73-b50f-4fcc-8494-96a90d82f083</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -1254,16 +1254,16 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Controle Remoto Universal Longa Jfa K1200 Preto C/ Verde</t>
+          <t>Fonte Carregador Jfa Bob Storm 200a Bivolt</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>K1200</t>
+          <t>FONTE 200 BOB</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>64.59999999999999</v>
+        <v>657.1900000000001</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
@@ -1282,14 +1282,14 @@
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/controle-remoto-universal-longa-jfa-k1200-preto-c-verde/p/MLB30476096?pdp_filters=seller_id:45588212#searchVariation=MLB30476096&amp;position=16&amp;search_layout=stack&amp;type=product&amp;tracking_id=94220a8d-5f69-4512-a228-3b751e38a2c5</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3738244537-fonte-carregador-jfa-bob-storm-200a-bivolt-_JM?searchVariation=183142398239#searchVariation%3D183142398239%26position%3D22%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D55873e73-b50f-4fcc-8494-96a90d82f083</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -1299,20 +1299,20 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa Bob Storm 90a Bivolt Automático Cor Pre</t>
+          <t>Fonte Carregador Automotivo Jfa 120a Storm Lite 12v Bivolt Cor Preto</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>FONTE 90 BOB</t>
+          <t>FONTE 120A LITE</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>443.07</v>
+        <v>581.4299999999999</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Acima</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
@@ -1322,19 +1322,19 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>classico</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-4781829128-fonte-carregador-jfa-bob-storm-90a-bivolt-automatico-cor-pre-_JM#position%3D24%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D94220a8d-5f69-4512-a228-3b751e38a2c5</t>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-automotivo-jfa-120a-storm-lite-12v-bivolt-cor-preto/p/MLB23998473?pdp_filters=seller_id:45588212#searchVariation=MLB23998473&amp;position=12&amp;search_layout=stack&amp;type=product&amp;tracking_id=55873e73-b50f-4fcc-8494-96a90d82f083</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -1344,20 +1344,20 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa 120a Lite Storm Slim Bivolt</t>
+          <t>Controle Jfa Acqua 1200 Metros Longa Distancia Lançamento</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>FONTE 120A LITE</t>
+          <t>ACQUA</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>573.36</v>
+        <v>107.04</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Acima</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
@@ -1372,14 +1372,14 @@
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3307572800-fonte-carregador-jfa-120a-lite-storm-slim-bivolt-_JM#position%3D25%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D94220a8d-5f69-4512-a228-3b751e38a2c5</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2711518782-controle-jfa-acqua-1200-metros-longa-distancia-lancamento-_JM#position%3D34%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D55873e73-b50f-4fcc-8494-96a90d82f083</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -1417,14 +1417,14 @@
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2678722526-fonte-automotiva-carregador-jfa-60a-bivolt-automatico-sci-_JM#position%3D26%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D94220a8d-5f69-4512-a228-3b751e38a2c5</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2678722526-fonte-automotiva-carregador-jfa-60a-bivolt-automatico-sci-_JM#position%3D20%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D55873e73-b50f-4fcc-8494-96a90d82f083</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -1434,22 +1434,18 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Fonte Automotiva 70 Amperes Jfa Storm Carregador Com Cor Preto</t>
+          <t>Conversor Fio Para Rca Remoto Slim 12v Jfa Automotivo Cd Dvd</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>FONTE 70A STORM</t>
+          <t>Sem Modelo</t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>523.63</v>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>Igual</t>
-        </is>
-      </c>
+        <v>40.1</v>
+      </c>
+      <c r="F23" t="inlineStr"/>
       <c r="G23" t="inlineStr">
         <is>
           <t>NA</t>
@@ -1457,19 +1453,19 @@
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>classico</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-automotiva-70-amperes-jfa-storm-carregador-com-cor-preto/p/MLB25571709?pdp_filters=seller_id:45588212#searchVariation=MLB25571709&amp;position=17&amp;search_layout=stack&amp;type=product&amp;tracking_id=94220a8d-5f69-4512-a228-3b751e38a2c5</t>
+          <t>https://www.mercadolivre.com.br/conversor-fio-para-rca-remoto-slim-12v-jfa-automotivo-cd-dvd/p/MLB25707531?pdp_filters=seller_id:45588212#searchVariation=MLB25707531&amp;position=7&amp;search_layout=stack&amp;type=product&amp;tracking_id=55873e73-b50f-4fcc-8494-96a90d82f083</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -1479,20 +1475,20 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa Bob 200</t>
+          <t>Fonte Automotiva Jfa Storm Lite 70a Bivolt Carregador</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>FONTE 200 BOB</t>
+          <t>FONTE 70A LITE</t>
         </is>
       </c>
       <c r="E24" t="n">
-        <v>624.33</v>
+        <v>471.01</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Acima</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
@@ -1502,19 +1498,19 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>premium</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3344009945-fonte-carregador-jfa-bob-200-_JM?searchVariation=178601508955#searchVariation%3D178601508955%26position%3D27%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D94220a8d-5f69-4512-a228-3b751e38a2c5</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3582399882-fonte-automotiva-jfa-storm-lite-70a-bivolt-carregador-_JM#position%3D33%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D55873e73-b50f-4fcc-8494-96a90d82f083</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -1524,20 +1520,20 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa Bob Storm 200a Bivolt</t>
+          <t>Fonte Carregador Automotivo Jfa 120a Storm Lite 12v Bivolt C</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>FONTE 200 BOB</t>
+          <t>FONTE 120A LITE</t>
         </is>
       </c>
       <c r="E25" t="n">
-        <v>624.33</v>
+        <v>621.65</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Acima</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
@@ -1547,19 +1543,19 @@
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>premium</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3738244537-fonte-carregador-jfa-bob-storm-200a-bivolt-_JM?searchVariation=183142398239#searchVariation%3D183142398239%26position%3D28%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D94220a8d-5f69-4512-a228-3b751e38a2c5</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3745650519-fonte-carregador-automotivo-jfa-120a-storm-lite-12v-bivolt-c-_JM#position%3D28%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D55873e73-b50f-4fcc-8494-96a90d82f083</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -1569,16 +1565,16 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Fonte Automotiva Jfa 200a 3000w Bivolt Automático Voltímetro</t>
+          <t>Fonte Carregador Jfa 60a Bivolt Storm Com Medidor Cca</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>FONTE 200A STORM</t>
+          <t>FONTE 60A STORM</t>
         </is>
       </c>
       <c r="E26" t="n">
-        <v>805.59</v>
+        <v>473.28</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
@@ -1587,24 +1583,24 @@
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FULL</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>premium</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1290018792-fonte-automotiva-jfa-200a-3000w-bivolt-automatico-voltimetro-_JM#position%3D29%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D94220a8d-5f69-4512-a228-3b751e38a2c5</t>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-60a-bivolt-storm-com-medidor-cca/p/MLB21320712?pdp_filters=seller_id:45588212#searchVariation=MLB21320712&amp;position=10&amp;search_layout=stack&amp;type=product&amp;tracking_id=55873e73-b50f-4fcc-8494-96a90d82f083</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -1614,16 +1610,16 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Controle Longa Distancia Jfa Redline Wr P Aparelho Original</t>
+          <t>Fonte Carregador Jfa Bob Storm 90a Bivolt Automático Cor Preto</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>CONTROLE WR</t>
+          <t>FONTE 90 BOB</t>
         </is>
       </c>
       <c r="E27" t="n">
-        <v>105.96</v>
+        <v>445.19</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
@@ -1632,24 +1628,24 @@
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FULL</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>classico</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1849695725-controle-longa-distancia-jfa-redline-wr-p-aparelho-original-_JM#position%3D30%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D94220a8d-5f69-4512-a228-3b751e38a2c5</t>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-bob-storm-90a-bivolt-automatico-cor-preto/p/MLB21562641?pdp_filters=seller_id:45588212#searchVariation=MLB21562641&amp;position=8&amp;search_layout=stack&amp;type=product&amp;tracking_id=55873e73-b50f-4fcc-8494-96a90d82f083</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -1659,16 +1655,16 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Controle Longa Distância Jfa K1200 Preto/laranja 1200mt</t>
+          <t>Fonte Carregador Jfa Bob Storm 200a Bivolt</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>K1200</t>
+          <t>FONTE 200 BOB</t>
         </is>
       </c>
       <c r="E28" t="n">
-        <v>74.98999999999999</v>
+        <v>731.39</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
@@ -1682,19 +1678,19 @@
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>premium</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/controle-longa-distncia-jfa-k1200-pretolaranja-1200mt/p/MLB28357019?pdp_filters=seller_id:45588212#searchVariation=MLB28357019&amp;position=19&amp;search_layout=stack&amp;type=product&amp;tracking_id=94220a8d-5f69-4512-a228-3b751e38a2c5</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3745695931-fonte-carregador-jfa-bob-storm-200a-bivolt-_JM#position%3D39%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D55873e73-b50f-4fcc-8494-96a90d82f083</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -1704,7 +1700,7 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa 200a Lite Storm Slim Bivolt</t>
+          <t>Fonte Automotiva Jfa Storm Lite 200a Bivolt Carregador</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -1713,11 +1709,11 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>716.71</v>
+        <v>777.08</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Acima</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
@@ -1732,14 +1728,14 @@
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3264930885-fonte-carregador-jfa-200a-lite-storm-slim-bivolt-_JM#position%3D31%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D94220a8d-5f69-4512-a228-3b751e38a2c5</t>
+          <t>https://produto.mercadolivre.com.br/MLB-4728106950-fonte-automotiva-jfa-storm-lite-200a-bivolt-carregador-_JM#position%3D38%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D55873e73-b50f-4fcc-8494-96a90d82f083</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -1749,20 +1745,20 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Fonte Automotiva Jfa Storm 200a Bob Carregador Automático Bi</t>
+          <t>Fonte Carregador Jfa 120a Lite Storm Slim Bivolt</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>FONTE 200 BOB</t>
+          <t>FONTE 120A LITE</t>
         </is>
       </c>
       <c r="E30" t="n">
-        <v>694.8200000000001</v>
+        <v>621.65</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Acima</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
@@ -1777,14 +1773,14 @@
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3742956287-fonte-automotiva-jfa-storm-200a-bob-carregador-automatico-bi-_JM#position%3D32%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D94220a8d-5f69-4512-a228-3b751e38a2c5</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3307572800-fonte-carregador-jfa-120a-lite-storm-slim-bivolt-_JM#position%3D27%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D55873e73-b50f-4fcc-8494-96a90d82f083</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -1794,42 +1790,42 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Fonte Jfa 70a Sci - Fonte Carregador Bateria Inteligente 12v</t>
+          <t>Controle Remoto Universal Longa Distância Jfa K1200 Azul</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>FONTE 70A STORM</t>
+          <t>K1200</t>
         </is>
       </c>
       <c r="E31" t="n">
-        <v>523.63</v>
+        <v>74.98999999999999</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Acima</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>FULL</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>classico</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-967159661-fonte-jfa-70a-sci-fonte-carregador-bateria-inteligente-12v-_JM#position%3D33%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D94220a8d-5f69-4512-a228-3b751e38a2c5</t>
+          <t>https://www.mercadolivre.com.br/controle-remoto-universal-longa-distncia-jfa-k1200-azul/p/MLB28722231?pdp_filters=seller_id:45588212#searchVariation=MLB28722231&amp;position=16&amp;search_layout=stack&amp;type=product&amp;tracking_id=55873e73-b50f-4fcc-8494-96a90d82f083</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -1839,18 +1835,22 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Fonte Carregador Automotivo Jfa 40a Lite Storm Slim Bivolt Cor Preto</t>
+          <t>Fonte Automotiva 60a Jfa Amperes Bivolt Automatico</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Sem Modelo</t>
+          <t>FONTE 60A STORM</t>
         </is>
       </c>
       <c r="E32" t="n">
-        <v>320</v>
-      </c>
-      <c r="F32" t="inlineStr"/>
+        <v>443.07</v>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>Igual</t>
+        </is>
+      </c>
       <c r="G32" t="inlineStr">
         <is>
           <t>NA</t>
@@ -1863,14 +1863,14 @@
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-automotivo-jfa-40a-lite-storm-slim-bivolt-cor-preto/p/MLB33435981?pdp_filters=seller_id:45588212#searchVariation=MLB33435981&amp;position=1&amp;search_layout=stack&amp;type=product&amp;tracking_id=94220a8d-5f69-4512-a228-3b751e38a2c5</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1921800308-fonte-automotiva-60a-jfa-amperes-bivolt-automatico-_JM#position%3D37%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D55873e73-b50f-4fcc-8494-96a90d82f083</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -1880,20 +1880,20 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Nova Fonte Carregador Jfa Bob Storm 90a Bivolt Automático</t>
+          <t>Controle Remoto Universal Longa Jfa K1200 Preto C/ Verde</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>FONTE 90 BOB</t>
+          <t>K1200</t>
         </is>
       </c>
       <c r="E33" t="n">
-        <v>443.07</v>
+        <v>64.59999999999999</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Acima</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
@@ -1903,19 +1903,19 @@
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>classico</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2969345061-nova-fonte-carregador-jfa-bob-storm-90a-bivolt-automatico-_JM#position%3D34%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D94220a8d-5f69-4512-a228-3b751e38a2c5</t>
+          <t>https://www.mercadolivre.com.br/controle-remoto-universal-longa-jfa-k1200-preto-c-verde/p/MLB30476096?pdp_filters=seller_id:45588212#searchVariation=MLB30476096&amp;position=18&amp;search_layout=stack&amp;type=product&amp;tracking_id=55873e73-b50f-4fcc-8494-96a90d82f083</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -1925,20 +1925,20 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Fonte Automotiva Jfa Storm Lite 70a Bivolt Carregador</t>
+          <t>Fonte Carregador Jfa Bob 200</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>FONTE 70A LITE</t>
+          <t>FONTE 200 BOB</t>
         </is>
       </c>
       <c r="E34" t="n">
-        <v>434.42</v>
+        <v>657.1900000000001</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Acima</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
@@ -1948,19 +1948,19 @@
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>classico</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3582399882-fonte-automotiva-jfa-storm-lite-70a-bivolt-carregador-_JM#position%3D35%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D94220a8d-5f69-4512-a228-3b751e38a2c5</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3344009945-fonte-carregador-jfa-bob-200-_JM?searchVariation=178601508955#searchVariation%3D178601508955%26position%3D26%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D55873e73-b50f-4fcc-8494-96a90d82f083</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -1970,20 +1970,20 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa 120a Bob Slim Bivolt Cor Preto</t>
+          <t>Fonte Carregador Jfa Storm 70a Lite Bivolt - 12v</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>FONTE 120 BOB</t>
+          <t>FONTE 70A LITE</t>
         </is>
       </c>
       <c r="E35" t="n">
-        <v>539.74</v>
+        <v>443.15</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Acima</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
@@ -1993,19 +1993,19 @@
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>classico</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3738283061-fonte-carregador-jfa-120a-bob-slim-bivolt-cor-preto-_JM#position%3D36%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D94220a8d-5f69-4512-a228-3b751e38a2c5</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3745673581-fonte-carregador-jfa-storm-70a-lite-bivolt-12v-_JM#position%3D36%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D55873e73-b50f-4fcc-8494-96a90d82f083</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -2015,16 +2015,16 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Fonte Automotiva 60a Jfa Amperes Bivolt Automatico</t>
+          <t>Fonte Automotiva 70 Amperes Jfa Storm Carregador Com Cor Preto</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>FONTE 60A STORM</t>
+          <t>FONTE 70A STORM</t>
         </is>
       </c>
       <c r="E36" t="n">
-        <v>443.07</v>
+        <v>523.63</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
@@ -2038,19 +2038,19 @@
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>premium</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1921800308-fonte-automotiva-60a-jfa-amperes-bivolt-automatico-_JM#position%3D37%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D94220a8d-5f69-4512-a228-3b751e38a2c5</t>
+          <t>https://www.mercadolivre.com.br/fonte-automotiva-70-amperes-jfa-storm-carregador-com-cor-preto/p/MLB25571709?pdp_filters=seller_id:45588212#searchVariation=MLB25571709&amp;position=15&amp;search_layout=stack&amp;type=product&amp;tracking_id=55873e73-b50f-4fcc-8494-96a90d82f083</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -2060,20 +2060,20 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Fonte Automotiva Jfa 200a Slim Bivolt Digital Voltímetro Som</t>
+          <t>Fonte Automotiva Jfa Storm Lite 120a Bivolt Carregador</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>FONTE 200A STORM</t>
+          <t>FONTE 120A LITE</t>
         </is>
       </c>
       <c r="E37" t="n">
-        <v>845.87</v>
+        <v>621.65</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Acima</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
@@ -2088,14 +2088,14 @@
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2634603687-fonte-automotiva-jfa-200a-slim-bivolt-digital-voltimetro-som-_JM#position%3D38%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D94220a8d-5f69-4512-a228-3b751e38a2c5</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3734575855-fonte-automotiva-jfa-storm-lite-120a-bivolt-carregador-_JM#position%3D41%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D55873e73-b50f-4fcc-8494-96a90d82f083</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -2105,22 +2105,18 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Fonte Automotiva Jfa Storm Lite 200a Bivolt Carregador</t>
+          <t>Fonte Carregador Automotivo Jfa 40a Lite Storm Slim Bivolt Cor Preto</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>FONTE 200A LITE</t>
+          <t>Sem Modelo</t>
         </is>
       </c>
       <c r="E38" t="n">
-        <v>716.71</v>
-      </c>
-      <c r="F38" t="inlineStr">
-        <is>
-          <t>Igual</t>
-        </is>
-      </c>
+        <v>320</v>
+      </c>
+      <c r="F38" t="inlineStr"/>
       <c r="G38" t="inlineStr">
         <is>
           <t>NA</t>
@@ -2128,19 +2124,19 @@
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>classico</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-4728106950-fonte-automotiva-jfa-storm-lite-200a-bivolt-carregador-_JM#position%3D39%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D94220a8d-5f69-4512-a228-3b751e38a2c5</t>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-automotivo-jfa-40a-lite-storm-slim-bivolt-cor-preto/p/MLB33435981?pdp_filters=seller_id:45588212#searchVariation=MLB33435981&amp;position=17&amp;search_layout=stack&amp;type=product&amp;tracking_id=55873e73-b50f-4fcc-8494-96a90d82f083</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -2150,20 +2146,20 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Fonte Automotiva Jfa 200a 3000w Bivolt Automático Voltímetro</t>
+          <t>Controle De Long Distânc Jfa K1200 Resistente A Água -branco</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>FONTE 200A STORM</t>
+          <t>K1200</t>
         </is>
       </c>
       <c r="E39" t="n">
-        <v>845.87</v>
+        <v>107.04</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Acima</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
@@ -2178,14 +2174,14 @@
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3745721273-fonte-automotiva-jfa-200a-3000w-bivolt-automatico-voltimetro-_JM#position%3D40%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D94220a8d-5f69-4512-a228-3b751e38a2c5</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2711615958-controle-de-long-distnc-jfa-k1200-resistente-a-agua-branco-_JM#position%3D40%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D55873e73-b50f-4fcc-8494-96a90d82f083</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -2195,16 +2191,16 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa Storm 70a Lite Bivolt - 12v</t>
+          <t>Fonte Carregador 60a Jfa Automotiva Similar Stetsom 60a</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>FONTE 70A LITE</t>
+          <t>FONTE 60A STORM</t>
         </is>
       </c>
       <c r="E40" t="n">
-        <v>408.73</v>
+        <v>473.28</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
@@ -2218,19 +2214,19 @@
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>premium</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3745673581-fonte-carregador-jfa-storm-70a-lite-bivolt-12v-_JM#position%3D41%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D94220a8d-5f69-4512-a228-3b751e38a2c5</t>
+          <t>https://produto.mercadolivre.com.br/MLB-4788856830-fonte-carregador-60a-jfa-automotiva-similar-stetsom-60a-_JM#position%3D45%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D55873e73-b50f-4fcc-8494-96a90d82f083</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -2240,20 +2236,20 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Fonte Carregador Automotiva Storm Sci Redline Jfa 200a Slim</t>
+          <t>Controle Longa Distância Jfa K1200 Preto/laranja 1200mt</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>FONTE 200A STORM</t>
+          <t>K1200</t>
         </is>
       </c>
       <c r="E41" t="n">
-        <v>805.59</v>
+        <v>74.98999999999999</v>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Acima</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
@@ -2268,14 +2264,14 @@
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2649802690-fonte-carregador-automotiva-storm-sci-redline-jfa-200a-slim-_JM#position%3D42%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D94220a8d-5f69-4512-a228-3b751e38a2c5</t>
+          <t>https://www.mercadolivre.com.br/controle-longa-distncia-jfa-k1200-pretolaranja-1200mt/p/MLB28357019?pdp_filters=seller_id:45588212#searchVariation=MLB28357019&amp;position=13&amp;search_layout=stack&amp;type=product&amp;tracking_id=55873e73-b50f-4fcc-8494-96a90d82f083</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -2285,16 +2281,16 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa Bob Storm 200a Bivolt</t>
+          <t>Nova Fonte Automotiva 60a Amperes Jfa Carregador Storm Novo</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>FONTE 200 BOB</t>
+          <t>FONTE 60A STORM</t>
         </is>
       </c>
       <c r="E42" t="n">
-        <v>694.8200000000001</v>
+        <v>473.28</v>
       </c>
       <c r="F42" t="inlineStr">
         <is>
@@ -2313,14 +2309,14 @@
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3745695931-fonte-carregador-jfa-bob-storm-200a-bivolt-_JM#position%3D43%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D94220a8d-5f69-4512-a228-3b751e38a2c5</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3745744615-nova-fonte-automotiva-60a-amperes-jfa-carregador-storm-novo-_JM#position%3D44%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D55873e73-b50f-4fcc-8494-96a90d82f083</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -2330,22 +2326,18 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Fonte Automotiva Jfa Storm Lite 120a Bivolt Carregador</t>
+          <t>Inversor JFA 49046 Senoidal Off-grid Motorhome Caminhão 1000w 12v/220v</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>FONTE 120A LITE</t>
+          <t>Sem Modelo</t>
         </is>
       </c>
       <c r="E43" t="n">
-        <v>573.36</v>
-      </c>
-      <c r="F43" t="inlineStr">
-        <is>
-          <t>Igual</t>
-        </is>
-      </c>
+        <v>1490</v>
+      </c>
+      <c r="F43" t="inlineStr"/>
       <c r="G43" t="inlineStr">
         <is>
           <t>NA</t>
@@ -2353,19 +2345,19 @@
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>classico</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3734575855-fonte-automotiva-jfa-storm-lite-120a-bivolt-carregador-_JM#position%3D44%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D94220a8d-5f69-4512-a228-3b751e38a2c5</t>
+          <t>https://www.mercadolivre.com.br/inversor-jfa-49046-senoidal-off-grid-motorhome-caminho-1000w-12v220v/p/MLB35970528?pdp_filters=seller_id:45588212#searchVariation=MLB35970528&amp;position=1&amp;search_layout=stack&amp;type=product&amp;tracking_id=8494a250-c223-400c-83f9-769e15f2569f</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -2375,20 +2367,20 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Controle Jfa Acqua 1200 Metros Longa Distancia Lançamento</t>
+          <t>Fonte Automotiva 70 Amperes Jfa Storm Red Line Cca Sci Smart</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>ACQUA</t>
+          <t>FONTE 70A STORM</t>
         </is>
       </c>
       <c r="E44" t="n">
-        <v>107.04</v>
+        <v>523.63</v>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Acima</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
@@ -2403,14 +2395,14 @@
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2711518782-controle-jfa-acqua-1200-metros-longa-distancia-lancamento-_JM#position%3D45%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D94220a8d-5f69-4512-a228-3b751e38a2c5</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2621323642-fonte-automotiva-70-amperes-jfa-storm-red-line-cca-sci-smart-_JM#position%3D43%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D55873e73-b50f-4fcc-8494-96a90d82f083</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -2420,16 +2412,16 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Fonte Carregador Automotivo Jfa 120a Storm Lite 12v Bivolt C</t>
+          <t>Fonte Jfa 70a Sci - Fonte Carregador Bateria Inteligente 12v</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>FONTE 120A LITE</t>
+          <t>FONTE 70A STORM</t>
         </is>
       </c>
       <c r="E45" t="n">
-        <v>573.36</v>
+        <v>523.63</v>
       </c>
       <c r="F45" t="inlineStr">
         <is>
@@ -2438,7 +2430,7 @@
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FULL</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
@@ -2448,14 +2440,14 @@
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3745650519-fonte-carregador-automotivo-jfa-120a-storm-lite-12v-bivolt-c-_JM#position%3D46%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D94220a8d-5f69-4512-a228-3b751e38a2c5</t>
+          <t>https://produto.mercadolivre.com.br/MLB-967159661-fonte-jfa-70a-sci-fonte-carregador-bateria-inteligente-12v-_JM#position%3D42%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D55873e73-b50f-4fcc-8494-96a90d82f083</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -2465,22 +2457,18 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Controle De Long Distânc Jfa K1200 Resistente A Água -branco</t>
+          <t>Sequenciador Voltimetro Digital Jfa Vs 5hi Led Vermelho 12v</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>K1200</t>
+          <t>Sem Modelo</t>
         </is>
       </c>
       <c r="E46" t="n">
-        <v>107.04</v>
-      </c>
-      <c r="F46" t="inlineStr">
-        <is>
-          <t>Acima</t>
-        </is>
-      </c>
+        <v>62</v>
+      </c>
+      <c r="F46" t="inlineStr"/>
       <c r="G46" t="inlineStr">
         <is>
           <t>NA</t>
@@ -2493,14 +2481,14 @@
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2711615958-controle-de-long-distnc-jfa-k1200-resistente-a-agua-branco-_JM#position%3D47%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D94220a8d-5f69-4512-a228-3b751e38a2c5</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1385926083-sequenciador-voltimetro-digital-jfa-vs-5hi-led-vermelho-12v-_JM#position%3D48%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D55873e73-b50f-4fcc-8494-96a90d82f083</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -2510,35 +2498,2212 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Fonte Automotiva 70 Amperes Jfa Storm Red Line Cca Sci Smart</t>
+          <t>Fonte Carregador Jfa 60a Bivolt Storm Com Medidor Cca</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
+          <t>FONTE 60A STORM</t>
+        </is>
+      </c>
+      <c r="E47" t="n">
+        <v>443.07</v>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>Igual</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-4804563360-fonte-carregador-jfa-60a-bivolt-storm-com-medidor-cca-_JM#position%3D47%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D55873e73-b50f-4fcc-8494-96a90d82f083</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>01/08/2024</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>supertrio som</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>Fonte Carregador Jfa 120a Bob Slim Bivolt</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>FONTE 120 BOB</t>
+        </is>
+      </c>
+      <c r="E48" t="n">
+        <v>525.75</v>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3738219807-fonte-carregador-jfa-120a-bob-slim-bivolt-_JM#position%3D46%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D55873e73-b50f-4fcc-8494-96a90d82f083</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>01/08/2024</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>supertrio som</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>Fonte Jfa Storm 200a Bob Carregador Automático Bivolt Cor Bo</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>FONTE 200 BOB</t>
+        </is>
+      </c>
+      <c r="E49" t="n">
+        <v>657.1900000000001</v>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3745714009-fonte-jfa-storm-200a-bob-carregador-automatico-bivolt-cor-bo-_JM#position%3D2%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D8494a250-c223-400c-83f9-769e15f2569f</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>01/08/2024</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>supertrio som</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>Fonte Automotiva Digital Jfa Turbo 70a Bivolt Automática</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
           <t>FONTE 70A STORM</t>
         </is>
       </c>
-      <c r="E47" t="n">
-        <v>523.63</v>
-      </c>
-      <c r="F47" t="inlineStr">
+      <c r="E50" t="n">
+        <v>493.42</v>
+      </c>
+      <c r="F50" t="inlineStr">
         <is>
           <t>Igual</t>
         </is>
       </c>
-      <c r="G47" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="H47" t="inlineStr">
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3742994147-fonte-automotiva-digital-jfa-turbo-70a-bivolt-automatica-_JM#position%3D7%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D8494a250-c223-400c-83f9-769e15f2569f</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>01/08/2024</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>supertrio som</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>Fonte Automotiva Jfa Storm Lite 200a Bivolt Carregador</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>FONTE 200A LITE</t>
+        </is>
+      </c>
+      <c r="E51" t="n">
+        <v>739.26</v>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3745644981-fonte-automotiva-jfa-storm-lite-200a-bivolt-carregador-_JM#position%3D6%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D8494a250-c223-400c-83f9-769e15f2569f</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>01/08/2024</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>supertrio som</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>Fonte Carregador Jfa 90a Bob Storm Slim Bivolt</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>FONTE 90 BOB</t>
+        </is>
+      </c>
+      <c r="E52" t="n">
+        <v>445.19</v>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3744090267-fonte-carregador-jfa-90a-bob-storm-slim-bivolt-_JM#position%3D5%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D8494a250-c223-400c-83f9-769e15f2569f</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>01/08/2024</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>supertrio som</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>Fonte Carregador Automotivo Jfa 40a Storm Lite 12v Bivolt</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="E53" t="n">
+        <v>402.79</v>
+      </c>
+      <c r="F53" t="inlineStr"/>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3470527117-fonte-carregador-automotivo-jfa-40a-storm-lite-12v-bivolt-_JM#position%3D4%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D8494a250-c223-400c-83f9-769e15f2569f</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>01/08/2024</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>supertrio som</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>Controle De Long Distânc Jfa K1200 Resistente A Água -branco</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>K1200</t>
+        </is>
+      </c>
+      <c r="E54" t="n">
+        <v>96.23</v>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="I54" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-2711633426-controle-de-long-distnc-jfa-k1200-resistente-a-agua-branco-_JM#position%3D3%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D8494a250-c223-400c-83f9-769e15f2569f</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>01/08/2024</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>supertrio som</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>Controle Remoto Universal Longa Distância Jfa K1200 Azul</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>K1200</t>
+        </is>
+      </c>
+      <c r="E55" t="n">
+        <v>78.98999999999999</v>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H55" t="inlineStr">
         <is>
           <t>premium</t>
         </is>
       </c>
-      <c r="I47" t="inlineStr">
-        <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2621323642-fonte-automotiva-70-amperes-jfa-storm-red-line-cca-sci-smart-_JM#position%3D48%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D94220a8d-5f69-4512-a228-3b751e38a2c5</t>
+      <c r="I55" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-1261626025-controle-remoto-universal-longa-distncia-jfa-k1200-azul-_JM#position%3D10%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D8494a250-c223-400c-83f9-769e15f2569f</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>01/08/2024</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>supertrio som</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>Fonte Automotiva Jfa Storm Lite 120a Bivolt Carregador</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>FONTE 120A LITE</t>
+        </is>
+      </c>
+      <c r="E56" t="n">
+        <v>581.4299999999999</v>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="I56" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-4801307124-fonte-automotiva-jfa-storm-lite-120a-bivolt-carregador-_JM#position%3D9%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D8494a250-c223-400c-83f9-769e15f2569f</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>01/08/2024</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>supertrio som</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>Fonte Automotiva Jfa Storm 200a Bob Carregador Automático Bi</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>FONTE 200 BOB</t>
+        </is>
+      </c>
+      <c r="E57" t="n">
+        <v>657.1900000000001</v>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-4801268344-fonte-automotiva-jfa-storm-200a-bob-carregador-automatico-bi-_JM#position%3D8%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D8494a250-c223-400c-83f9-769e15f2569f</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>01/08/2024</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>supertrio som</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>Controle Longa Distancia Completo Jfa Branco / Cinza K600</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>K600</t>
+        </is>
+      </c>
+      <c r="E58" t="n">
+        <v>75.98999999999999</v>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="I58" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-1550162941-controle-longa-distancia-completo-jfa-branco-cinza-k600-_JM#position%3D14%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D8494a250-c223-400c-83f9-769e15f2569f</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>01/08/2024</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>supertrio som</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>Jfa K1200 Controle Longa Distancia 1200 Metros Cores</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>K1200</t>
+        </is>
+      </c>
+      <c r="E59" t="n">
+        <v>74.98999999999999</v>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="I59" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-1261589329-jfa-k1200-controle-longa-distancia-1200-metros-cores-_JM#position%3D13%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D8494a250-c223-400c-83f9-769e15f2569f</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>01/08/2024</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>supertrio som</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>Controle Longa Distancia Jfa K1200 Preto E Verde Lançamento</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>K1200</t>
+        </is>
+      </c>
+      <c r="E60" t="n">
+        <v>65.16</v>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="I60" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-4804716750-controle-longa-distancia-jfa-k1200-preto-e-verde-lancamento-_JM#position%3D12%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D8494a250-c223-400c-83f9-769e15f2569f</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>01/08/2024</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>supertrio som</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>Fonte Automotiva 120a Amperes Jfa Carregador Cor Preto</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>FONTE 120A STORM</t>
+        </is>
+      </c>
+      <c r="E61" t="n">
+        <v>739.14</v>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="I61" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3738261267-fonte-automotiva-120a-amperes-jfa-carregador-cor-preto-_JM#position%3D11%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D8494a250-c223-400c-83f9-769e15f2569f</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>01/08/2024</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>supertrio som</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>Controle Longa Distancia K1200 Jfa Preto Com Laranja</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>K1200</t>
+        </is>
+      </c>
+      <c r="E62" t="n">
+        <v>74.98999999999999</v>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="I62" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-2734179419-controle-longa-distancia-k1200-jfa-preto-com-laranja-_JM#position%3D17%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D8494a250-c223-400c-83f9-769e15f2569f</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>01/08/2024</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>supertrio som</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>Fonte Carregador Jfa Bob Storm 200a Bivolt Automático</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>FONTE 200 BOB</t>
+        </is>
+      </c>
+      <c r="E63" t="n">
+        <v>657.1900000000001</v>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="I63" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-4784710464-fonte-carregador-jfa-bob-storm-200a-bivolt-automatico-_JM#position%3D16%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D8494a250-c223-400c-83f9-769e15f2569f</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>01/08/2024</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>supertrio som</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>Fonte Carregador Automotivo Jfa 120a Storm Lite 12v Bivolt C</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>FONTE 120A LITE</t>
+        </is>
+      </c>
+      <c r="E64" t="n">
+        <v>581.4299999999999</v>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="I64" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3738270167-fonte-carregador-automotivo-jfa-120a-storm-lite-12v-bivolt-c-_JM#position%3D15%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D8494a250-c223-400c-83f9-769e15f2569f</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>01/08/2024</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>supertrio som</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>Inversor Jfa 49046 Senoidal Off-grid Motorhome Caminhão 1000</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="E65" t="n">
+        <v>1500</v>
+      </c>
+      <c r="F65" t="inlineStr"/>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="I65" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-4781854842-inversor-jfa-49046-senoidal-off-grid-motorhome-caminho-1000-_JM#position%3D19%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D8494a250-c223-400c-83f9-769e15f2569f</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>01/08/2024</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>supertrio som</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>Controle Longa Distancia Jfa K1200 Preto E Verde Lançamento</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>K1200</t>
+        </is>
+      </c>
+      <c r="E66" t="n">
+        <v>64.87</v>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="I66" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-2734184116-controle-longa-distancia-jfa-k1200-preto-e-verde-lancamento-_JM#position%3D18%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D8494a250-c223-400c-83f9-769e15f2569f</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>01/08/2024</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>supertrio som</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>Controle Longa Distancia Jfa K1200 Preto E Verde Lançamento</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>K1200</t>
+        </is>
+      </c>
+      <c r="E67" t="n">
+        <v>66</v>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>Baixo</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="I67" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3743030073-controle-longa-distancia-jfa-k1200-preto-e-verde-lancamento-_JM#position%3D23%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D8494a250-c223-400c-83f9-769e15f2569f</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>01/08/2024</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>supertrio som</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>Fonte Carregador Jfa Bob Storm 200a Bivolt Automático</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>FONTE 200 BOB</t>
+        </is>
+      </c>
+      <c r="E68" t="n">
+        <v>731.39</v>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H68" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="I68" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-2797262669-fonte-carregador-jfa-bob-storm-200a-bivolt-automatico-_JM#position%3D22%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D8494a250-c223-400c-83f9-769e15f2569f</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>01/08/2024</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>supertrio som</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>Controle Longa Distancia Jfa K600 Branco/cinza 600 Mts</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>K600</t>
+        </is>
+      </c>
+      <c r="E69" t="n">
+        <v>70.98999999999999</v>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="I69" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3744115737-controle-longa-distancia-jfa-k600-brancocinza-600-mts-_JM#position%3D21%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D8494a250-c223-400c-83f9-769e15f2569f</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>01/08/2024</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>supertrio som</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Amplificador  Processador Jfa Ap380wx4 </t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="E70" t="n">
+        <v>569</v>
+      </c>
+      <c r="F70" t="inlineStr"/>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H70" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="I70" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3682740181-amplificador-processador-jfa-ap380wx4-_JM#position%3D35%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D8494a250-c223-400c-83f9-769e15f2569f</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>01/08/2024</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>supertrio som</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>Fonte Carregador Automotivo Jfa 120a Storm Lite 12v Bivolt C</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>FONTE 120A LITE</t>
+        </is>
+      </c>
+      <c r="E71" t="n">
+        <v>621.65</v>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H71" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="I71" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-4788932454-fonte-carregador-automotivo-jfa-120a-storm-lite-12v-bivolt-c-_JM#position%3D39%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D8494a250-c223-400c-83f9-769e15f2569f</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>01/08/2024</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>supertrio som</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>Fonte Carregador Jfa 120a Bob Slim Bivolt</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>FONTE 120 BOB</t>
+        </is>
+      </c>
+      <c r="E72" t="n">
+        <v>525.75</v>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H72" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="I72" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-4788894912-fonte-carregador-jfa-120a-bob-slim-bivolt-_JM#position%3D49%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D8494a250-c223-400c-83f9-769e15f2569f</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>01/08/2024</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>supertrio som</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>Controle Remoto Universal Longa Distância Jfa K1200 Azul</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>K1200</t>
+        </is>
+      </c>
+      <c r="E73" t="n">
+        <v>74.98999999999999</v>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H73" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="I73" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-4781854750-controle-remoto-universal-longa-distncia-jfa-k1200-azul-_JM#position%3D48%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D8494a250-c223-400c-83f9-769e15f2569f</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>01/08/2024</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>supertrio som</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>Nova Fonte Carregador Jfa Bob Storm 90a Bivolt Automático</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>FONTE 90 BOB</t>
+        </is>
+      </c>
+      <c r="E74" t="n">
+        <v>466.39</v>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H74" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="I74" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-4781874148-nova-fonte-carregador-jfa-bob-storm-90a-bivolt-automatico-_JM#position%3D47%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D8494a250-c223-400c-83f9-769e15f2569f</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>01/08/2024</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>supertrio som</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>Fonte Automotiva Jfa Storm Lite 70a Bivolt Carregador</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>FONTE 70A LITE</t>
+        </is>
+      </c>
+      <c r="E75" t="n">
+        <v>471.01</v>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="I75" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3745632487-fonte-automotiva-jfa-storm-lite-70a-bivolt-carregador-_JM#position%3D46%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D8494a250-c223-400c-83f9-769e15f2569f</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>01/08/2024</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>supertrio som</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>Controle De Long Distânc Jfa K1200 Resistente A Água -branco</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>K1200</t>
+        </is>
+      </c>
+      <c r="E76" t="n">
+        <v>107.04</v>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="I76" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-4777429994-controle-de-long-distnc-jfa-k1200-resistente-a-agua-branco-_JM#position%3D45%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D8494a250-c223-400c-83f9-769e15f2569f</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>01/08/2024</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>supertrio som</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>Fonte Carregador Jfa 60a Bivolt Storm Com Medidor Cca</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>FONTE 60A STORM</t>
+        </is>
+      </c>
+      <c r="E77" t="n">
+        <v>473.28</v>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>Igual</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H77" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="I77" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3743029223-fonte-carregador-jfa-60a-bivolt-storm-com-medidor-cca-_JM#position%3D44%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D8494a250-c223-400c-83f9-769e15f2569f</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>01/08/2024</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>supertrio som</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>Fonte Carregador Jfa 120a Lite Storm Slim Bivolt</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>FONTE 120A LITE</t>
+        </is>
+      </c>
+      <c r="E78" t="n">
+        <v>621.65</v>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H78" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="I78" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-4804612884-fonte-carregador-jfa-120a-lite-storm-slim-bivolt-_JM#position%3D43%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D8494a250-c223-400c-83f9-769e15f2569f</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>01/08/2024</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>supertrio som</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>Fonte Carregador Jfa 120a Bob Slim Bivolt Cor Preto</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>FONTE 120 BOB</t>
+        </is>
+      </c>
+      <c r="E79" t="n">
+        <v>568.15</v>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="I79" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3744090639-fonte-carregador-jfa-120a-bob-slim-bivolt-cor-preto-_JM#position%3D42%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D8494a250-c223-400c-83f9-769e15f2569f</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>01/08/2024</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>supertrio som</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>Fonte Carregador Automotivo Jfa 120a Storm Lite 12v Bivolt C</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>FONTE 120A LITE</t>
+        </is>
+      </c>
+      <c r="E80" t="n">
+        <v>621.65</v>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H80" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="I80" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-4801296910-fonte-carregador-automotivo-jfa-120a-storm-lite-12v-bivolt-c-_JM#position%3D41%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D8494a250-c223-400c-83f9-769e15f2569f</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>01/08/2024</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>supertrio som</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>Controle De Long Distânc Jfa K1200 Resistente A Água -branco</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>K1200</t>
+        </is>
+      </c>
+      <c r="E81" t="n">
+        <v>107.04</v>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H81" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="I81" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3734549905-controle-de-long-distnc-jfa-k1200-resistente-a-agua-branco-_JM#position%3D40%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D8494a250-c223-400c-83f9-769e15f2569f</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>01/08/2024</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>supertrio som</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>Fonte Carregador Jfa Bob Storm 90a Bivolt Automático Cor Pre</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>FONTE 90 BOB</t>
+        </is>
+      </c>
+      <c r="E82" t="n">
+        <v>466.39</v>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H82" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="I82" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-4777392272-fonte-carregador-jfa-bob-storm-90a-bivolt-automatico-cor-pre-_JM#position%3D38%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D8494a250-c223-400c-83f9-769e15f2569f</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>01/08/2024</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>supertrio som</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>Fonte Carregador Jfa 120a Bob Slim Bivolt Cor Preto</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>FONTE 120 BOB</t>
+        </is>
+      </c>
+      <c r="E83" t="n">
+        <v>525.75</v>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H83" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="I83" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-4777471152-fonte-carregador-jfa-120a-bob-slim-bivolt-cor-preto-_JM#position%3D37%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D8494a250-c223-400c-83f9-769e15f2569f</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>01/08/2024</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>supertrio som</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Amplificador  Processador Jfa Ap380wx4 </t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="E84" t="n">
+        <v>409</v>
+      </c>
+      <c r="F84" t="inlineStr"/>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H84" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="I84" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3695901027-amplificador-processador-jfa-ap380wx4-_JM#position%3D36%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D8494a250-c223-400c-83f9-769e15f2569f</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>01/08/2024</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>supertrio som</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>Jfa Vs5hi - Sequenciador Voltímetro Medidor Bateria Digital</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="E85" t="n">
+        <v>57.99</v>
+      </c>
+      <c r="F85" t="inlineStr"/>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H85" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="I85" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3744102851-jfa-vs5hi-sequenciador-voltimetro-medidor-bateria-digital-_JM#position%3D34%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D8494a250-c223-400c-83f9-769e15f2569f</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>01/08/2024</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>supertrio som</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Conversor Jfa Slim Rca Comando Remoto </t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="E86" t="n">
+        <v>50</v>
+      </c>
+      <c r="F86" t="inlineStr"/>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H86" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="I86" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-1287843800-conversor-jfa-slim-rca-comando-remoto-_JM#position%3D33%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D8494a250-c223-400c-83f9-769e15f2569f</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>01/08/2024</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>supertrio som</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>Voltímetro Digital Com Sequenciador E Proteção Jfa Vs5hi</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="E87" t="n">
+        <v>61.2</v>
+      </c>
+      <c r="F87" t="inlineStr"/>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H87" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="I87" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-1385929114-voltimetro-digital-com-sequenciador-e-proteco-jfa-vs5hi-_JM#position%3D32%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D8494a250-c223-400c-83f9-769e15f2569f</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>01/08/2024</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>supertrio som</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>Controle Longa Distancia K1200 Jfa Preto Com Laranja</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>K1200</t>
+        </is>
+      </c>
+      <c r="E88" t="n">
+        <v>78.98999999999999</v>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H88" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="I88" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-4801346146-controle-longa-distancia-k1200-jfa-preto-com-laranja-_JM#position%3D31%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D8494a250-c223-400c-83f9-769e15f2569f</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>01/08/2024</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>supertrio som</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>Controle Remoto Universal Longa Jfa K1200 Preto C/ Verde</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>K1200</t>
+        </is>
+      </c>
+      <c r="E89" t="n">
+        <v>65.16</v>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H89" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="I89" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-4793815540-controle-remoto-universal-longa-jfa-k1200-preto-c-verde-_JM#position%3D30%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D8494a250-c223-400c-83f9-769e15f2569f</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>01/08/2024</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>supertrio som</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>Fonte Automotiva Digital Jfa Turbo 70a Bivolt Automática</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>FONTE 70A STORM</t>
+        </is>
+      </c>
+      <c r="E90" t="n">
+        <v>519.39</v>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H90" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="I90" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-4788895756-fonte-automotiva-digital-jfa-turbo-70a-bivolt-automatica-_JM#position%3D29%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D8494a250-c223-400c-83f9-769e15f2569f</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>01/08/2024</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>supertrio som</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>Fonte Carregador Jfa 70a Bivolt Com Medidor Cca</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>FONTE 70A STORM</t>
+        </is>
+      </c>
+      <c r="E91" t="n">
+        <v>551.1900000000001</v>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H91" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="I91" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-4801332402-fonte-carregador-jfa-70a-bivolt-com-medidor-cca-_JM#position%3D28%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D8494a250-c223-400c-83f9-769e15f2569f</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>01/08/2024</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>supertrio som</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>Fonte Automotiva 70 Amperes Jfa Storm Carregador Com Cor Pre</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>FONTE 70A STORM</t>
+        </is>
+      </c>
+      <c r="E92" t="n">
+        <v>519.39</v>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H92" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="I92" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-4784710498-fonte-automotiva-70-amperes-jfa-storm-carregador-com-cor-pre-_JM#position%3D27%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D8494a250-c223-400c-83f9-769e15f2569f</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>01/08/2024</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>supertrio som</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>Fonte Automotivo Carregador Jfa Sci 70-a Smart Charger</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>FONTE 70A STORM</t>
+        </is>
+      </c>
+      <c r="E93" t="n">
+        <v>493.42</v>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>Igual</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H93" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="I93" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3742944145-fonte-automotivo-carregador-jfa-sci-70-a-smart-charger-_JM#position%3D26%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D8494a250-c223-400c-83f9-769e15f2569f</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>01/08/2024</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>supertrio som</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>Jfa K1200 Controle Longa Distancia 1200 Metros Azul</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>K1200</t>
+        </is>
+      </c>
+      <c r="E94" t="n">
+        <v>78.98999999999999</v>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H94" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="I94" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-4777431108-jfa-k1200-controle-longa-distancia-1200-metros-azul-_JM#position%3D25%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D8494a250-c223-400c-83f9-769e15f2569f</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>01/08/2024</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>supertrio som</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>Controle Remoto Universal Longa Distância Jfa K1200 2 Cores</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>K1200</t>
+        </is>
+      </c>
+      <c r="E95" t="n">
+        <v>78.98999999999999</v>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H95" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="I95" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-4771768486-controle-remoto-universal-longa-distncia-jfa-k1200-2-cores-_JM#position%3D24%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D8494a250-c223-400c-83f9-769e15f2569f</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>01/08/2024</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>supertrio som</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>Fonte Carregador Jfa 70a Bivolt Com Medidor Cca</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>FONTE 70A STORM</t>
+        </is>
+      </c>
+      <c r="E96" t="n">
+        <v>519.39</v>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H96" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="I96" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-4804562508-fonte-carregador-jfa-70a-bivolt-com-medidor-cca-_JM#position%3D20%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D8494a250-c223-400c-83f9-769e15f2569f</t>
         </is>
       </c>
     </row>

--- a/dados/supertrio som.xlsx
+++ b/dados/supertrio som.xlsx
@@ -483,7 +483,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>12/09/2024</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -493,16 +493,16 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Fonte Automotiva Jfa Storm 200a Bob Carregador Automático Bi</t>
+          <t>Fonte Automotiva 120a Amperes Jfa Carregador Cor Preto</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>FONTE 200 BOB</t>
+          <t>FONTE 120A STORM</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>731.39</v>
+        <v>694.92</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
@@ -521,14 +521,14 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3742956287-fonte-automotiva-jfa-storm-200a-bob-carregador-automatico-bi-_JM#position%3D32%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D55873e73-b50f-4fcc-8494-96a90d82f083</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3743019691-fonte-automotiva-120a-amperes-jfa-carregador-cor-preto-_JM#position%3D22%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D35c14315-1db4-4282-b09c-aedc2fc22fb5</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>12/09/2024</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -538,20 +538,20 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa 200a Lite Storm Slim Bivolt Cor Azul</t>
+          <t>Fonte Automotiva Jfa Storm 200a Bob Carregador Automático Bivolt Cor BOB 200A JFA</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>FONTE 200A LITE</t>
+          <t>FONTE 200 BOB</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>739.26</v>
+        <v>643.0599999999999</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Acima</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
@@ -566,14 +566,14 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-200a-lite-storm-slim-bivolt-cor-azul/p/MLB24154371?pdp_filters=seller_id:45588212#searchVariation=MLB24154371&amp;position=5&amp;search_layout=stack&amp;type=product&amp;tracking_id=55873e73-b50f-4fcc-8494-96a90d82f083</t>
+          <t>https://www.mercadolivre.com.br/fonte-automotiva-jfa-storm-200a-bob-carregador-automatico-bivolt-cor-bob-200a-jfa/p/MLB24834408?pdp_filters=seller_id:45588212#wid=MLB4420811430&amp;sid=search&amp;searchVariation=MLB24834408&amp;position=2&amp;search_layout=stack&amp;type=product&amp;tracking_id=35c14315-1db4-4282-b09c-aedc2fc22fb5</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>12/09/2024</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -583,20 +583,20 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa 120a Bob Slim Bivolt</t>
+          <t>Fonte Automotiva 70 Amperes Jfa Storm Carregador Com Cor Preto</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>FONTE 120 BOB</t>
+          <t>FONTE 70A STORM</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>568.15</v>
+        <v>508.22</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Acima</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
@@ -606,19 +606,19 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>classico</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2773051227-fonte-carregador-jfa-120a-bob-slim-bivolt-_JM#position%3D19%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D55873e73-b50f-4fcc-8494-96a90d82f083</t>
+          <t>https://www.mercadolivre.com.br/fonte-automotiva-70-amperes-jfa-storm-carregador-com-cor-preto/p/MLB25571709?pdp_filters=seller_id:45588212#wid=MLB3813648449&amp;sid=search&amp;searchVariation=MLB25571709&amp;position=12&amp;search_layout=stack&amp;type=product&amp;tracking_id=35c14315-1db4-4282-b09c-aedc2fc22fb5</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>12/09/2024</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -628,42 +628,42 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Fonte Carregador Automotiva Jfa 200a Slim Bivolt Voltímetro</t>
+          <t>Fonte Carregador Jfa Bob Storm 200a Bivolt</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>FONTE 200A STORM</t>
+          <t>FONTE 200 BOB</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>890.39</v>
+        <v>643.0599999999999</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Acima</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>FULL</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>classico</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-automotiva-jfa-200a-slim-bivolt-voltimetro/p/MLB21348561?pdp_filters=seller_id:45588212#searchVariation=MLB21348561&amp;position=1&amp;search_layout=stack&amp;type=product&amp;tracking_id=55873e73-b50f-4fcc-8494-96a90d82f083</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3738244537-fonte-carregador-jfa-bob-storm-200a-bivolt-_JM?searchVariation=183142398239#searchVariation%3D183142398239%26position%3D32%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D35c14315-1db4-4282-b09c-aedc2fc22fb5</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>12/09/2024</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -673,16 +673,16 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Nova Fonte Carregador Jfa Bob Storm 90a Bivolt Automático</t>
+          <t>Fonte Automotiva Jfa Storm Lite 70a Bivolt Carregador</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>FONTE 90 BOB</t>
+          <t>FONTE 70A LITE</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>466.39</v>
+        <v>447.46</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
@@ -701,14 +701,14 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2969345061-nova-fonte-carregador-jfa-bob-storm-90a-bivolt-automatico-_JM#position%3D31%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D55873e73-b50f-4fcc-8494-96a90d82f083</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3582399882-fonte-automotiva-jfa-storm-lite-70a-bivolt-carregador-_JM#position%3D31%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D35c14315-1db4-4282-b09c-aedc2fc22fb5</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>12/09/2024</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -718,16 +718,16 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa 200a Lite Storm Slim Bivolt</t>
+          <t>Fonte Carregador Jfa 120a Lite Storm Slim Bivolt</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>FONTE 200A LITE</t>
+          <t>FONTE 120A LITE</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>777.08</v>
+        <v>590.5599999999999</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
@@ -746,14 +746,14 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3264930885-fonte-carregador-jfa-200a-lite-storm-slim-bivolt-_JM#position%3D25%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D55873e73-b50f-4fcc-8494-96a90d82f083</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3307572800-fonte-carregador-jfa-120a-lite-storm-slim-bivolt-_JM#position%3D25%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D35c14315-1db4-4282-b09c-aedc2fc22fb5</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>12/09/2024</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -763,16 +763,16 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Fonte Automotiva 120a Amperes Jfa Carregador Cor Preto</t>
+          <t>Fonte Carregador Jfa 120a Bob Slim Bivolt</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>FONTE 120A STORM</t>
+          <t>FONTE 120 BOB</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>667.79</v>
+        <v>555.9299999999999</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
@@ -781,24 +781,24 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>FULL</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>premium</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-automotiva-120a-amperes-jfa-carregador-cor-preto/p/MLB21392652?pdp_filters=seller_id:45588212#searchVariation=MLB21392652&amp;position=11&amp;search_layout=stack&amp;type=product&amp;tracking_id=55873e73-b50f-4fcc-8494-96a90d82f083</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2773051227-fonte-carregador-jfa-120a-bob-slim-bivolt-_JM#position%3D24%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D35c14315-1db4-4282-b09c-aedc2fc22fb5</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>12/09/2024</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -808,25 +808,25 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa 70a Bivolt Com Medidor Cca</t>
+          <t>Controle Longa Distancia Jfa K600 Branco Com Cinza</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>FONTE 70A STORM</t>
+          <t>K600</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>493.42</v>
+        <v>52.9</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>FULL</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
@@ -836,14 +836,14 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-70a-bivolt-com-medidor-cca/p/MLB21455208?pdp_filters=seller_id:45588212#searchVariation=MLB21455208&amp;position=9&amp;search_layout=stack&amp;type=product&amp;tracking_id=55873e73-b50f-4fcc-8494-96a90d82f083</t>
+          <t>https://www.mercadolivre.com.br/controle-longa-distancia-jfa-k600-branco-com-cinza/p/MLB32364344?pdp_filters=seller_id:45588212#wid=MLB3770352077&amp;sid=search&amp;searchVariation=MLB32364344&amp;position=20&amp;search_layout=stack&amp;type=product&amp;tracking_id=35c14315-1db4-4282-b09c-aedc2fc22fb5</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>12/09/2024</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -853,16 +853,16 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa Bob Storm 90a Bivolt Automático Cor Pre</t>
+          <t>Fonte Carregador Automotiva Jfa 200a Slim Bivolt Voltímetro</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>FONTE 90 BOB</t>
+          <t>FONTE 200A STORM</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>466.39</v>
+        <v>917.11</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
@@ -881,14 +881,14 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-4781829128-fonte-carregador-jfa-bob-storm-90a-bivolt-automatico-cor-pre-_JM#position%3D30%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D55873e73-b50f-4fcc-8494-96a90d82f083</t>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-automotiva-jfa-200a-slim-bivolt-voltimetro/p/MLB21348561?pdp_filters=seller_id:45588212#wid=MLB3153654374&amp;sid=search&amp;searchVariation=MLB21348561&amp;position=9&amp;search_layout=stack&amp;type=product&amp;tracking_id=35c14315-1db4-4282-b09c-aedc2fc22fb5</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>12/09/2024</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -898,20 +898,20 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Nova Fonte Automotiva 70a Amperes Jfa Carregador Storm Novo</t>
+          <t>Fonte Automotiva Jfa Storm Lite 120a Bivolt Carregador</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>FONTE 70A STORM</t>
+          <t>FONTE 120A LITE</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>493.42</v>
+        <v>552.35</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
@@ -926,14 +926,14 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2621320782-nova-fonte-automotiva-70a-amperes-jfa-carregador-storm-novo-_JM#position%3D23%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D55873e73-b50f-4fcc-8494-96a90d82f083</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3311742806-fonte-automotiva-jfa-storm-lite-120a-bivolt-carregador-_JM#position%3D23%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D35c14315-1db4-4282-b09c-aedc2fc22fb5</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>12/09/2024</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -943,25 +943,21 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa 120a Bob Slim Bivolt Cor Preto</t>
+          <t>Conversor Fio Para Rca Remoto Slim 12v Jfa Automotivo Cd Dvd</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>FONTE 120 BOB</t>
+          <t>Sem Modelo</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>525.75</v>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>Acima</t>
-        </is>
-      </c>
+        <v>40.1</v>
+      </c>
+      <c r="F12" t="inlineStr"/>
       <c r="G12" t="inlineStr">
         <is>
-          <t>FULL</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
@@ -971,14 +967,14 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-120a-bob-slim-bivolt-cor-preto/p/MLB22144397?pdp_filters=seller_id:45588212#searchVariation=MLB22144397&amp;position=2&amp;search_layout=stack&amp;type=product&amp;tracking_id=55873e73-b50f-4fcc-8494-96a90d82f083</t>
+          <t>https://www.mercadolivre.com.br/conversor-fio-para-rca-remoto-slim-12v-jfa-automotivo-cd-dvd/p/MLB25707531?pdp_filters=seller_id:45588212#wid=MLB3471349395&amp;sid=search&amp;searchVariation=MLB25707531&amp;position=17&amp;search_layout=stack&amp;type=product&amp;tracking_id=35c14315-1db4-4282-b09c-aedc2fc22fb5</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>12/09/2024</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -988,16 +984,16 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Controle Longa Distancia Jfa K600 Branco Com Cinza</t>
+          <t>Fonte Automotiva Carregador Jfa 60a Bivolt Automático Sci</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>K600</t>
+          <t>FONTE 60A STORM</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>70.98999999999999</v>
+        <v>487.48</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
@@ -1006,24 +1002,24 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FULL</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>premium</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/controle-longa-distancia-jfa-k600-branco-com-cinza/p/MLB32364344?pdp_filters=seller_id:45588212#searchVariation=MLB32364344&amp;position=6&amp;search_layout=stack&amp;type=product&amp;tracking_id=55873e73-b50f-4fcc-8494-96a90d82f083</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2678722526-fonte-automotiva-carregador-jfa-60a-bivolt-automatico-sci-_JM#position%3D30%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D35c14315-1db4-4282-b09c-aedc2fc22fb5</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>12/09/2024</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -1033,20 +1029,20 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa Bob Storm 90a Bivolt Automático Cor Pre</t>
+          <t>Nova Fonte Automotiva 70a Amperes Jfa Carregador Storm Novo</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>FONTE 90 BOB</t>
+          <t>FONTE 70A STORM</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>445.19</v>
+        <v>508.22</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Acima</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
@@ -1061,14 +1057,14 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-4777417620-fonte-carregador-jfa-bob-storm-90a-bivolt-automatico-cor-pre-_JM#position%3D24%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D55873e73-b50f-4fcc-8494-96a90d82f083</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2621320782-nova-fonte-automotiva-70a-amperes-jfa-carregador-storm-novo-_JM#position%3D29%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D35c14315-1db4-4282-b09c-aedc2fc22fb5</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>12/09/2024</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -1078,25 +1074,25 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Fonte Automotiva Jfa Storm 200a Bob Carregador Automático Bivolt Cor BOB 200A JFA</t>
+          <t xml:space="preserve"> JFA Fonte Carregador Storm Lite 60A 3000 W Preto</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>FONTE 200 BOB</t>
+          <t>FONTE 60A LITE</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>657.1900000000001</v>
+        <v>375.9</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Acima</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>FULL</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
@@ -1106,14 +1102,14 @@
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-automotiva-jfa-storm-200a-bob-carregador-automatico-bivolt-cor-bob-200a-jfa/p/MLB24834408?pdp_filters=seller_id:45588212#searchVariation=MLB24834408&amp;position=3&amp;search_layout=stack&amp;type=product&amp;tracking_id=55873e73-b50f-4fcc-8494-96a90d82f083</t>
+          <t>https://www.mercadolivre.com.br/jfa-fonte-carregador-storm-lite-60a-3000-w-preto/p/MLB23456525?pdp_filters=seller_id:45588212#wid=MLB3537344365&amp;sid=search&amp;searchVariation=MLB23456525&amp;position=8&amp;search_layout=stack&amp;type=product&amp;tracking_id=35c14315-1db4-4282-b09c-aedc2fc22fb5</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>12/09/2024</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -1123,18 +1119,22 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Conversor Rca Comando Remoto Slim Jfa</t>
+          <t>Fonte Carregador Jfa 120a Bob Slim Bivolt Cor Preto</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Sem Modelo</t>
+          <t>FONTE 120 BOB</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>39.5</v>
-      </c>
-      <c r="F16" t="inlineStr"/>
+        <v>514.45</v>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Baixo</t>
+        </is>
+      </c>
       <c r="G16" t="inlineStr">
         <is>
           <t>NA</t>
@@ -1147,14 +1147,14 @@
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1287843802-conversor-rca-comando-remoto-slim-jfa-_JM#position%3D29%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D55873e73-b50f-4fcc-8494-96a90d82f083</t>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-120a-bob-slim-bivolt-cor-preto/p/MLB22144397?pdp_filters=seller_id:45588212#wid=MLB3362153208&amp;sid=search&amp;searchVariation=MLB22144397&amp;position=14&amp;search_layout=stack&amp;type=product&amp;tracking_id=35c14315-1db4-4282-b09c-aedc2fc22fb5</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>12/09/2024</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -1164,16 +1164,16 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Fonte Automotiva Jfa Storm Lite 70a Bivolt Carregador</t>
+          <t>Fonte Carregador Jfa Storm 120a Bivolt Slim</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>FONTE 70A LITE</t>
+          <t>FONTE 120A STORM</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>443.15</v>
+        <v>694.92</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
@@ -1187,19 +1187,19 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>premium</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3307314045-fonte-automotiva-jfa-storm-lite-70a-bivolt-carregador-_JM#position%3D21%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D55873e73-b50f-4fcc-8494-96a90d82f083</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2166850824-fonte-carregador-jfa-storm-120a-bivolt-slim-_JM#position%3D27%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D35c14315-1db4-4282-b09c-aedc2fc22fb5</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>12/09/2024</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -1209,20 +1209,20 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa 120a Bob Slim Bivolt Cor Preto</t>
+          <t>Fonte Carregador Jfa Bob 200</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>FONTE 120 BOB</t>
+          <t>FONTE 200 BOB</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>568.15</v>
+        <v>643.0599999999999</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Acima</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
@@ -1232,19 +1232,19 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>classico</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3738283061-fonte-carregador-jfa-120a-bob-slim-bivolt-cor-preto-_JM#position%3D35%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D55873e73-b50f-4fcc-8494-96a90d82f083</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3344009945-fonte-carregador-jfa-bob-200-_JM?searchVariation=178601508955#searchVariation%3D178601508955%26position%3D28%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D35c14315-1db4-4282-b09c-aedc2fc22fb5</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>12/09/2024</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -1254,20 +1254,20 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa Bob Storm 200a Bivolt</t>
+          <t>Fonte Automotiva 120a Amperes Jfa Carregador Cor Preto</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>FONTE 200 BOB</t>
+          <t>FONTE 120A STORM</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>657.1900000000001</v>
+        <v>653.4299999999999</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Acima</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
@@ -1282,14 +1282,14 @@
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3738244537-fonte-carregador-jfa-bob-storm-200a-bivolt-_JM?searchVariation=183142398239#searchVariation%3D183142398239%26position%3D22%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D55873e73-b50f-4fcc-8494-96a90d82f083</t>
+          <t>https://www.mercadolivre.com.br/fonte-automotiva-120a-amperes-jfa-carregador-cor-preto/p/MLB21392652?pdp_filters=seller_id:45588212#wid=MLB3165827549&amp;sid=search&amp;searchVariation=MLB21392652&amp;position=6&amp;search_layout=stack&amp;type=product&amp;tracking_id=35c14315-1db4-4282-b09c-aedc2fc22fb5</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>12/09/2024</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -1299,16 +1299,16 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Fonte Carregador Automotivo Jfa 120a Storm Lite 12v Bivolt Cor Preto</t>
+          <t>Controle Longa Distância Jfa Acqua 1200 Resistente A Água</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>FONTE 120A LITE</t>
+          <t>ACQUA</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>581.4299999999999</v>
+        <v>91.41</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
@@ -1327,14 +1327,14 @@
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-automotivo-jfa-120a-storm-lite-12v-bivolt-cor-preto/p/MLB23998473?pdp_filters=seller_id:45588212#searchVariation=MLB23998473&amp;position=12&amp;search_layout=stack&amp;type=product&amp;tracking_id=55873e73-b50f-4fcc-8494-96a90d82f083</t>
+          <t>https://www.mercadolivre.com.br/controle-longa-distncia-jfa-acqua-1200-resistente-a-agua/p/MLB27685629?pdp_filters=seller_id:45588212#wid=MLB4523753566&amp;sid=search&amp;searchVariation=MLB27685629&amp;position=7&amp;search_layout=stack&amp;type=product&amp;tracking_id=35c14315-1db4-4282-b09c-aedc2fc22fb5</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>12/09/2024</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -1344,20 +1344,20 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Controle Jfa Acqua 1200 Metros Longa Distancia Lançamento</t>
+          <t>Fonte Carregador Automotivo Jfa 120a Storm Lite 12v Bivolt Cor Preto</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>ACQUA</t>
+          <t>FONTE 120A LITE</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>107.04</v>
+        <v>552.35</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Acima</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
@@ -1367,19 +1367,19 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>classico</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2711518782-controle-jfa-acqua-1200-metros-longa-distancia-lancamento-_JM#position%3D34%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D55873e73-b50f-4fcc-8494-96a90d82f083</t>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-automotivo-jfa-120a-storm-lite-12v-bivolt-cor-preto/p/MLB23998473?pdp_filters=seller_id:45588212#wid=MLB3837655621&amp;sid=search&amp;searchVariation=MLB23998473&amp;position=21&amp;search_layout=stack&amp;type=product&amp;tracking_id=35c14315-1db4-4282-b09c-aedc2fc22fb5</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>12/09/2024</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -1389,25 +1389,25 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Fonte Automotiva Carregador Jfa 60a Bivolt Automático Sci</t>
+          <t>Fonte Carregador Jfa Bob Storm 90a Bivolt Automático Cor Preto</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>FONTE 60A STORM</t>
+          <t>FONTE 90 BOB</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>473.28</v>
+        <v>456.36</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Acima</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>FULL</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
@@ -1417,14 +1417,14 @@
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2678722526-fonte-automotiva-carregador-jfa-60a-bivolt-automatico-sci-_JM#position%3D20%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D55873e73-b50f-4fcc-8494-96a90d82f083</t>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-bob-storm-90a-bivolt-automatico-cor-preto/p/MLB21562641?pdp_filters=seller_id:45588212#wid=MLB4822680360&amp;sid=search&amp;searchVariation=MLB21562641&amp;position=16&amp;search_layout=stack&amp;type=product&amp;tracking_id=35c14315-1db4-4282-b09c-aedc2fc22fb5</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>12/09/2024</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -1434,18 +1434,22 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Conversor Fio Para Rca Remoto Slim 12v Jfa Automotivo Cd Dvd</t>
+          <t>Fonte Carregador 60a Jfa Automotiva Similar Stetsom 60a</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Sem Modelo</t>
+          <t>FONTE 60A STORM</t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>40.1</v>
-      </c>
-      <c r="F23" t="inlineStr"/>
+        <v>487.48</v>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
       <c r="G23" t="inlineStr">
         <is>
           <t>NA</t>
@@ -1453,19 +1457,19 @@
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>premium</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/conversor-fio-para-rca-remoto-slim-12v-jfa-automotivo-cd-dvd/p/MLB25707531?pdp_filters=seller_id:45588212#searchVariation=MLB25707531&amp;position=7&amp;search_layout=stack&amp;type=product&amp;tracking_id=55873e73-b50f-4fcc-8494-96a90d82f083</t>
+          <t>https://produto.mercadolivre.com.br/MLB-4788856830-fonte-carregador-60a-jfa-automotiva-similar-stetsom-60a-_JM#position%3D26%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D35c14315-1db4-4282-b09c-aedc2fc22fb5</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>12/09/2024</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -1475,20 +1479,20 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Fonte Automotiva Jfa Storm Lite 70a Bivolt Carregador</t>
+          <t>Fonte Carregador Jfa 60a Bivolt Storm Com Medidor Cca</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>FONTE 70A LITE</t>
+          <t>FONTE 60A STORM</t>
         </is>
       </c>
       <c r="E24" t="n">
-        <v>471.01</v>
+        <v>456.36</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Acima</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
@@ -1498,19 +1502,19 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>classico</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3582399882-fonte-automotiva-jfa-storm-lite-70a-bivolt-carregador-_JM#position%3D33%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D55873e73-b50f-4fcc-8494-96a90d82f083</t>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-60a-bivolt-storm-com-medidor-cca/p/MLB21320712?pdp_filters=seller_id:45588212#wid=MLB3153948085&amp;sid=search&amp;searchVariation=MLB21320712&amp;position=5&amp;search_layout=stack&amp;type=product&amp;tracking_id=35c14315-1db4-4282-b09c-aedc2fc22fb5</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>12/09/2024</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -1520,22 +1524,18 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Fonte Carregador Automotivo Jfa 120a Storm Lite 12v Bivolt C</t>
+          <t>Fonte Carregador Automotivo Jfa 40a Lite Storm Slim Bivolt Cor Preto</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>FONTE 120A LITE</t>
+          <t>Sem Modelo</t>
         </is>
       </c>
       <c r="E25" t="n">
-        <v>621.65</v>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>Acima</t>
-        </is>
-      </c>
+        <v>401</v>
+      </c>
+      <c r="F25" t="inlineStr"/>
       <c r="G25" t="inlineStr">
         <is>
           <t>NA</t>
@@ -1548,14 +1548,14 @@
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3745650519-fonte-carregador-automotivo-jfa-120a-storm-lite-12v-bivolt-c-_JM#position%3D28%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D55873e73-b50f-4fcc-8494-96a90d82f083</t>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-automotivo-jfa-40a-lite-storm-slim-bivolt-cor-preto/p/MLB33435981?pdp_filters=seller_id:45588212#wid=MLB3635866581&amp;sid=search&amp;searchVariation=MLB33435981&amp;position=13&amp;search_layout=stack&amp;type=product&amp;tracking_id=35c14315-1db4-4282-b09c-aedc2fc22fb5</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>12/09/2024</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -1565,42 +1565,42 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa 60a Bivolt Storm Com Medidor Cca</t>
+          <t>Kit 2 Controles Longa Distancia Jfa Preto Com Verde K600 M</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>FONTE 60A STORM</t>
+          <t>K600</t>
         </is>
       </c>
       <c r="E26" t="n">
-        <v>473.28</v>
+        <v>119</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Acima</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>FULL</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>classico</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-60a-bivolt-storm-com-medidor-cca/p/MLB21320712?pdp_filters=seller_id:45588212#searchVariation=MLB21320712&amp;position=10&amp;search_layout=stack&amp;type=product&amp;tracking_id=55873e73-b50f-4fcc-8494-96a90d82f083</t>
+          <t>https://www.mercadolivre.com.br/kit-2-controles-longa-distancia-jfa-preto-com-verde-k600-m/p/MLB28056168?pdp_filters=seller_id:45588212#wid=MLB4214927138&amp;sid=search&amp;searchVariation=MLB28056168&amp;position=18&amp;search_layout=stack&amp;type=product&amp;tracking_id=35c14315-1db4-4282-b09c-aedc2fc22fb5</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>12/09/2024</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -1610,20 +1610,20 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa Bob Storm 90a Bivolt Automático Cor Preto</t>
+          <t>Fonte Carregador Jfa 70a Bivolt Com Medidor Cca</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>FONTE 90 BOB</t>
+          <t>FONTE 70A STORM</t>
         </is>
       </c>
       <c r="E27" t="n">
-        <v>445.19</v>
+        <v>508.22</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Acima</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
@@ -1638,14 +1638,14 @@
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-bob-storm-90a-bivolt-automatico-cor-preto/p/MLB21562641?pdp_filters=seller_id:45588212#searchVariation=MLB21562641&amp;position=8&amp;search_layout=stack&amp;type=product&amp;tracking_id=55873e73-b50f-4fcc-8494-96a90d82f083</t>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-70a-bivolt-com-medidor-cca/p/MLB21455208?pdp_filters=seller_id:45588212#wid=MLB3183126513&amp;sid=search&amp;searchVariation=MLB21455208&amp;position=4&amp;search_layout=stack&amp;type=product&amp;tracking_id=35c14315-1db4-4282-b09c-aedc2fc22fb5</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>12/09/2024</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -1655,20 +1655,20 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa Bob Storm 200a Bivolt</t>
+          <t>Controle Longa Distancia Jfa K600 Preto/laranja 600 Mts</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>FONTE 200 BOB</t>
+          <t>K600</t>
         </is>
       </c>
       <c r="E28" t="n">
-        <v>731.39</v>
+        <v>57.9</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Acima</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
@@ -1683,14 +1683,14 @@
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3745695931-fonte-carregador-jfa-bob-storm-200a-bivolt-_JM#position%3D39%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D55873e73-b50f-4fcc-8494-96a90d82f083</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1550168246-controle-longa-distancia-jfa-k600-pretolaranja-600-mts-_JM#position%3D40%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D35c14315-1db4-4282-b09c-aedc2fc22fb5</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>12/09/2024</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -1700,20 +1700,20 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Fonte Automotiva Jfa Storm Lite 200a Bivolt Carregador</t>
+          <t>Controle Longa Distância Jfa K1200 Preto/laranja 1200mt</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>FONTE 200A LITE</t>
+          <t>K1200</t>
         </is>
       </c>
       <c r="E29" t="n">
-        <v>777.08</v>
+        <v>57.99</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Acima</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
@@ -1723,19 +1723,19 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>classico</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-4728106950-fonte-automotiva-jfa-storm-lite-200a-bivolt-carregador-_JM#position%3D38%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D55873e73-b50f-4fcc-8494-96a90d82f083</t>
+          <t>https://www.mercadolivre.com.br/controle-longa-distncia-jfa-k1200-pretolaranja-1200mt/p/MLB28357019?pdp_filters=seller_id:45588212#wid=MLB3601211753&amp;sid=search&amp;searchVariation=MLB28357019&amp;position=11&amp;search_layout=stack&amp;type=product&amp;tracking_id=35c14315-1db4-4282-b09c-aedc2fc22fb5</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>12/09/2024</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -1745,7 +1745,7 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa 120a Lite Storm Slim Bivolt</t>
+          <t>Fonte Carregador Automotivo Jfa 120a Storm Lite 12v Bivolt C</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1754,7 +1754,7 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>621.65</v>
+        <v>590.5599999999999</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
@@ -1773,14 +1773,14 @@
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3307572800-fonte-carregador-jfa-120a-lite-storm-slim-bivolt-_JM#position%3D27%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D55873e73-b50f-4fcc-8494-96a90d82f083</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3745650519-fonte-carregador-automotivo-jfa-120a-storm-lite-12v-bivolt-c-_JM#position%3D39%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D35c14315-1db4-4282-b09c-aedc2fc22fb5</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>12/09/2024</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -1790,25 +1790,25 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Controle Remoto Universal Longa Distância Jfa K1200 Azul</t>
+          <t>Fonte Carregador Jfa 200a Lite Storm Slim Bivolt Cor Azul</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>K1200</t>
+          <t>FONTE 200A LITE</t>
         </is>
       </c>
       <c r="E31" t="n">
-        <v>74.98999999999999</v>
+        <v>702.29</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Acima</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FULL</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
@@ -1818,14 +1818,14 @@
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/controle-remoto-universal-longa-distncia-jfa-k1200-azul/p/MLB28722231?pdp_filters=seller_id:45588212#searchVariation=MLB28722231&amp;position=16&amp;search_layout=stack&amp;type=product&amp;tracking_id=55873e73-b50f-4fcc-8494-96a90d82f083</t>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-200a-lite-storm-slim-bivolt-cor-azul/p/MLB24154371?pdp_filters=seller_id:45588212#wid=MLB4921663212&amp;sid=search&amp;searchVariation=MLB24154371&amp;position=1&amp;search_layout=stack&amp;type=product&amp;tracking_id=35c14315-1db4-4282-b09c-aedc2fc22fb5</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>12/09/2024</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -1835,22 +1835,18 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Fonte Automotiva 60a Jfa Amperes Bivolt Automatico</t>
+          <t>Inversor JFA 49046 Senoidal Off-grid Motorhome Caminhão 1000w 12v/220v</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>FONTE 60A STORM</t>
+          <t>Sem Modelo</t>
         </is>
       </c>
       <c r="E32" t="n">
-        <v>443.07</v>
-      </c>
-      <c r="F32" t="inlineStr">
-        <is>
-          <t>Igual</t>
-        </is>
-      </c>
+        <v>1490</v>
+      </c>
+      <c r="F32" t="inlineStr"/>
       <c r="G32" t="inlineStr">
         <is>
           <t>NA</t>
@@ -1863,14 +1859,14 @@
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1921800308-fonte-automotiva-60a-jfa-amperes-bivolt-automatico-_JM#position%3D37%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D55873e73-b50f-4fcc-8494-96a90d82f083</t>
+          <t>https://www.mercadolivre.com.br/inversor-jfa-49046-senoidal-off-grid-motorhome-caminho-1000w-12v220v/p/MLB35970528?pdp_filters=seller_id:45588212#wid=MLB4812262432&amp;sid=search&amp;searchVariation=MLB35970528&amp;position=1&amp;search_layout=stack&amp;type=product&amp;tracking_id=769d8028-6271-473e-9d16-b066f2fa1baa</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>12/09/2024</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -1880,20 +1876,20 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Controle Remoto Universal Longa Jfa K1200 Preto C/ Verde</t>
+          <t>Controle Longa Distancia Jfa K600 Preto Com Verde</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>K1200</t>
+          <t>K600</t>
         </is>
       </c>
       <c r="E33" t="n">
-        <v>64.59999999999999</v>
+        <v>52.9</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Acima</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
@@ -1908,14 +1904,14 @@
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/controle-remoto-universal-longa-jfa-k1200-preto-c-verde/p/MLB30476096?pdp_filters=seller_id:45588212#searchVariation=MLB30476096&amp;position=18&amp;search_layout=stack&amp;type=product&amp;tracking_id=55873e73-b50f-4fcc-8494-96a90d82f083</t>
+          <t>https://www.mercadolivre.com.br/controle-longa-distancia-jfa-k600-preto-com-verde/p/MLB27999036?pdp_filters=seller_id:45588212#wid=MLB4198265166&amp;sid=search&amp;searchVariation=MLB27999036&amp;position=3&amp;search_layout=stack&amp;type=product&amp;tracking_id=35c14315-1db4-4282-b09c-aedc2fc22fb5</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>12/09/2024</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -1925,16 +1921,16 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa Bob 200</t>
+          <t>Fonte Carregador Jfa 200a Lite Storm Slim Bivolt</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>FONTE 200 BOB</t>
+          <t>FONTE 200A LITE</t>
         </is>
       </c>
       <c r="E34" t="n">
-        <v>657.1900000000001</v>
+        <v>738.22</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
@@ -1948,19 +1944,19 @@
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>premium</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3344009945-fonte-carregador-jfa-bob-200-_JM?searchVariation=178601508955#searchVariation%3D178601508955%26position%3D26%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D55873e73-b50f-4fcc-8494-96a90d82f083</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3264930885-fonte-carregador-jfa-200a-lite-storm-slim-bivolt-_JM#position%3D38%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D35c14315-1db4-4282-b09c-aedc2fc22fb5</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>12/09/2024</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -1970,20 +1966,20 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa Storm 70a Lite Bivolt - 12v</t>
+          <t>Fonte Automotiva 70 Amperes Jfa Storm Carregador Com Cor Pre</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>FONTE 70A LITE</t>
+          <t>FONTE 70A STORM</t>
         </is>
       </c>
       <c r="E35" t="n">
-        <v>443.15</v>
+        <v>508.22</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Acima</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
@@ -1998,14 +1994,14 @@
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3745673581-fonte-carregador-jfa-storm-70a-lite-bivolt-12v-_JM#position%3D36%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D55873e73-b50f-4fcc-8494-96a90d82f083</t>
+          <t>https://produto.mercadolivre.com.br/MLB-4784710498-fonte-automotiva-70-amperes-jfa-storm-carregador-com-cor-pre-_JM#position%3D37%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D35c14315-1db4-4282-b09c-aedc2fc22fb5</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>12/09/2024</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -2015,7 +2011,7 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Fonte Automotiva 70 Amperes Jfa Storm Carregador Com Cor Preto</t>
+          <t>Fonte Automotiva 70 Amperes Jfa Storm Red Line Cca Sci Smart</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -2024,11 +2020,11 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>523.63</v>
+        <v>539.34</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Acima</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
@@ -2043,14 +2039,14 @@
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-automotiva-70-amperes-jfa-storm-carregador-com-cor-preto/p/MLB25571709?pdp_filters=seller_id:45588212#searchVariation=MLB25571709&amp;position=15&amp;search_layout=stack&amp;type=product&amp;tracking_id=55873e73-b50f-4fcc-8494-96a90d82f083</t>
+          <t>https://produto.mercadolivre.com.br/MLB-4771794360-fonte-automotiva-70-amperes-jfa-storm-red-line-cca-sci-smart-_JM#position%3D36%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D35c14315-1db4-4282-b09c-aedc2fc22fb5</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>12/09/2024</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -2060,16 +2056,16 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Fonte Automotiva Jfa Storm Lite 120a Bivolt Carregador</t>
+          <t>Fonte Carregador Jfa 60a Bivolt Storm Com Medidor Cca</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>FONTE 120A LITE</t>
+          <t>FONTE 60A STORM</t>
         </is>
       </c>
       <c r="E37" t="n">
-        <v>621.65</v>
+        <v>487.48</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
@@ -2088,14 +2084,14 @@
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3734575855-fonte-automotiva-jfa-storm-lite-120a-bivolt-carregador-_JM#position%3D41%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D55873e73-b50f-4fcc-8494-96a90d82f083</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3743029223-fonte-carregador-jfa-60a-bivolt-storm-com-medidor-cca-_JM#position%3D35%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D35c14315-1db4-4282-b09c-aedc2fc22fb5</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>12/09/2024</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -2105,18 +2101,22 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Fonte Carregador Automotivo Jfa 40a Lite Storm Slim Bivolt Cor Preto</t>
+          <t>Fonte Jfa Storm 200a Bob Carregador Automático Bivolt Cor Bo</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Sem Modelo</t>
+          <t>FONTE 200 BOB</t>
         </is>
       </c>
       <c r="E38" t="n">
-        <v>320</v>
-      </c>
-      <c r="F38" t="inlineStr"/>
+        <v>643.0599999999999</v>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>Baixo</t>
+        </is>
+      </c>
       <c r="G38" t="inlineStr">
         <is>
           <t>NA</t>
@@ -2129,14 +2129,14 @@
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-automotivo-jfa-40a-lite-storm-slim-bivolt-cor-preto/p/MLB33435981?pdp_filters=seller_id:45588212#searchVariation=MLB33435981&amp;position=17&amp;search_layout=stack&amp;type=product&amp;tracking_id=55873e73-b50f-4fcc-8494-96a90d82f083</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3745714009-fonte-jfa-storm-200a-bob-carregador-automatico-bivolt-cor-bo-_JM#position%3D34%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D35c14315-1db4-4282-b09c-aedc2fc22fb5</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>12/09/2024</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -2146,22 +2146,18 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Controle De Long Distânc Jfa K1200 Resistente A Água -branco</t>
+          <t>Controle Jfa Red Line Longa Distância</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>K1200</t>
+          <t>Sem Modelo</t>
         </is>
       </c>
       <c r="E39" t="n">
-        <v>107.04</v>
-      </c>
-      <c r="F39" t="inlineStr">
-        <is>
-          <t>Acima</t>
-        </is>
-      </c>
+        <v>78.90000000000001</v>
+      </c>
+      <c r="F39" t="inlineStr"/>
       <c r="G39" t="inlineStr">
         <is>
           <t>NA</t>
@@ -2174,14 +2170,14 @@
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2711615958-controle-de-long-distnc-jfa-k1200-resistente-a-agua-branco-_JM#position%3D40%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D55873e73-b50f-4fcc-8494-96a90d82f083</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1342997104-controle-jfa-red-line-longa-distncia-_JM#position%3D33%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D35c14315-1db4-4282-b09c-aedc2fc22fb5</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>12/09/2024</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -2191,20 +2187,20 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Fonte Carregador 60a Jfa Automotiva Similar Stetsom 60a</t>
+          <t>Fonte Carregador Jfa 90a Bob Storm Slim Bivolt</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>FONTE 60A STORM</t>
+          <t>FONTE 90 BOB</t>
         </is>
       </c>
       <c r="E40" t="n">
-        <v>473.28</v>
+        <v>435.62</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
@@ -2214,19 +2210,19 @@
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>classico</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-4788856830-fonte-carregador-60a-jfa-automotiva-similar-stetsom-60a-_JM#position%3D45%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D55873e73-b50f-4fcc-8494-96a90d82f083</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2969540810-fonte-carregador-jfa-90a-bob-storm-slim-bivolt-_JM#position%3D47%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D35c14315-1db4-4282-b09c-aedc2fc22fb5</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>12/09/2024</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -2236,22 +2232,18 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Controle Longa Distância Jfa K1200 Preto/laranja 1200mt</t>
+          <t>Conversor Rca Comando Remoto Slim Jfa</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>K1200</t>
+          <t>Sem Modelo</t>
         </is>
       </c>
       <c r="E41" t="n">
-        <v>74.98999999999999</v>
-      </c>
-      <c r="F41" t="inlineStr">
-        <is>
-          <t>Acima</t>
-        </is>
-      </c>
+        <v>39.9</v>
+      </c>
+      <c r="F41" t="inlineStr"/>
       <c r="G41" t="inlineStr">
         <is>
           <t>NA</t>
@@ -2264,14 +2256,14 @@
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/controle-longa-distncia-jfa-k1200-pretolaranja-1200mt/p/MLB28357019?pdp_filters=seller_id:45588212#searchVariation=MLB28357019&amp;position=13&amp;search_layout=stack&amp;type=product&amp;tracking_id=55873e73-b50f-4fcc-8494-96a90d82f083</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1287843802-conversor-rca-comando-remoto-slim-jfa-_JM#position%3D46%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D35c14315-1db4-4282-b09c-aedc2fc22fb5</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>12/09/2024</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -2281,20 +2273,20 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Nova Fonte Automotiva 60a Amperes Jfa Carregador Storm Novo</t>
+          <t>Fonte Automotiva 120a Amperes Jfa Carregador Cor Preto</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>FONTE 60A STORM</t>
+          <t>FONTE 120A STORM</t>
         </is>
       </c>
       <c r="E42" t="n">
-        <v>473.28</v>
+        <v>739.14</v>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Acima</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
@@ -2304,19 +2296,19 @@
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>classico</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3745744615-nova-fonte-automotiva-60a-amperes-jfa-carregador-storm-novo-_JM#position%3D44%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D55873e73-b50f-4fcc-8494-96a90d82f083</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3738261267-fonte-automotiva-120a-amperes-jfa-carregador-cor-preto-_JM#position%3D45%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D35c14315-1db4-4282-b09c-aedc2fc22fb5</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>12/09/2024</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -2326,18 +2318,22 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Inversor JFA 49046 Senoidal Off-grid Motorhome Caminhão 1000w 12v/220v</t>
+          <t>Fonte Carregador Jfa Storm 70a Lite Bivolt - 12v</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Sem Modelo</t>
+          <t>FONTE 70A LITE</t>
         </is>
       </c>
       <c r="E43" t="n">
-        <v>1490</v>
-      </c>
-      <c r="F43" t="inlineStr"/>
+        <v>420.99</v>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>Baixo</t>
+        </is>
+      </c>
       <c r="G43" t="inlineStr">
         <is>
           <t>NA</t>
@@ -2350,14 +2346,14 @@
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/inversor-jfa-49046-senoidal-off-grid-motorhome-caminho-1000w-12v220v/p/MLB35970528?pdp_filters=seller_id:45588212#searchVariation=MLB35970528&amp;position=1&amp;search_layout=stack&amp;type=product&amp;tracking_id=8494a250-c223-400c-83f9-769e15f2569f</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3745673581-fonte-carregador-jfa-storm-70a-lite-bivolt-12v-_JM#position%3D44%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D35c14315-1db4-4282-b09c-aedc2fc22fb5</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>12/09/2024</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -2367,20 +2363,20 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Fonte Automotiva 70 Amperes Jfa Storm Red Line Cca Sci Smart</t>
+          <t>Nova Fonte Carregador Jfa Bob Storm 90a Bivolt Automático</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>FONTE 70A STORM</t>
+          <t>FONTE 90 BOB</t>
         </is>
       </c>
       <c r="E44" t="n">
-        <v>523.63</v>
+        <v>435.62</v>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
@@ -2390,19 +2386,19 @@
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>classico</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2621323642-fonte-automotiva-70-amperes-jfa-storm-red-line-cca-sci-smart-_JM#position%3D43%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D55873e73-b50f-4fcc-8494-96a90d82f083</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2969345061-nova-fonte-carregador-jfa-bob-storm-90a-bivolt-automatico-_JM#position%3D42%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D35c14315-1db4-4282-b09c-aedc2fc22fb5</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>12/09/2024</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -2412,42 +2408,42 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Fonte Jfa 70a Sci - Fonte Carregador Bateria Inteligente 12v</t>
+          <t>Fonte Carregador Jfa Bob Storm 90a Bivolt Automático Cor Pre</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>FONTE 70A STORM</t>
+          <t>FONTE 90 BOB</t>
         </is>
       </c>
       <c r="E45" t="n">
-        <v>523.63</v>
+        <v>435.62</v>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>FULL</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>classico</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-967159661-fonte-jfa-70a-sci-fonte-carregador-bateria-inteligente-12v-_JM#position%3D42%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D55873e73-b50f-4fcc-8494-96a90d82f083</t>
+          <t>https://produto.mercadolivre.com.br/MLB-4777417620-fonte-carregador-jfa-bob-storm-90a-bivolt-automatico-cor-pre-_JM#position%3D43%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D35c14315-1db4-4282-b09c-aedc2fc22fb5</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>12/09/2024</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -2457,18 +2453,22 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Sequenciador Voltimetro Digital Jfa Vs 5hi Led Vermelho 12v</t>
+          <t>Fonte Automotiva Jfa Storm Lite 70a Bivolt Carregador</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Sem Modelo</t>
+          <t>FONTE 70A LITE</t>
         </is>
       </c>
       <c r="E46" t="n">
-        <v>62</v>
-      </c>
-      <c r="F46" t="inlineStr"/>
+        <v>420.99</v>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>Baixo</t>
+        </is>
+      </c>
       <c r="G46" t="inlineStr">
         <is>
           <t>NA</t>
@@ -2476,19 +2476,19 @@
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>classico</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1385926083-sequenciador-voltimetro-digital-jfa-vs-5hi-led-vermelho-12v-_JM#position%3D48%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D55873e73-b50f-4fcc-8494-96a90d82f083</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3307314045-fonte-automotiva-jfa-storm-lite-70a-bivolt-carregador-_JM#position%3D41%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D35c14315-1db4-4282-b09c-aedc2fc22fb5</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>12/09/2024</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -2498,20 +2498,20 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa 60a Bivolt Storm Com Medidor Cca</t>
+          <t>Fonte Automotiva Jfa 200a Slim Bivolt Digital Voltímetro Som</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>FONTE 60A STORM</t>
+          <t>FONTE 200A STORM</t>
         </is>
       </c>
       <c r="E47" t="n">
-        <v>443.07</v>
+        <v>917.11</v>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Acima</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
@@ -2521,19 +2521,19 @@
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>premium</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-4804563360-fonte-carregador-jfa-60a-bivolt-storm-com-medidor-cca-_JM#position%3D47%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D55873e73-b50f-4fcc-8494-96a90d82f083</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2634603687-fonte-automotiva-jfa-200a-slim-bivolt-digital-voltimetro-som-_JM#position%3D50%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D35c14315-1db4-4282-b09c-aedc2fc22fb5</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>12/09/2024</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -2543,20 +2543,20 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa 120a Bob Slim Bivolt</t>
+          <t>Controle Longa Distancia Jfa K600 Branco/cinza 600 Mts</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>FONTE 120 BOB</t>
+          <t>K600</t>
         </is>
       </c>
       <c r="E48" t="n">
-        <v>525.75</v>
+        <v>52.9</v>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Acima</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
@@ -2571,14 +2571,14 @@
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3738219807-fonte-carregador-jfa-120a-bob-slim-bivolt-_JM#position%3D46%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D55873e73-b50f-4fcc-8494-96a90d82f083</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1550166542-controle-longa-distancia-jfa-k600-brancocinza-600-mts-_JM#position%3D49%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D35c14315-1db4-4282-b09c-aedc2fc22fb5</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>12/09/2024</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -2588,20 +2588,20 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Fonte Jfa Storm 200a Bob Carregador Automático Bivolt Cor Bo</t>
+          <t>Fonte Automotiva Jfa 120 Amperes Sistema Csi</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>FONTE 200 BOB</t>
+          <t>FONTE 120A STORM</t>
         </is>
       </c>
       <c r="E49" t="n">
-        <v>657.1900000000001</v>
+        <v>653.4299999999999</v>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Acima</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
@@ -2616,14 +2616,14 @@
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3745714009-fonte-jfa-storm-200a-bob-carregador-automatico-bivolt-cor-bo-_JM#position%3D2%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D8494a250-c223-400c-83f9-769e15f2569f</t>
+          <t>https://produto.mercadolivre.com.br/MLB-4784815156-fonte-automotiva-jfa-120-amperes-sistema-csi-_JM#position%3D48%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D35c14315-1db4-4282-b09c-aedc2fc22fb5</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>12/09/2024</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -2633,20 +2633,20 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Fonte Automotiva Digital Jfa Turbo 70a Bivolt Automática</t>
+          <t>Fonte Automotiva Jfa 200a 3000w Bivolt Automático Voltímetro</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>FONTE 70A STORM</t>
+          <t>FONTE 200A STORM</t>
         </is>
       </c>
       <c r="E50" t="n">
-        <v>493.42</v>
+        <v>917.11</v>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Acima</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
@@ -2656,19 +2656,19 @@
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>premium</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3742994147-fonte-automotiva-digital-jfa-turbo-70a-bivolt-automatica-_JM#position%3D7%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D8494a250-c223-400c-83f9-769e15f2569f</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3745721273-fonte-automotiva-jfa-200a-3000w-bivolt-automatico-voltimetro-_JM#position%3D2%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D769d8028-6271-473e-9d16-b066f2fa1baa</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>12/09/2024</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -2678,16 +2678,16 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Fonte Automotiva Jfa Storm Lite 200a Bivolt Carregador</t>
+          <t>Fonte Carregador Automotiva 120a Amperes Jfa Carregador</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>FONTE 200A LITE</t>
+          <t>FONTE 120A STORM</t>
         </is>
       </c>
       <c r="E51" t="n">
-        <v>739.26</v>
+        <v>694.92</v>
       </c>
       <c r="F51" t="inlineStr">
         <is>
@@ -2701,19 +2701,19 @@
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>premium</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3745644981-fonte-automotiva-jfa-storm-lite-200a-bivolt-carregador-_JM#position%3D6%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D8494a250-c223-400c-83f9-769e15f2569f</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3744191873-fonte-carregador-automotiva-120a-amperes-jfa-carregador-_JM#position%3D11%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D769d8028-6271-473e-9d16-b066f2fa1baa</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>12/09/2024</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -2723,16 +2723,16 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa 90a Bob Storm Slim Bivolt</t>
+          <t>Fonte Jfa 70a Sci - Fonte Carregador Bateria Inteligente 12v</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>FONTE 90 BOB</t>
+          <t>FONTE 70A STORM</t>
         </is>
       </c>
       <c r="E52" t="n">
-        <v>445.19</v>
+        <v>539.34</v>
       </c>
       <c r="F52" t="inlineStr">
         <is>
@@ -2741,24 +2741,24 @@
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FULL</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>premium</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3744090267-fonte-carregador-jfa-90a-bob-storm-slim-bivolt-_JM#position%3D5%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D8494a250-c223-400c-83f9-769e15f2569f</t>
+          <t>https://produto.mercadolivre.com.br/MLB-967159661-fonte-jfa-70a-sci-fonte-carregador-bateria-inteligente-12v-_JM#position%3D12%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D769d8028-6271-473e-9d16-b066f2fa1baa</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>12/09/2024</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -2768,18 +2768,22 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Fonte Carregador Automotivo Jfa 40a Storm Lite 12v Bivolt</t>
+          <t>Nova Fonte Carregador Jfa Bob Storm 90a Bivolt Automático</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>Sem Modelo</t>
+          <t>FONTE 90 BOB</t>
         </is>
       </c>
       <c r="E53" t="n">
-        <v>402.79</v>
-      </c>
-      <c r="F53" t="inlineStr"/>
+        <v>456.36</v>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
       <c r="G53" t="inlineStr">
         <is>
           <t>NA</t>
@@ -2787,19 +2791,19 @@
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>premium</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3470527117-fonte-carregador-automotivo-jfa-40a-storm-lite-12v-bivolt-_JM#position%3D4%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D8494a250-c223-400c-83f9-769e15f2569f</t>
+          <t>https://produto.mercadolivre.com.br/MLB-4781874148-nova-fonte-carregador-jfa-bob-storm-90a-bivolt-automatico-_JM#position%3D10%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D769d8028-6271-473e-9d16-b066f2fa1baa</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>12/09/2024</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -2809,22 +2813,18 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Controle De Long Distânc Jfa K1200 Resistente A Água -branco</t>
+          <t>Sequenciador Voltimetro Digital Jfa Vs 5hi Led Vermelho 12v</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>K1200</t>
+          <t>Sem Modelo</t>
         </is>
       </c>
       <c r="E54" t="n">
-        <v>96.23</v>
-      </c>
-      <c r="F54" t="inlineStr">
-        <is>
-          <t>Acima</t>
-        </is>
-      </c>
+        <v>62</v>
+      </c>
+      <c r="F54" t="inlineStr"/>
       <c r="G54" t="inlineStr">
         <is>
           <t>NA</t>
@@ -2832,19 +2832,19 @@
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>premium</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2711633426-controle-de-long-distnc-jfa-k1200-resistente-a-agua-branco-_JM#position%3D3%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D8494a250-c223-400c-83f9-769e15f2569f</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1385926083-sequenciador-voltimetro-digital-jfa-vs-5hi-led-vermelho-12v-_JM#position%3D9%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D769d8028-6271-473e-9d16-b066f2fa1baa</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>12/09/2024</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -2854,16 +2854,16 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>Controle Remoto Universal Longa Distância Jfa K1200 Azul</t>
+          <t>Fonte Carregador Jfa Bob Storm 200a Bivolt</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>K1200</t>
+          <t>FONTE 200 BOB</t>
         </is>
       </c>
       <c r="E55" t="n">
-        <v>78.98999999999999</v>
+        <v>715.66</v>
       </c>
       <c r="F55" t="inlineStr">
         <is>
@@ -2882,14 +2882,14 @@
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1261626025-controle-remoto-universal-longa-distncia-jfa-k1200-azul-_JM#position%3D10%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D8494a250-c223-400c-83f9-769e15f2569f</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3745695931-fonte-carregador-jfa-bob-storm-200a-bivolt-_JM#position%3D8%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D769d8028-6271-473e-9d16-b066f2fa1baa</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>12/09/2024</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -2899,16 +2899,16 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>Fonte Automotiva Jfa Storm Lite 120a Bivolt Carregador</t>
+          <t>Fonte Automotiva Jfa Storm Lite 200a Bivolt Carregador</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>FONTE 120A LITE</t>
+          <t>FONTE 200A LITE</t>
         </is>
       </c>
       <c r="E56" t="n">
-        <v>581.4299999999999</v>
+        <v>738.22</v>
       </c>
       <c r="F56" t="inlineStr">
         <is>
@@ -2922,19 +2922,19 @@
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>premium</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-4801307124-fonte-automotiva-jfa-storm-lite-120a-bivolt-carregador-_JM#position%3D9%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D8494a250-c223-400c-83f9-769e15f2569f</t>
+          <t>https://produto.mercadolivre.com.br/MLB-4728106950-fonte-automotiva-jfa-storm-lite-200a-bivolt-carregador-_JM#position%3D6%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D769d8028-6271-473e-9d16-b066f2fa1baa</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>12/09/2024</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -2944,16 +2944,16 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Fonte Automotiva Jfa Storm 200a Bob Carregador Automático Bi</t>
+          <t>Fonte Carregador Jfa 120a Storm Bivolt Com Medidor Cca</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>FONTE 200 BOB</t>
+          <t>FONTE 120A STORM</t>
         </is>
       </c>
       <c r="E57" t="n">
-        <v>657.1900000000001</v>
+        <v>694.92</v>
       </c>
       <c r="F57" t="inlineStr">
         <is>
@@ -2967,19 +2967,19 @@
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>premium</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-4801268344-fonte-automotiva-jfa-storm-200a-bob-carregador-automatico-bi-_JM#position%3D8%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D8494a250-c223-400c-83f9-769e15f2569f</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2166734841-fonte-carregador-jfa-120a-storm-bivolt-com-medidor-cca-_JM#position%3D7%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D769d8028-6271-473e-9d16-b066f2fa1baa</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>12/09/2024</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -2989,7 +2989,7 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>Controle Longa Distancia Completo Jfa Branco / Cinza K600</t>
+          <t>Jfa K600 - Controle Longa Distancia Completo + Barato Brasil</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -2998,11 +2998,11 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>75.98999999999999</v>
+        <v>52.9</v>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>Acima</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
@@ -3012,19 +3012,19 @@
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>classico</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1550162941-controle-longa-distancia-completo-jfa-branco-cinza-k600-_JM#position%3D14%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D8494a250-c223-400c-83f9-769e15f2569f</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1260859631-jfa-k600-controle-longa-distancia-completo-barato-brasil-_JM#position%3D5%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D769d8028-6271-473e-9d16-b066f2fa1baa</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>12/09/2024</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -3034,16 +3034,16 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>Jfa K1200 Controle Longa Distancia 1200 Metros Cores</t>
+          <t>Fonte Carregador Jfa Bob Storm 200a Bivolt Automático</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>K1200</t>
+          <t>FONTE 200 BOB</t>
         </is>
       </c>
       <c r="E59" t="n">
-        <v>74.98999999999999</v>
+        <v>715.66</v>
       </c>
       <c r="F59" t="inlineStr">
         <is>
@@ -3057,19 +3057,19 @@
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>premium</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1261589329-jfa-k1200-controle-longa-distancia-1200-metros-cores-_JM#position%3D13%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D8494a250-c223-400c-83f9-769e15f2569f</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2797262669-fonte-carregador-jfa-bob-storm-200a-bivolt-automatico-_JM#position%3D4%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D769d8028-6271-473e-9d16-b066f2fa1baa</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>12/09/2024</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -3079,20 +3079,20 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>Controle Longa Distancia Jfa K1200 Preto E Verde Lançamento</t>
+          <t>Controle Longa Distância K600 Preto/laranja 600 Metros Jfa</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>K1200</t>
+          <t>K600</t>
         </is>
       </c>
       <c r="E60" t="n">
-        <v>65.16</v>
+        <v>52.9</v>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>Acima</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
@@ -3107,14 +3107,14 @@
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-4804716750-controle-longa-distancia-jfa-k1200-preto-e-verde-lancamento-_JM#position%3D12%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D8494a250-c223-400c-83f9-769e15f2569f</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1550168241-controle-longa-distncia-k600-pretolaranja-600-metros-jfa-_JM#position%3D3%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D769d8028-6271-473e-9d16-b066f2fa1baa</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>12/09/2024</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
@@ -3124,16 +3124,16 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>Fonte Automotiva 120a Amperes Jfa Carregador Cor Preto</t>
+          <t>Fonte Carregador Jfa 60a Lite Storm Slim Bivolt</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>FONTE 120A STORM</t>
+          <t>FONTE 60A LITE</t>
         </is>
       </c>
       <c r="E61" t="n">
-        <v>739.14</v>
+        <v>402.14</v>
       </c>
       <c r="F61" t="inlineStr">
         <is>
@@ -3147,19 +3147,19 @@
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>premium</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3738261267-fonte-automotiva-120a-amperes-jfa-carregador-cor-preto-_JM#position%3D11%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D8494a250-c223-400c-83f9-769e15f2569f</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3264927985-fonte-carregador-jfa-60a-lite-storm-slim-bivolt-_JM#position%3D20%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D769d8028-6271-473e-9d16-b066f2fa1baa</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>12/09/2024</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -3169,16 +3169,16 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>Controle Longa Distancia K1200 Jfa Preto Com Laranja</t>
+          <t>Fonte Automotiva Jfa Storm 200a Bob Carregador Automático Bi</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>K1200</t>
+          <t>FONTE 200 BOB</t>
         </is>
       </c>
       <c r="E62" t="n">
-        <v>74.98999999999999</v>
+        <v>715.66</v>
       </c>
       <c r="F62" t="inlineStr">
         <is>
@@ -3192,19 +3192,19 @@
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>premium</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2734179419-controle-longa-distancia-k1200-jfa-preto-com-laranja-_JM#position%3D17%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D8494a250-c223-400c-83f9-769e15f2569f</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3742956287-fonte-automotiva-jfa-storm-200a-bob-carregador-automatico-bi-_JM#position%3D19%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D769d8028-6271-473e-9d16-b066f2fa1baa</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>12/09/2024</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -3214,16 +3214,16 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa Bob Storm 200a Bivolt Automático</t>
+          <t>Fonte Carregador Jfa 60a Lite Storm Automotivo Slim Bivolt</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>FONTE 200 BOB</t>
+          <t>FONTE 60A LITE</t>
         </is>
       </c>
       <c r="E63" t="n">
-        <v>657.1900000000001</v>
+        <v>402.14</v>
       </c>
       <c r="F63" t="inlineStr">
         <is>
@@ -3237,19 +3237,19 @@
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>premium</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-4784710464-fonte-carregador-jfa-bob-storm-200a-bivolt-automatico-_JM#position%3D16%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D8494a250-c223-400c-83f9-769e15f2569f</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3738299303-fonte-carregador-jfa-60a-lite-storm-automotivo-slim-bivolt-_JM#position%3D18%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D769d8028-6271-473e-9d16-b066f2fa1baa</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>12/09/2024</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -3259,16 +3259,16 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>Fonte Carregador Automotivo Jfa 120a Storm Lite 12v Bivolt C</t>
+          <t xml:space="preserve"> Jfa Fonte Carregador Storm Lite 60a 3000 W Preto</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>FONTE 120A LITE</t>
+          <t>FONTE 60A LITE</t>
         </is>
       </c>
       <c r="E64" t="n">
-        <v>581.4299999999999</v>
+        <v>402.14</v>
       </c>
       <c r="F64" t="inlineStr">
         <is>
@@ -3282,19 +3282,19 @@
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>premium</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3738270167-fonte-carregador-automotivo-jfa-120a-storm-lite-12v-bivolt-c-_JM#position%3D15%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D8494a250-c223-400c-83f9-769e15f2569f</t>
+          <t>https://produto.mercadolivre.com.br/MLB-4777445178-jfa-fonte-carregador-storm-lite-60a-3000-w-preto-_JM#position%3D17%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D769d8028-6271-473e-9d16-b066f2fa1baa</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>12/09/2024</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -3304,18 +3304,22 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>Inversor Jfa 49046 Senoidal Off-grid Motorhome Caminhão 1000</t>
+          <t>Fonte Carregador Jfa Storm Lite 60a 3000 W Preto</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>Sem Modelo</t>
+          <t>FONTE 60A LITE</t>
         </is>
       </c>
       <c r="E65" t="n">
-        <v>1500</v>
-      </c>
-      <c r="F65" t="inlineStr"/>
+        <v>402.14</v>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
       <c r="G65" t="inlineStr">
         <is>
           <t>NA</t>
@@ -3328,14 +3332,14 @@
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-4781854842-inversor-jfa-49046-senoidal-off-grid-motorhome-caminho-1000-_JM#position%3D19%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D8494a250-c223-400c-83f9-769e15f2569f</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3745708481-fonte-carregador-jfa-storm-lite-60a-3000-w-preto-_JM#position%3D16%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D769d8028-6271-473e-9d16-b066f2fa1baa</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>12/09/2024</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
@@ -3345,16 +3349,16 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>Controle Longa Distancia Jfa K1200 Preto E Verde Lançamento</t>
+          <t>Fonte Carregador Jfa 120a Bob Slim Bivolt Cor Preto</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>K1200</t>
+          <t>FONTE 120 BOB</t>
         </is>
       </c>
       <c r="E66" t="n">
-        <v>64.87</v>
+        <v>555.9299999999999</v>
       </c>
       <c r="F66" t="inlineStr">
         <is>
@@ -3368,19 +3372,19 @@
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>premium</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2734184116-controle-longa-distancia-jfa-k1200-preto-e-verde-lancamento-_JM#position%3D18%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D8494a250-c223-400c-83f9-769e15f2569f</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3744090639-fonte-carregador-jfa-120a-bob-slim-bivolt-cor-preto-_JM#position%3D15%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D769d8028-6271-473e-9d16-b066f2fa1baa</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>12/09/2024</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -3390,20 +3394,20 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>Controle Longa Distancia Jfa K1200 Preto E Verde Lançamento</t>
+          <t>Fonte Carregador Jfa 70a Bivolt Com Medidor Cca</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>K1200</t>
+          <t>FONTE 70A STORM</t>
         </is>
       </c>
       <c r="E67" t="n">
-        <v>66</v>
+        <v>539.34</v>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>Baixo</t>
+          <t>Acima</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
@@ -3418,14 +3422,14 @@
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3743030073-controle-longa-distancia-jfa-k1200-preto-e-verde-lancamento-_JM#position%3D23%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D8494a250-c223-400c-83f9-769e15f2569f</t>
+          <t>https://produto.mercadolivre.com.br/MLB-4801332402-fonte-carregador-jfa-70a-bivolt-com-medidor-cca-_JM#position%3D48%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D769d8028-6271-473e-9d16-b066f2fa1baa</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>12/09/2024</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
@@ -3435,16 +3439,16 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa Bob Storm 200a Bivolt Automático</t>
+          <t>Fonte Automotiva 70 Amperes Jfa Storm Carregador Com Cor Pre</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>FONTE 200 BOB</t>
+          <t>FONTE 70A STORM</t>
         </is>
       </c>
       <c r="E68" t="n">
-        <v>731.39</v>
+        <v>539.34</v>
       </c>
       <c r="F68" t="inlineStr">
         <is>
@@ -3463,14 +3467,14 @@
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2797262669-fonte-carregador-jfa-bob-storm-200a-bivolt-automatico-_JM#position%3D22%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D8494a250-c223-400c-83f9-769e15f2569f</t>
+          <t>https://produto.mercadolivre.com.br/MLB-4771819848-fonte-automotiva-70-amperes-jfa-storm-carregador-com-cor-pre-_JM#position%3D49%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D769d8028-6271-473e-9d16-b066f2fa1baa</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>12/09/2024</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
@@ -3480,20 +3484,20 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>Controle Longa Distancia Jfa K600 Branco/cinza 600 Mts</t>
+          <t>Controle Remoto Universal Longa Distância Jfa K1200 2 Cores</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>K600</t>
+          <t>K1200</t>
         </is>
       </c>
       <c r="E69" t="n">
-        <v>70.98999999999999</v>
+        <v>59.99</v>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>Acima</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
@@ -3503,19 +3507,19 @@
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>premium</t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3744115737-controle-longa-distancia-jfa-k600-brancocinza-600-mts-_JM#position%3D21%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D8494a250-c223-400c-83f9-769e15f2569f</t>
+          <t>https://produto.mercadolivre.com.br/MLB-4771768486-controle-remoto-universal-longa-distncia-jfa-k1200-2-cores-_JM#position%3D47%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D769d8028-6271-473e-9d16-b066f2fa1baa</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>12/09/2024</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
@@ -3525,18 +3529,22 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t xml:space="preserve">Amplificador  Processador Jfa Ap380wx4 </t>
+          <t>Fonte Carregador Automotiva Jfa 200a Slim Bivolt Voltímetro</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>Sem Modelo</t>
+          <t>FONTE 200A STORM</t>
         </is>
       </c>
       <c r="E70" t="n">
-        <v>569</v>
-      </c>
-      <c r="F70" t="inlineStr"/>
+        <v>873.4400000000001</v>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
       <c r="G70" t="inlineStr">
         <is>
           <t>NA</t>
@@ -3544,19 +3552,19 @@
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>classico</t>
         </is>
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3682740181-amplificador-processador-jfa-ap380wx4-_JM#position%3D35%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D8494a250-c223-400c-83f9-769e15f2569f</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3749268007-fonte-carregador-automotiva-jfa-200a-slim-bivolt-voltimetro-_JM#position%3D46%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D769d8028-6271-473e-9d16-b066f2fa1baa</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>12/09/2024</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
@@ -3566,16 +3574,16 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>Fonte Carregador Automotivo Jfa 120a Storm Lite 12v Bivolt C</t>
+          <t>Fonte Automotiva Jfa 120a Slim Bivolt Voltímetro Digital Som</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>FONTE 120A LITE</t>
+          <t>FONTE 120A STORM</t>
         </is>
       </c>
       <c r="E71" t="n">
-        <v>621.65</v>
+        <v>739.14</v>
       </c>
       <c r="F71" t="inlineStr">
         <is>
@@ -3589,19 +3597,19 @@
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>classico</t>
         </is>
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-4788932454-fonte-carregador-automotivo-jfa-120a-storm-lite-12v-bivolt-c-_JM#position%3D39%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D8494a250-c223-400c-83f9-769e15f2569f</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3744190501-fonte-automotiva-jfa-120a-slim-bivolt-voltimetro-digital-som-_JM#position%3D45%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D769d8028-6271-473e-9d16-b066f2fa1baa</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>12/09/2024</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
@@ -3611,20 +3619,20 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa 120a Bob Slim Bivolt</t>
+          <t>Controle Longa Distancia Jfa K600 Branco Com Cinza</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>FONTE 120 BOB</t>
+          <t>K600</t>
         </is>
       </c>
       <c r="E72" t="n">
-        <v>525.75</v>
+        <v>57.9</v>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>Acima</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
@@ -3634,19 +3642,19 @@
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>premium</t>
         </is>
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-4788894912-fonte-carregador-jfa-120a-bob-slim-bivolt-_JM#position%3D49%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D8494a250-c223-400c-83f9-769e15f2569f</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3742955791-controle-longa-distancia-jfa-k600-branco-com-cinza-_JM#position%3D44%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D769d8028-6271-473e-9d16-b066f2fa1baa</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>12/09/2024</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
@@ -3656,7 +3664,7 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>Controle Remoto Universal Longa Distância Jfa K1200 Azul</t>
+          <t>Controle De Long Distânc Jfa K1200 Resistente A Água -branco</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
@@ -3665,7 +3673,7 @@
         </is>
       </c>
       <c r="E73" t="n">
-        <v>74.98999999999999</v>
+        <v>96.23</v>
       </c>
       <c r="F73" t="inlineStr">
         <is>
@@ -3684,14 +3692,14 @@
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-4781854750-controle-remoto-universal-longa-distncia-jfa-k1200-azul-_JM#position%3D48%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D8494a250-c223-400c-83f9-769e15f2569f</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3742943457-controle-de-long-distnc-jfa-k1200-resistente-a-agua-branco-_JM#position%3D43%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D769d8028-6271-473e-9d16-b066f2fa1baa</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>12/09/2024</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
@@ -3701,20 +3709,20 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>Nova Fonte Carregador Jfa Bob Storm 90a Bivolt Automático</t>
+          <t>Controle Longa Distancia K1200 Jfa Preto Com Laranja</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>FONTE 90 BOB</t>
+          <t>K1200</t>
         </is>
       </c>
       <c r="E74" t="n">
-        <v>466.39</v>
+        <v>57.99</v>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>Acima</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
@@ -3724,19 +3732,19 @@
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>classico</t>
         </is>
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-4781874148-nova-fonte-carregador-jfa-bob-storm-90a-bivolt-automatico-_JM#position%3D47%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D8494a250-c223-400c-83f9-769e15f2569f</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2734179419-controle-longa-distancia-k1200-jfa-preto-com-laranja-_JM#position%3D42%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D769d8028-6271-473e-9d16-b066f2fa1baa</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>12/09/2024</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
@@ -3746,16 +3754,16 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>Fonte Automotiva Jfa Storm Lite 70a Bivolt Carregador</t>
+          <t>Fonte Carregador Automotiva 200a Jfa Storm Bivolt Automático</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>FONTE 70A LITE</t>
+          <t>FONTE 200A STORM</t>
         </is>
       </c>
       <c r="E75" t="n">
-        <v>471.01</v>
+        <v>917.11</v>
       </c>
       <c r="F75" t="inlineStr">
         <is>
@@ -3774,14 +3782,14 @@
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3745632487-fonte-automotiva-jfa-storm-lite-70a-bivolt-carregador-_JM#position%3D46%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D8494a250-c223-400c-83f9-769e15f2569f</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2618547515-fonte-carregador-automotiva-200a-jfa-storm-bivolt-automatico-_JM#position%3D41%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D769d8028-6271-473e-9d16-b066f2fa1baa</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>12/09/2024</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
@@ -3791,20 +3799,20 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>Controle De Long Distânc Jfa K1200 Resistente A Água -branco</t>
+          <t>Controle Longa Distancia Completo Jfa Branco / Cinza K600</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>K1200</t>
+          <t>K600</t>
         </is>
       </c>
       <c r="E76" t="n">
-        <v>107.04</v>
+        <v>57.9</v>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>Acima</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
@@ -3819,14 +3827,14 @@
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-4777429994-controle-de-long-distnc-jfa-k1200-resistente-a-agua-branco-_JM#position%3D45%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D8494a250-c223-400c-83f9-769e15f2569f</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1550162941-controle-longa-distancia-completo-jfa-branco-cinza-k600-_JM#position%3D40%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D769d8028-6271-473e-9d16-b066f2fa1baa</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>12/09/2024</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
@@ -3836,20 +3844,20 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa 60a Bivolt Storm Com Medidor Cca</t>
+          <t>Fonte Carregador Automotivo Jfa 120a Storm Lite 12v Bivolt C</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>FONTE 60A STORM</t>
+          <t>FONTE 120A LITE</t>
         </is>
       </c>
       <c r="E77" t="n">
-        <v>473.28</v>
+        <v>552.35</v>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
@@ -3859,19 +3867,19 @@
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>classico</t>
         </is>
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3743029223-fonte-carregador-jfa-60a-bivolt-storm-com-medidor-cca-_JM#position%3D44%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D8494a250-c223-400c-83f9-769e15f2569f</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3742944531-fonte-carregador-automotivo-jfa-120a-storm-lite-12v-bivolt-c-_JM#position%3D39%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D769d8028-6271-473e-9d16-b066f2fa1baa</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>12/09/2024</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
@@ -3881,16 +3889,16 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa 120a Lite Storm Slim Bivolt</t>
+          <t>Fonte Automotiva Jfa 200a 3000w Bivolt Automático Voltímetro</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>FONTE 120A LITE</t>
+          <t>FONTE 200A STORM</t>
         </is>
       </c>
       <c r="E78" t="n">
-        <v>621.65</v>
+        <v>873.4400000000001</v>
       </c>
       <c r="F78" t="inlineStr">
         <is>
@@ -3904,19 +3912,19 @@
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>classico</t>
         </is>
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-4804612884-fonte-carregador-jfa-120a-lite-storm-slim-bivolt-_JM#position%3D43%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D8494a250-c223-400c-83f9-769e15f2569f</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3734471791-fonte-automotiva-jfa-200a-3000w-bivolt-automatico-voltimetro-_JM#position%3D38%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D769d8028-6271-473e-9d16-b066f2fa1baa</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>12/09/2024</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
@@ -3926,20 +3934,20 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa 120a Bob Slim Bivolt Cor Preto</t>
+          <t>Fonte Carregador Jfa Bob Storm 200a Bivolt Automático</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>FONTE 120 BOB</t>
+          <t>FONTE 200 BOB</t>
         </is>
       </c>
       <c r="E79" t="n">
-        <v>568.15</v>
+        <v>643.0599999999999</v>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>Acima</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
@@ -3949,19 +3957,19 @@
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>classico</t>
         </is>
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3744090639-fonte-carregador-jfa-120a-bob-slim-bivolt-cor-preto-_JM#position%3D42%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D8494a250-c223-400c-83f9-769e15f2569f</t>
+          <t>https://produto.mercadolivre.com.br/MLB-4784710464-fonte-carregador-jfa-bob-storm-200a-bivolt-automatico-_JM#position%3D37%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D769d8028-6271-473e-9d16-b066f2fa1baa</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>12/09/2024</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
@@ -3971,16 +3979,16 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>Fonte Carregador Automotivo Jfa 120a Storm Lite 12v Bivolt C</t>
+          <t xml:space="preserve">Fonte Automotiva Jfa 200a Slim Voltímetro Digital </t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>FONTE 120A LITE</t>
+          <t>FONTE 200A STORM</t>
         </is>
       </c>
       <c r="E80" t="n">
-        <v>621.65</v>
+        <v>917.11</v>
       </c>
       <c r="F80" t="inlineStr">
         <is>
@@ -3999,14 +4007,14 @@
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-4801296910-fonte-carregador-automotivo-jfa-120a-storm-lite-12v-bivolt-c-_JM#position%3D41%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D8494a250-c223-400c-83f9-769e15f2569f</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2649809336-fonte-automotiva-jfa-200a-slim-voltimetro-digital-_JM#position%3D36%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D769d8028-6271-473e-9d16-b066f2fa1baa</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>12/09/2024</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
@@ -4016,20 +4024,20 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>Controle De Long Distânc Jfa K1200 Resistente A Água -branco</t>
+          <t>Fonte Automotiva 120 A Jfa Carregador</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>K1200</t>
+          <t>FONTE 120A STORM</t>
         </is>
       </c>
       <c r="E81" t="n">
-        <v>107.04</v>
+        <v>653.4299999999999</v>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>Acima</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
@@ -4039,19 +4047,19 @@
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>classico</t>
         </is>
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3734549905-controle-de-long-distnc-jfa-k1200-resistente-a-agua-branco-_JM#position%3D40%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D8494a250-c223-400c-83f9-769e15f2569f</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3738259271-fonte-automotiva-120-a-jfa-carregador-_JM#position%3D35%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D769d8028-6271-473e-9d16-b066f2fa1baa</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>12/09/2024</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
@@ -4061,22 +4069,18 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa Bob Storm 90a Bivolt Automático Cor Pre</t>
+          <t>Fonte Carregador Automotivo Jfa 40a Storm Lite 12v Bivolt</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>FONTE 90 BOB</t>
+          <t>Sem Modelo</t>
         </is>
       </c>
       <c r="E82" t="n">
-        <v>466.39</v>
-      </c>
-      <c r="F82" t="inlineStr">
-        <is>
-          <t>Acima</t>
-        </is>
-      </c>
+        <v>401</v>
+      </c>
+      <c r="F82" t="inlineStr"/>
       <c r="G82" t="inlineStr">
         <is>
           <t>NA</t>
@@ -4084,19 +4088,19 @@
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>classico</t>
         </is>
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-4777392272-fonte-carregador-jfa-bob-storm-90a-bivolt-automatico-cor-pre-_JM#position%3D38%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D8494a250-c223-400c-83f9-769e15f2569f</t>
+          <t>https://produto.mercadolivre.com.br/MLB-4103854576-fonte-carregador-automotivo-jfa-40a-storm-lite-12v-bivolt-_JM#position%3D34%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D769d8028-6271-473e-9d16-b066f2fa1baa</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>12/09/2024</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
@@ -4106,20 +4110,20 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa 120a Bob Slim Bivolt Cor Preto</t>
+          <t>Fonte Automotiva Jfa Storm Lite 200a Bivolt Carregador</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>FONTE 120 BOB</t>
+          <t>FONTE 200A LITE</t>
         </is>
       </c>
       <c r="E83" t="n">
-        <v>525.75</v>
+        <v>702.29</v>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>Acima</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
@@ -4134,14 +4138,14 @@
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-4777471152-fonte-carregador-jfa-120a-bob-slim-bivolt-cor-preto-_JM#position%3D37%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D8494a250-c223-400c-83f9-769e15f2569f</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3745644981-fonte-automotiva-jfa-storm-lite-200a-bivolt-carregador-_JM#position%3D33%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D769d8028-6271-473e-9d16-b066f2fa1baa</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>12/09/2024</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
@@ -4151,18 +4155,22 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t xml:space="preserve">Amplificador  Processador Jfa Ap380wx4 </t>
+          <t>Fonte Automotiva Jfa Storm 200a Bob Carregador Automático Bi</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>Sem Modelo</t>
+          <t>FONTE 200 BOB</t>
         </is>
       </c>
       <c r="E84" t="n">
-        <v>409</v>
-      </c>
-      <c r="F84" t="inlineStr"/>
+        <v>643.0599999999999</v>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>Baixo</t>
+        </is>
+      </c>
       <c r="G84" t="inlineStr">
         <is>
           <t>NA</t>
@@ -4175,14 +4183,14 @@
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3695901027-amplificador-processador-jfa-ap380wx4-_JM#position%3D36%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D8494a250-c223-400c-83f9-769e15f2569f</t>
+          <t>https://produto.mercadolivre.com.br/MLB-4801268344-fonte-automotiva-jfa-storm-200a-bob-carregador-automatico-bi-_JM#position%3D32%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D769d8028-6271-473e-9d16-b066f2fa1baa</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>12/09/2024</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
@@ -4192,18 +4200,22 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>Jfa Vs5hi - Sequenciador Voltímetro Medidor Bateria Digital</t>
+          <t>Fonte Automotiva Jfa Storm Lite 60a Bivolt Carregador</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>Sem Modelo</t>
+          <t>FONTE 60A LITE</t>
         </is>
       </c>
       <c r="E85" t="n">
-        <v>57.99</v>
-      </c>
-      <c r="F85" t="inlineStr"/>
+        <v>375.9</v>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>Baixo</t>
+        </is>
+      </c>
       <c r="G85" t="inlineStr">
         <is>
           <t>NA</t>
@@ -4216,14 +4228,14 @@
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3744102851-jfa-vs5hi-sequenciador-voltimetro-medidor-bateria-digital-_JM#position%3D34%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D8494a250-c223-400c-83f9-769e15f2569f</t>
+          <t>https://produto.mercadolivre.com.br/MLB-4784776014-fonte-automotiva-jfa-storm-lite-60a-bivolt-carregador-_JM#position%3D31%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D769d8028-6271-473e-9d16-b066f2fa1baa</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>12/09/2024</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
@@ -4233,18 +4245,22 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t xml:space="preserve">Conversor Jfa Slim Rca Comando Remoto </t>
+          <t>Fonte Automotiva Digital Jfa Turbo 70a Bivolt Automática</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>Sem Modelo</t>
+          <t>FONTE 70A STORM</t>
         </is>
       </c>
       <c r="E86" t="n">
-        <v>50</v>
-      </c>
-      <c r="F86" t="inlineStr"/>
+        <v>508.22</v>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>Baixo</t>
+        </is>
+      </c>
       <c r="G86" t="inlineStr">
         <is>
           <t>NA</t>
@@ -4252,19 +4268,19 @@
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>classico</t>
         </is>
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1287843800-conversor-jfa-slim-rca-comando-remoto-_JM#position%3D33%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D8494a250-c223-400c-83f9-769e15f2569f</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3742994147-fonte-automotiva-digital-jfa-turbo-70a-bivolt-automatica-_JM#position%3D30%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D769d8028-6271-473e-9d16-b066f2fa1baa</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>12/09/2024</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
@@ -4274,18 +4290,22 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>Voltímetro Digital Com Sequenciador E Proteção Jfa Vs5hi</t>
+          <t>Fonte Carregador Jfa 120a Bob Slim Bivolt</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>Sem Modelo</t>
+          <t>FONTE 120 BOB</t>
         </is>
       </c>
       <c r="E87" t="n">
-        <v>61.2</v>
-      </c>
-      <c r="F87" t="inlineStr"/>
+        <v>514.45</v>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>Baixo</t>
+        </is>
+      </c>
       <c r="G87" t="inlineStr">
         <is>
           <t>NA</t>
@@ -4298,14 +4318,14 @@
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1385929114-voltimetro-digital-com-sequenciador-e-proteco-jfa-vs5hi-_JM#position%3D32%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D8494a250-c223-400c-83f9-769e15f2569f</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3738219807-fonte-carregador-jfa-120a-bob-slim-bivolt-_JM#position%3D28%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D769d8028-6271-473e-9d16-b066f2fa1baa</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>12/09/2024</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
@@ -4315,20 +4335,20 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>Controle Longa Distancia K1200 Jfa Preto Com Laranja</t>
+          <t>Controle Longa Distância Jfa K600 Completo Preto E Verde</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>K1200</t>
+          <t>K600</t>
         </is>
       </c>
       <c r="E88" t="n">
-        <v>78.98999999999999</v>
+        <v>57.9</v>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>Acima</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
@@ -4343,14 +4363,14 @@
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-4801346146-controle-longa-distancia-k1200-jfa-preto-com-laranja-_JM#position%3D31%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D8494a250-c223-400c-83f9-769e15f2569f</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1260878193-controle-longa-distncia-jfa-k600-completo-preto-e-verde-_JM#position%3D27%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D769d8028-6271-473e-9d16-b066f2fa1baa</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>12/09/2024</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
@@ -4360,20 +4380,20 @@
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>Controle Remoto Universal Longa Jfa K1200 Preto C/ Verde</t>
+          <t>Fonte Automotivo Carregador Jfa Sci 120-a Smart Charger</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>K1200</t>
+          <t>FONTE 120A STORM</t>
         </is>
       </c>
       <c r="E89" t="n">
-        <v>65.16</v>
+        <v>653.4299999999999</v>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>Acima</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="G89" t="inlineStr">
@@ -4388,14 +4408,14 @@
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-4793815540-controle-remoto-universal-longa-jfa-k1200-preto-c-verde-_JM#position%3D30%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D8494a250-c223-400c-83f9-769e15f2569f</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1776630026-fonte-automotivo-carregador-jfa-sci-120-a-smart-charger-_JM#position%3D26%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D769d8028-6271-473e-9d16-b066f2fa1baa</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>12/09/2024</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
@@ -4405,16 +4425,16 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>Fonte Automotiva Digital Jfa Turbo 70a Bivolt Automática</t>
+          <t>Controle De Long Distânc Jfa K1200 Resistente A Água -branco</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>FONTE 70A STORM</t>
+          <t>K1200</t>
         </is>
       </c>
       <c r="E90" t="n">
-        <v>519.39</v>
+        <v>107.04</v>
       </c>
       <c r="F90" t="inlineStr">
         <is>
@@ -4428,19 +4448,19 @@
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>premium</t>
         </is>
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-4788895756-fonte-automotiva-digital-jfa-turbo-70a-bivolt-automatica-_JM#position%3D29%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D8494a250-c223-400c-83f9-769e15f2569f</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2711615958-controle-de-long-distnc-jfa-k1200-resistente-a-agua-branco-_JM#position%3D25%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D769d8028-6271-473e-9d16-b066f2fa1baa</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>12/09/2024</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
@@ -4450,16 +4470,16 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa 70a Bivolt Com Medidor Cca</t>
+          <t>Controle Jfa Acqua 1200 Metros Longa Distancia Lançamento</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>FONTE 70A STORM</t>
+          <t>ACQUA</t>
         </is>
       </c>
       <c r="E91" t="n">
-        <v>551.1900000000001</v>
+        <v>107.04</v>
       </c>
       <c r="F91" t="inlineStr">
         <is>
@@ -4478,14 +4498,14 @@
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-4801332402-fonte-carregador-jfa-70a-bivolt-com-medidor-cca-_JM#position%3D28%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D8494a250-c223-400c-83f9-769e15f2569f</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2711518782-controle-jfa-acqua-1200-metros-longa-distancia-lancamento-_JM#position%3D24%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D769d8028-6271-473e-9d16-b066f2fa1baa</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>12/09/2024</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
@@ -4495,22 +4515,18 @@
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>Fonte Automotiva 70 Amperes Jfa Storm Carregador Com Cor Pre</t>
+          <t>Controle Longa Distância Jfa Completo</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>FONTE 70A STORM</t>
+          <t>Sem Modelo</t>
         </is>
       </c>
       <c r="E92" t="n">
-        <v>519.39</v>
-      </c>
-      <c r="F92" t="inlineStr">
-        <is>
-          <t>Acima</t>
-        </is>
-      </c>
+        <v>129.99</v>
+      </c>
+      <c r="F92" t="inlineStr"/>
       <c r="G92" t="inlineStr">
         <is>
           <t>NA</t>
@@ -4518,19 +4534,19 @@
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>premium</t>
         </is>
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-4784710498-fonte-automotiva-70-amperes-jfa-storm-carregador-com-cor-pre-_JM#position%3D27%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D8494a250-c223-400c-83f9-769e15f2569f</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3190757037-controle-longa-distncia-jfa-completo-_JM#position%3D23%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D769d8028-6271-473e-9d16-b066f2fa1baa</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>12/09/2024</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
@@ -4540,20 +4556,20 @@
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>Fonte Automotivo Carregador Jfa Sci 70-a Smart Charger</t>
+          <t>Fonte Automotiva 60a Jfa Amperes Bivolt Automatico</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>FONTE 70A STORM</t>
+          <t>FONTE 60A STORM</t>
         </is>
       </c>
       <c r="E93" t="n">
-        <v>493.42</v>
+        <v>487.48</v>
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Acima</t>
         </is>
       </c>
       <c r="G93" t="inlineStr">
@@ -4563,19 +4579,19 @@
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>premium</t>
         </is>
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3742944145-fonte-automotivo-carregador-jfa-sci-70-a-smart-charger-_JM#position%3D26%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D8494a250-c223-400c-83f9-769e15f2569f</t>
+          <t>https://produto.mercadolivre.com.br/MLB-967163530-fonte-automotiva-60a-jfa-amperes-bivolt-automatico-_JM#position%3D22%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D769d8028-6271-473e-9d16-b066f2fa1baa</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>12/09/2024</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
@@ -4585,16 +4601,16 @@
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>Jfa K1200 Controle Longa Distancia 1200 Metros Azul</t>
+          <t>Fonte Carregador Jfa Bob Storm 90a Bivolt Automático Cor Pre</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>K1200</t>
+          <t>FONTE 90 BOB</t>
         </is>
       </c>
       <c r="E94" t="n">
-        <v>78.98999999999999</v>
+        <v>456.36</v>
       </c>
       <c r="F94" t="inlineStr">
         <is>
@@ -4613,14 +4629,14 @@
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-4777431108-jfa-k1200-controle-longa-distancia-1200-metros-azul-_JM#position%3D25%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D8494a250-c223-400c-83f9-769e15f2569f</t>
+          <t>https://produto.mercadolivre.com.br/MLB-4777392272-fonte-carregador-jfa-bob-storm-90a-bivolt-automatico-cor-pre-_JM#position%3D21%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D769d8028-6271-473e-9d16-b066f2fa1baa</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>12/09/2024</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
@@ -4630,16 +4646,16 @@
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>Controle Remoto Universal Longa Distância Jfa K1200 2 Cores</t>
+          <t>Fonte Automotiva Jfa Storm Lite 120a Bivolt Carregador</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>K1200</t>
+          <t>FONTE 120A LITE</t>
         </is>
       </c>
       <c r="E95" t="n">
-        <v>78.98999999999999</v>
+        <v>590.5599999999999</v>
       </c>
       <c r="F95" t="inlineStr">
         <is>
@@ -4658,14 +4674,14 @@
       </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-4771768486-controle-remoto-universal-longa-distncia-jfa-k1200-2-cores-_JM#position%3D24%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D8494a250-c223-400c-83f9-769e15f2569f</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3734575855-fonte-automotiva-jfa-storm-lite-120a-bivolt-carregador-_JM#position%3D14%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D769d8028-6271-473e-9d16-b066f2fa1baa</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>12/09/2024</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
@@ -4675,16 +4691,16 @@
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa 70a Bivolt Com Medidor Cca</t>
+          <t>Fonte Automotiva 120 A Jfa Carregador Modelo</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>FONTE 70A STORM</t>
+          <t>FONTE 120A STORM</t>
         </is>
       </c>
       <c r="E96" t="n">
-        <v>519.39</v>
+        <v>694.92</v>
       </c>
       <c r="F96" t="inlineStr">
         <is>
@@ -4698,12 +4714,12 @@
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>premium</t>
         </is>
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-4804562508-fonte-carregador-jfa-70a-bivolt-com-medidor-cca-_JM#position%3D20%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D8494a250-c223-400c-83f9-769e15f2569f</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3744128325-fonte-automotiva-120-a-jfa-carregador-modelo-_JM#position%3D13%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D769d8028-6271-473e-9d16-b066f2fa1baa</t>
         </is>
       </c>
     </row>
